--- a/output/res_load/p_mw.xlsx
+++ b/output/res_load/p_mw.xlsx
@@ -563,7 +563,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02095353314945872</v>
+        <v>0.01047676657472936</v>
       </c>
       <c r="C2" t="n">
         <v>0.001133466577209209</v>
@@ -584,7 +584,7 @@
         <v>0.001511288769612278</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01646349033171757</v>
+        <v>0.008231745165858784</v>
       </c>
       <c r="J2" t="n">
         <v>0.001133466577209209</v>
@@ -602,13 +602,13 @@
         <v>0.002266933154418417</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01945685221021167</v>
+        <v>0.009728426105105837</v>
       </c>
       <c r="P2" t="n">
-        <v>0.01496680939247052</v>
+        <v>0.007483404696235258</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.01347012845322346</v>
+        <v>0.006735064226611732</v>
       </c>
       <c r="R2" t="n">
         <v>0.001133466577209209</v>
@@ -668,7 +668,7 @@
         <v>0.004156044116433765</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.03367532113305866</v>
+        <v>0.01683766056652933</v>
       </c>
       <c r="AL2" t="n">
         <v>0.006422977270852183</v>
@@ -680,7 +680,7 @@
         <v>0.006800799463255251</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.03891370442042334</v>
+        <v>0.01945685221021167</v>
       </c>
       <c r="AP2" t="n">
         <v>0.003400399731627625</v>
@@ -691,7 +691,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02043885434157152</v>
+        <v>0.01021942717078576</v>
       </c>
       <c r="C3" t="n">
         <v>0.0009838477450362442</v>
@@ -712,7 +712,7 @@
         <v>0.001311796993381659</v>
       </c>
       <c r="I3" t="n">
-        <v>0.01605909983980619</v>
+        <v>0.008029549919903097</v>
       </c>
       <c r="J3" t="n">
         <v>0.0009838477450362442</v>
@@ -730,13 +730,13 @@
         <v>0.001967695490072488</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01897893617431641</v>
+        <v>0.009489468087158205</v>
       </c>
       <c r="P3" t="n">
-        <v>0.01459918167255108</v>
+        <v>0.007299590836275541</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.01313926350529598</v>
+        <v>0.006569631752647988</v>
       </c>
       <c r="R3" t="n">
         <v>0.0009838477450362442</v>
@@ -796,7 +796,7 @@
         <v>0.003607441731799562</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.03284815876323994</v>
+        <v>0.01642407938161997</v>
       </c>
       <c r="AL3" t="n">
         <v>0.005575137221872051</v>
@@ -808,7 +808,7 @@
         <v>0.005903086470217465</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.03795787234863282</v>
+        <v>0.01897893617431641</v>
       </c>
       <c r="AP3" t="n">
         <v>0.002951543235108732</v>
@@ -819,7 +819,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02085175924750715</v>
+        <v>0.01042587962375357</v>
       </c>
       <c r="C4" t="n">
         <v>0.000956930275031681</v>
@@ -840,7 +840,7 @@
         <v>0.001275907033375575</v>
       </c>
       <c r="I4" t="n">
-        <v>0.01638352512304133</v>
+        <v>0.008191762561520665</v>
       </c>
       <c r="J4" t="n">
         <v>0.000956930275031681</v>
@@ -858,13 +858,13 @@
         <v>0.001913860550063362</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01936234787268521</v>
+        <v>0.009681173936342605</v>
       </c>
       <c r="P4" t="n">
-        <v>0.01489411374821939</v>
+        <v>0.007447056874109694</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.01340470237339745</v>
+        <v>0.006702351186698726</v>
       </c>
       <c r="R4" t="n">
         <v>0.000956930275031681</v>
@@ -924,7 +924,7 @@
         <v>0.00350874434178283</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.03351175593349363</v>
+        <v>0.01675587796674681</v>
       </c>
       <c r="AL4" t="n">
         <v>0.005422604891846193</v>
@@ -936,7 +936,7 @@
         <v>0.005741581650190086</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.03872469574537041</v>
+        <v>0.01936234787268521</v>
       </c>
       <c r="AP4" t="n">
         <v>0.002870790825095043</v>
@@ -947,7 +947,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02137244202854514</v>
+        <v>0.01068622101427257</v>
       </c>
       <c r="C5" t="n">
         <v>0.0009790681280941948</v>
@@ -968,7 +968,7 @@
         <v>0.00130542417079226</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01679263302242832</v>
+        <v>0.008396316511214162</v>
       </c>
       <c r="J5" t="n">
         <v>0.0009790681280941948</v>
@@ -986,13 +986,13 @@
         <v>0.00195813625618839</v>
       </c>
       <c r="O5" t="n">
-        <v>0.0198458390265062</v>
+        <v>0.009922919513253102</v>
       </c>
       <c r="P5" t="n">
-        <v>0.01526603002038938</v>
+        <v>0.007633015010194692</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.01373942701835045</v>
+        <v>0.006869713509175224</v>
       </c>
       <c r="R5" t="n">
         <v>0.0009790681280941948</v>
@@ -1052,7 +1052,7 @@
         <v>0.003589916469678714</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.03434856754587612</v>
+        <v>0.01717428377293806</v>
       </c>
       <c r="AL5" t="n">
         <v>0.005548052725867104</v>
@@ -1064,7 +1064,7 @@
         <v>0.005874408768565167</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.03969167805301241</v>
+        <v>0.0198458390265062</v>
       </c>
       <c r="AP5" t="n">
         <v>0.002937204384282584</v>
@@ -1075,7 +1075,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02134156933958012</v>
+        <v>0.01067078466979006</v>
       </c>
       <c r="C6" t="n">
         <v>0.00104407328626691</v>
@@ -1096,7 +1096,7 @@
         <v>0.001392097715022547</v>
       </c>
       <c r="I6" t="n">
-        <v>0.01676837590967009</v>
+        <v>0.008384187954835046</v>
       </c>
       <c r="J6" t="n">
         <v>0.00104407328626691</v>
@@ -1114,13 +1114,13 @@
         <v>0.002088146572533821</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01981717152961011</v>
+        <v>0.009908585764805055</v>
       </c>
       <c r="P6" t="n">
-        <v>0.01524397809970008</v>
+        <v>0.007621989049850041</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.01371958028973008</v>
+        <v>0.006859790144865038</v>
       </c>
       <c r="R6" t="n">
         <v>0.00104407328626691</v>
@@ -1180,7 +1180,7 @@
         <v>0.003828268716312004</v>
       </c>
       <c r="AK6" t="n">
-        <v>0.03429895072432518</v>
+        <v>0.01714947536216259</v>
       </c>
       <c r="AL6" t="n">
         <v>0.005916415288845825</v>
@@ -1192,7 +1192,7 @@
         <v>0.006264439717601461</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.03963434305922021</v>
+        <v>0.01981717152961011</v>
       </c>
       <c r="AP6" t="n">
         <v>0.003132219858800731</v>
@@ -1203,7 +1203,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02133837186344344</v>
+        <v>0.01066918593172172</v>
       </c>
       <c r="C7" t="n">
         <v>0.001143085617888925</v>
@@ -1224,7 +1224,7 @@
         <v>0.001524114157185233</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01676586360699128</v>
+        <v>0.008382931803495638</v>
       </c>
       <c r="J7" t="n">
         <v>0.001143085617888925</v>
@@ -1242,13 +1242,13 @@
         <v>0.00228617123577785</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01981420244462605</v>
+        <v>0.009907101222313027</v>
       </c>
       <c r="P7" t="n">
-        <v>0.01524169418817388</v>
+        <v>0.007620847094086942</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0137175247693565</v>
+        <v>0.006858762384678248</v>
       </c>
       <c r="R7" t="n">
         <v>0.001143085617888925</v>
@@ -1308,7 +1308,7 @@
         <v>0.004191313932259392</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.03429381192339125</v>
+        <v>0.01714690596169562</v>
       </c>
       <c r="AL7" t="n">
         <v>0.006477485168037242</v>
@@ -1320,7 +1320,7 @@
         <v>0.006858513707333549</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0396284048892521</v>
+        <v>0.01981420244462605</v>
       </c>
       <c r="AP7" t="n">
         <v>0.003429256853666775</v>
@@ -1331,7 +1331,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02253712810765494</v>
+        <v>0.01126856405382747</v>
       </c>
       <c r="C8" t="n">
         <v>0.001290800069330129</v>
@@ -1352,7 +1352,7 @@
         <v>0.001721066759106838</v>
       </c>
       <c r="I8" t="n">
-        <v>0.01770774351315745</v>
+        <v>0.008853871756578724</v>
       </c>
       <c r="J8" t="n">
         <v>0.001290800069330129</v>
@@ -1370,13 +1370,13 @@
         <v>0.002581600138660258</v>
       </c>
       <c r="O8" t="n">
-        <v>0.02092733324282245</v>
+        <v>0.01046366662141122</v>
       </c>
       <c r="P8" t="n">
-        <v>0.01609794864832495</v>
+        <v>0.008048974324162477</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.01448815378349246</v>
+        <v>0.007244076891746229</v>
       </c>
       <c r="R8" t="n">
         <v>0.001290800069330129</v>
@@ -1436,7 +1436,7 @@
         <v>0.004732933587543805</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.03622038445873115</v>
+        <v>0.01811019222936558</v>
       </c>
       <c r="AL8" t="n">
         <v>0.007314533726204064</v>
@@ -1448,7 +1448,7 @@
         <v>0.007744800415980773</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.04185466648564488</v>
+        <v>0.02092733324282244</v>
       </c>
       <c r="AP8" t="n">
         <v>0.003872400207990386</v>
@@ -1459,7 +1459,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.023898798021378</v>
+        <v>0.011949399010689</v>
       </c>
       <c r="C9" t="n">
         <v>0.001539391157669848</v>
@@ -1480,7 +1480,7 @@
         <v>0.002052521543559797</v>
       </c>
       <c r="I9" t="n">
-        <v>0.018777627016797</v>
+        <v>0.0093888135083985</v>
       </c>
       <c r="J9" t="n">
         <v>0.001539391157669848</v>
@@ -1498,13 +1498,13 @@
         <v>0.003078782315339696</v>
       </c>
       <c r="O9" t="n">
-        <v>0.022191741019851</v>
+        <v>0.0110958705099255</v>
       </c>
       <c r="P9" t="n">
-        <v>0.01707057001527</v>
+        <v>0.008535285007634999</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.015363513013743</v>
+        <v>0.0076817565068715</v>
       </c>
       <c r="R9" t="n">
         <v>0.001539391157669848</v>
@@ -1564,7 +1564,7 @@
         <v>0.005644434244789442</v>
       </c>
       <c r="AK9" t="n">
-        <v>0.0384087825343575</v>
+        <v>0.01920439126717875</v>
       </c>
       <c r="AL9" t="n">
         <v>0.008723216560129138</v>
@@ -1576,7 +1576,7 @@
         <v>0.009236346946019087</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.044383482039702</v>
+        <v>0.022191741019851</v>
       </c>
       <c r="AP9" t="n">
         <v>0.004618173473009544</v>
@@ -1587,7 +1587,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02430859057059011</v>
+        <v>0.01215429528529505</v>
       </c>
       <c r="C10" t="n">
         <v>0.001730671011494196</v>
@@ -1608,7 +1608,7 @@
         <v>0.002307561348658928</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01909960687689222</v>
+        <v>0.009549803438446112</v>
       </c>
       <c r="J10" t="n">
         <v>0.001730671011494196</v>
@@ -1626,13 +1626,13 @@
         <v>0.003461342022988392</v>
       </c>
       <c r="O10" t="n">
-        <v>0.02257226267269082</v>
+        <v>0.01128613133634541</v>
       </c>
       <c r="P10" t="n">
-        <v>0.01736327897899293</v>
+        <v>0.008681639489496466</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01562695108109364</v>
+        <v>0.007813475540546819</v>
       </c>
       <c r="R10" t="n">
         <v>0.001730671011494196</v>
@@ -1692,7 +1692,7 @@
         <v>0.00634579370881205</v>
       </c>
       <c r="AK10" t="n">
-        <v>0.0390673777027341</v>
+        <v>0.01953368885136705</v>
       </c>
       <c r="AL10" t="n">
         <v>0.009807135731800443</v>
@@ -1704,7 +1704,7 @@
         <v>0.01038402606896517</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.04514452534538162</v>
+        <v>0.02257226267269081</v>
       </c>
       <c r="AP10" t="n">
         <v>0.005192013034482587</v>
@@ -1715,7 +1715,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0243375307637879</v>
+        <v>0.01216876538189395</v>
       </c>
       <c r="C11" t="n">
         <v>0.001881266042539724</v>
@@ -1736,7 +1736,7 @@
         <v>0.002508354723386299</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01912234560011906</v>
+        <v>0.009561172800059531</v>
       </c>
       <c r="J11" t="n">
         <v>0.001881266042539724</v>
@@ -1754,13 +1754,13 @@
         <v>0.003762532085079449</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02259913570923162</v>
+        <v>0.01129956785461581</v>
       </c>
       <c r="P11" t="n">
-        <v>0.01738395054556278</v>
+        <v>0.008691975272781391</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.0156455554910065</v>
+        <v>0.007822777745503252</v>
       </c>
       <c r="R11" t="n">
         <v>0.001881266042539724</v>
@@ -1820,7 +1820,7 @@
         <v>0.006897975489312322</v>
       </c>
       <c r="AK11" t="n">
-        <v>0.03911388872751626</v>
+        <v>0.01955694436375813</v>
       </c>
       <c r="AL11" t="n">
         <v>0.01066050757439177</v>
@@ -1832,7 +1832,7 @@
         <v>0.01128759625523834</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.04519827141846323</v>
+        <v>0.02259913570923162</v>
       </c>
       <c r="AP11" t="n">
         <v>0.005643798127619172</v>
@@ -1843,7 +1843,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02384835886367853</v>
+        <v>0.01192417943183926</v>
       </c>
       <c r="C12" t="n">
         <v>0.002000013464699341</v>
@@ -1864,7 +1864,7 @@
         <v>0.002666684619599121</v>
       </c>
       <c r="I12" t="n">
-        <v>0.01873799625003313</v>
+        <v>0.009368998125016563</v>
       </c>
       <c r="J12" t="n">
         <v>0.002000013464699341</v>
@@ -1882,13 +1882,13 @@
         <v>0.004000026929398682</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02214490465913006</v>
+        <v>0.01107245232956503</v>
       </c>
       <c r="P12" t="n">
-        <v>0.01703454204548466</v>
+        <v>0.00851727102274233</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.01533108784093619</v>
+        <v>0.007665543920468097</v>
       </c>
       <c r="R12" t="n">
         <v>0.002000013464699341</v>
@@ -1948,7 +1948,7 @@
         <v>0.007333382703897584</v>
       </c>
       <c r="AK12" t="n">
-        <v>0.03832771960234049</v>
+        <v>0.01916385980117024</v>
       </c>
       <c r="AL12" t="n">
         <v>0.01133340963329627</v>
@@ -1960,7 +1960,7 @@
         <v>0.01200008078819604</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.04428980931826012</v>
+        <v>0.02214490465913006</v>
       </c>
       <c r="AP12" t="n">
         <v>0.006000040394098022</v>
@@ -1971,7 +1971,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0224185241835569</v>
+        <v>0.01120926209177845</v>
       </c>
       <c r="C13" t="n">
         <v>0.002183376246887943</v>
@@ -1992,7 +1992,7 @@
         <v>0.002911168329183924</v>
       </c>
       <c r="I13" t="n">
-        <v>0.01761455471565185</v>
+        <v>0.008807277357825926</v>
       </c>
       <c r="J13" t="n">
         <v>0.002183376246887943</v>
@@ -2010,13 +2010,13 @@
         <v>0.004366752493775885</v>
       </c>
       <c r="O13" t="n">
-        <v>0.02081720102758856</v>
+        <v>0.01040860051379428</v>
       </c>
       <c r="P13" t="n">
-        <v>0.0160132315596835</v>
+        <v>0.00800661577984175</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.01441190840371515</v>
+        <v>0.007205954201857575</v>
       </c>
       <c r="R13" t="n">
         <v>0.002183376246887943</v>
@@ -2076,7 +2076,7 @@
         <v>0.00800571290525579</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.03602977100928788</v>
+        <v>0.01801488550464394</v>
       </c>
       <c r="AL13" t="n">
         <v>0.01237246539903168</v>
@@ -2088,7 +2088,7 @@
         <v>0.01310025748132766</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.04163440205517711</v>
+        <v>0.02081720102758855</v>
       </c>
       <c r="AP13" t="n">
         <v>0.006550128740663828</v>
@@ -2099,7 +2099,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0219825405131025</v>
+        <v>0.01099127025655125</v>
       </c>
       <c r="C14" t="n">
         <v>0.002257567116092948</v>
@@ -2120,7 +2120,7 @@
         <v>0.003010089488123931</v>
       </c>
       <c r="I14" t="n">
-        <v>0.01727199611743768</v>
+        <v>0.008635998058718838</v>
       </c>
       <c r="J14" t="n">
         <v>0.002257567116092948</v>
@@ -2138,13 +2138,13 @@
         <v>0.004515134232185896</v>
       </c>
       <c r="O14" t="n">
-        <v>0.0204123590478809</v>
+        <v>0.01020617952394045</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01570181465221607</v>
+        <v>0.007850907326108034</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.01413163318699446</v>
+        <v>0.007065816593497231</v>
       </c>
       <c r="R14" t="n">
         <v>0.002257567116092948</v>
@@ -2204,7 +2204,7 @@
         <v>0.008277746092340808</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.03532908296748616</v>
+        <v>0.01766454148374308</v>
       </c>
       <c r="AL14" t="n">
         <v>0.01279288032452671</v>
@@ -2216,7 +2216,7 @@
         <v>0.01354540269655769</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.04082471809576178</v>
+        <v>0.02041235904788089</v>
       </c>
       <c r="AP14" t="n">
         <v>0.006772701348278843</v>
@@ -2227,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0216997571245836</v>
+        <v>0.0108498785622918</v>
       </c>
       <c r="C15" t="n">
         <v>0.002174477583963635</v>
@@ -2248,7 +2248,7 @@
         <v>0.002899303445284846</v>
       </c>
       <c r="I15" t="n">
-        <v>0.01704980916931569</v>
+        <v>0.008524904584657843</v>
       </c>
       <c r="J15" t="n">
         <v>0.002174477583963635</v>
@@ -2266,13 +2266,13 @@
         <v>0.004348955167927269</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02014977447282763</v>
+        <v>0.01007488723641382</v>
       </c>
       <c r="P15" t="n">
-        <v>0.01549982651755971</v>
+        <v>0.007749913258779857</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.01394984386580374</v>
+        <v>0.006974921932901871</v>
       </c>
       <c r="R15" t="n">
         <v>0.002174477583963635</v>
@@ -2332,7 +2332,7 @@
         <v>0.007973084474533326</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.03487460966450936</v>
+        <v>0.01743730483225468</v>
       </c>
       <c r="AL15" t="n">
         <v>0.0123220396424606</v>
@@ -2344,7 +2344,7 @@
         <v>0.01304686550378181</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.04029954894565526</v>
+        <v>0.02014977447282763</v>
       </c>
       <c r="AP15" t="n">
         <v>0.006523432751890903</v>
@@ -2355,7 +2355,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02170490664544364</v>
+        <v>0.01085245332272182</v>
       </c>
       <c r="C16" t="n">
         <v>0.002038788024110766</v>
@@ -2376,7 +2376,7 @@
         <v>0.002718384032147688</v>
       </c>
       <c r="I16" t="n">
-        <v>0.01705385522142</v>
+        <v>0.008526927610709998</v>
       </c>
       <c r="J16" t="n">
         <v>0.002038788024110766</v>
@@ -2394,13 +2394,13 @@
         <v>0.004077576048221532</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02015455617076909</v>
+        <v>0.01007727808538455</v>
       </c>
       <c r="P16" t="n">
-        <v>0.01550350474674545</v>
+        <v>0.007751752373372726</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.01395315427207091</v>
+        <v>0.006976577136035453</v>
       </c>
       <c r="R16" t="n">
         <v>0.002038788024110766</v>
@@ -2460,7 +2460,7 @@
         <v>0.007475556088406141</v>
       </c>
       <c r="AK16" t="n">
-        <v>0.03488288568017727</v>
+        <v>0.01744144284008864</v>
       </c>
       <c r="AL16" t="n">
         <v>0.01155313213662768</v>
@@ -2472,7 +2472,7 @@
         <v>0.01223272814466459</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.04030911234153817</v>
+        <v>0.02015455617076909</v>
       </c>
       <c r="AP16" t="n">
         <v>0.006116364072332297</v>
@@ -2483,7 +2483,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.02241050340976558</v>
+        <v>0.01120525170488279</v>
       </c>
       <c r="C17" t="n">
         <v>0.002009886194040795</v>
@@ -2504,7 +2504,7 @@
         <v>0.00267984825872106</v>
       </c>
       <c r="I17" t="n">
-        <v>0.01760825267910153</v>
+        <v>0.008804126339550763</v>
       </c>
       <c r="J17" t="n">
         <v>0.002009886194040795</v>
@@ -2522,13 +2522,13 @@
         <v>0.00401977238808159</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0208097531662109</v>
+        <v>0.01040487658310545</v>
       </c>
       <c r="P17" t="n">
-        <v>0.01600750243554684</v>
+        <v>0.008003751217773421</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.01440675219199216</v>
+        <v>0.007203376095996079</v>
       </c>
       <c r="R17" t="n">
         <v>0.002009886194040795</v>
@@ -2588,7 +2588,7 @@
         <v>0.007369582711482915</v>
       </c>
       <c r="AK17" t="n">
-        <v>0.0360168804799804</v>
+        <v>0.0180084402399902</v>
       </c>
       <c r="AL17" t="n">
         <v>0.01138935509956451</v>
@@ -2600,7 +2600,7 @@
         <v>0.01205931716424477</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.04161950633242179</v>
+        <v>0.0208097531662109</v>
       </c>
       <c r="AP17" t="n">
         <v>0.006029658582122384</v>
@@ -2611,7 +2611,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.02349216588673993</v>
+        <v>0.01174608294336996</v>
       </c>
       <c r="C18" t="n">
         <v>0.002391340995651441</v>
@@ -2632,7 +2632,7 @@
         <v>0.003188454660868588</v>
       </c>
       <c r="I18" t="n">
-        <v>0.01845813033958137</v>
+        <v>0.009229065169790685</v>
       </c>
       <c r="J18" t="n">
         <v>0.002391340995651441</v>
@@ -2650,13 +2650,13 @@
         <v>0.004782681991302882</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02181415403768708</v>
+        <v>0.01090707701884354</v>
       </c>
       <c r="P18" t="n">
-        <v>0.01678011849052852</v>
+        <v>0.008390059245264259</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.01510210664147567</v>
+        <v>0.007551053320737833</v>
       </c>
       <c r="R18" t="n">
         <v>0.002391340995651441</v>
@@ -2716,7 +2716,7 @@
         <v>0.008768250317388617</v>
       </c>
       <c r="AK18" t="n">
-        <v>0.03775526660368917</v>
+        <v>0.01887763330184459</v>
       </c>
       <c r="AL18" t="n">
         <v>0.0135509323086915</v>
@@ -2728,7 +2728,7 @@
         <v>0.01434804597390864</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.04362830807537415</v>
+        <v>0.02181415403768707</v>
       </c>
       <c r="AP18" t="n">
         <v>0.007174022986954322</v>
@@ -2739,7 +2739,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.02412186016346593</v>
+        <v>0.01206093008173296</v>
       </c>
       <c r="C19" t="n">
         <v>0.002688884853110343</v>
@@ -2760,7 +2760,7 @@
         <v>0.003585179804147124</v>
       </c>
       <c r="I19" t="n">
-        <v>0.01895289012843751</v>
+        <v>0.009476445064218757</v>
       </c>
       <c r="J19" t="n">
         <v>0.002688884853110343</v>
@@ -2778,13 +2778,13 @@
         <v>0.005377769706220686</v>
       </c>
       <c r="O19" t="n">
-        <v>0.02239887015178979</v>
+        <v>0.0111994350758949</v>
       </c>
       <c r="P19" t="n">
-        <v>0.01722990011676137</v>
+        <v>0.008614950058380687</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.01550691010508524</v>
+        <v>0.007753455052542619</v>
       </c>
       <c r="R19" t="n">
         <v>0.002688884853110343</v>
@@ -2844,7 +2844,7 @@
         <v>0.009859244461404591</v>
       </c>
       <c r="AK19" t="n">
-        <v>0.0387672752627131</v>
+        <v>0.01938363763135655</v>
       </c>
       <c r="AL19" t="n">
         <v>0.01523701416762528</v>
@@ -2856,7 +2856,7 @@
         <v>0.01613330911866206</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.04479774030357957</v>
+        <v>0.02239887015178979</v>
       </c>
       <c r="AP19" t="n">
         <v>0.008066654559331029</v>
@@ -2867,7 +2867,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.02446505064095995</v>
+        <v>0.01223252532047998</v>
       </c>
       <c r="C20" t="n">
         <v>0.002805278926884378</v>
@@ -2888,7 +2888,7 @@
         <v>0.003740371902512505</v>
       </c>
       <c r="I20" t="n">
-        <v>0.01922253978932567</v>
+        <v>0.009611269894662836</v>
       </c>
       <c r="J20" t="n">
         <v>0.002805278926884378</v>
@@ -2906,13 +2906,13 @@
         <v>0.005610557853768757</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02271754702374853</v>
+        <v>0.01135877351187426</v>
       </c>
       <c r="P20" t="n">
-        <v>0.01747503617211425</v>
+        <v>0.008737518086057123</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.01572753255490282</v>
+        <v>0.007863766277451412</v>
       </c>
       <c r="R20" t="n">
         <v>0.002805278926884378</v>
@@ -2972,7 +2972,7 @@
         <v>0.01028602273190939</v>
       </c>
       <c r="AK20" t="n">
-        <v>0.03931883138725706</v>
+        <v>0.01965941569362853</v>
       </c>
       <c r="AL20" t="n">
         <v>0.01589658058567815</v>
@@ -2984,7 +2984,7 @@
         <v>0.01683167356130627</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.04543509404749704</v>
+        <v>0.02271754702374852</v>
       </c>
       <c r="AP20" t="n">
         <v>0.008415836780653134</v>
@@ -2995,7 +2995,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02433132845018639</v>
+        <v>0.0121656642250932</v>
       </c>
       <c r="C21" t="n">
         <v>0.002702985383660348</v>
@@ -3016,7 +3016,7 @@
         <v>0.003603980511547131</v>
       </c>
       <c r="I21" t="n">
-        <v>0.01911747235371788</v>
+        <v>0.009558736176858939</v>
       </c>
       <c r="J21" t="n">
         <v>0.002702985383660348</v>
@@ -3034,13 +3034,13 @@
         <v>0.005405970767320697</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02259337641803022</v>
+        <v>0.01129668820901511</v>
       </c>
       <c r="P21" t="n">
-        <v>0.01737952032156171</v>
+        <v>0.008689760160780853</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.01564156828940554</v>
+        <v>0.007820784144702768</v>
       </c>
       <c r="R21" t="n">
         <v>0.002702985383660348</v>
@@ -3100,7 +3100,7 @@
         <v>0.009910946406754611</v>
       </c>
       <c r="AK21" t="n">
-        <v>0.03910392072351384</v>
+        <v>0.01955196036175692</v>
       </c>
       <c r="AL21" t="n">
         <v>0.01531691717407531</v>
@@ -3112,7 +3112,7 @@
         <v>0.01621791230196209</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.04518675283606044</v>
+        <v>0.02259337641803022</v>
       </c>
       <c r="AP21" t="n">
         <v>0.008108956150981044</v>
@@ -3123,7 +3123,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.02358044612172419</v>
+        <v>0.0117902230608621</v>
       </c>
       <c r="C22" t="n">
         <v>0.002451038766421765</v>
@@ -3144,7 +3144,7 @@
         <v>0.003268051688562354</v>
       </c>
       <c r="I22" t="n">
-        <v>0.01852749338135472</v>
+        <v>0.009263746690677361</v>
       </c>
       <c r="J22" t="n">
         <v>0.002451038766421765</v>
@@ -3162,13 +3162,13 @@
         <v>0.004902077532843531</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02189612854160104</v>
+        <v>0.01094806427080052</v>
       </c>
       <c r="P22" t="n">
-        <v>0.01684317580123157</v>
+        <v>0.008421587900615783</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.01515885822110841</v>
+        <v>0.007579429110554204</v>
       </c>
       <c r="R22" t="n">
         <v>0.002451038766421765</v>
@@ -3228,7 +3228,7 @@
         <v>0.008987142143546472</v>
       </c>
       <c r="AK22" t="n">
-        <v>0.03789714555277102</v>
+        <v>0.01894857277638551</v>
       </c>
       <c r="AL22" t="n">
         <v>0.01388921967639</v>
@@ -3240,7 +3240,7 @@
         <v>0.01470623259853059</v>
       </c>
       <c r="AO22" t="n">
-        <v>0.04379225708320207</v>
+        <v>0.02189612854160104</v>
       </c>
       <c r="AP22" t="n">
         <v>0.007353116299265295</v>
@@ -3251,7 +3251,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.02272538496243677</v>
+        <v>0.01136269248121838</v>
       </c>
       <c r="C23" t="n">
         <v>0.00210515488987796</v>
@@ -3272,7 +3272,7 @@
         <v>0.002806873186503946</v>
       </c>
       <c r="I23" t="n">
-        <v>0.01785565961334317</v>
+        <v>0.008927829806671585</v>
       </c>
       <c r="J23" t="n">
         <v>0.00210515488987796</v>
@@ -3290,13 +3290,13 @@
         <v>0.004210309779755919</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02110214317940557</v>
+        <v>0.01055107158970279</v>
       </c>
       <c r="P23" t="n">
-        <v>0.01623241783031197</v>
+        <v>0.008116208915155987</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.01460917604728078</v>
+        <v>0.007304588023640389</v>
       </c>
       <c r="R23" t="n">
         <v>0.00210515488987796</v>
@@ -3356,7 +3356,7 @@
         <v>0.007718901262885851</v>
       </c>
       <c r="AK23" t="n">
-        <v>0.03652294011820195</v>
+        <v>0.01826147005910097</v>
       </c>
       <c r="AL23" t="n">
         <v>0.01192921104264177</v>
@@ -3368,7 +3368,7 @@
         <v>0.01263092933926776</v>
       </c>
       <c r="AO23" t="n">
-        <v>0.04220428635881113</v>
+        <v>0.02110214317940557</v>
       </c>
       <c r="AP23" t="n">
         <v>0.006315464669633878</v>
@@ -3379,7 +3379,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.02282747734946526</v>
+        <v>0.01141373867473263</v>
       </c>
       <c r="C24" t="n">
         <v>0.001753159150997763</v>
@@ -3400,7 +3400,7 @@
         <v>0.002337545534663683</v>
       </c>
       <c r="I24" t="n">
-        <v>0.01793587506029413</v>
+        <v>0.008967937530147064</v>
       </c>
       <c r="J24" t="n">
         <v>0.001753159150997763</v>
@@ -3418,13 +3418,13 @@
         <v>0.003506318301995525</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02119694325307488</v>
+        <v>0.01059847162653744</v>
       </c>
       <c r="P24" t="n">
-        <v>0.01630534096390375</v>
+        <v>0.008152670481951875</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.01467480686751338</v>
+        <v>0.007337403433756689</v>
       </c>
       <c r="R24" t="n">
         <v>0.001753159150997763</v>
@@ -3484,7 +3484,7 @@
         <v>0.00642825022032513</v>
       </c>
       <c r="AK24" t="n">
-        <v>0.03668701716878345</v>
+        <v>0.01834350858439172</v>
       </c>
       <c r="AL24" t="n">
         <v>0.009934568522320655</v>
@@ -3496,7 +3496,7 @@
         <v>0.01051895490598657</v>
       </c>
       <c r="AO24" t="n">
-        <v>0.04239388650614976</v>
+        <v>0.02119694325307488</v>
       </c>
       <c r="AP24" t="n">
         <v>0.005259477452993287</v>
@@ -3507,7 +3507,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.02223463041142087</v>
+        <v>0.01111731520571044</v>
       </c>
       <c r="C25" t="n">
         <v>0.001423763444253097</v>
@@ -3528,7 +3528,7 @@
         <v>0.00189835125900413</v>
       </c>
       <c r="I25" t="n">
-        <v>0.01747006675183069</v>
+        <v>0.008735033375915344</v>
       </c>
       <c r="J25" t="n">
         <v>0.001423763444253097</v>
@@ -3546,13 +3546,13 @@
         <v>0.002847526888506194</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02064644252489082</v>
+        <v>0.01032322126244541</v>
       </c>
       <c r="P25" t="n">
-        <v>0.01588187886530062</v>
+        <v>0.007940939432650311</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.01429369097877056</v>
+        <v>0.00714684548938528</v>
       </c>
       <c r="R25" t="n">
         <v>0.001423763444253097</v>
@@ -3612,7 +3612,7 @@
         <v>0.005220465962261355</v>
       </c>
       <c r="AK25" t="n">
-        <v>0.03573422744692641</v>
+        <v>0.0178671137234632</v>
       </c>
       <c r="AL25" t="n">
         <v>0.00806799285076755</v>
@@ -3624,7 +3624,7 @@
         <v>0.008542580665518582</v>
       </c>
       <c r="AO25" t="n">
-        <v>0.04129288504978162</v>
+        <v>0.02064644252489081</v>
       </c>
       <c r="AP25" t="n">
         <v>0.004271290332759291</v>
@@ -3635,7 +3635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.02259486187687957</v>
+        <v>0.01129743093843978</v>
       </c>
       <c r="C26" t="n">
         <v>0.001158678082879767</v>
@@ -3656,7 +3656,7 @@
         <v>0.001544904110506356</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01775310576040537</v>
+        <v>0.008876552880202686</v>
       </c>
       <c r="J26" t="n">
         <v>0.001158678082879767</v>
@@ -3674,13 +3674,13 @@
         <v>0.002317356165759534</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02098094317138817</v>
+        <v>0.01049047158569409</v>
       </c>
       <c r="P26" t="n">
-        <v>0.01613918705491398</v>
+        <v>0.008069593527456988</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.01452526834942258</v>
+        <v>0.007262634174711289</v>
       </c>
       <c r="R26" t="n">
         <v>0.001158678082879767</v>
@@ -3740,7 +3740,7 @@
         <v>0.004248486303892478</v>
       </c>
       <c r="AK26" t="n">
-        <v>0.03631317087355645</v>
+        <v>0.01815658543677822</v>
       </c>
       <c r="AL26" t="n">
         <v>0.006565842469652013</v>
@@ -3752,7 +3752,7 @@
         <v>0.006952068497278601</v>
       </c>
       <c r="AO26" t="n">
-        <v>0.04196188634277634</v>
+        <v>0.02098094317138817</v>
       </c>
       <c r="AP26" t="n">
         <v>0.0034760342486393</v>
@@ -3763,7 +3763,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02261102886359736</v>
+        <v>0.01130551443179868</v>
       </c>
       <c r="C27" t="n">
         <v>0.00100755287929768</v>
@@ -3784,7 +3784,7 @@
         <v>0.001343403839063573</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0177658083928265</v>
+        <v>0.008882904196413249</v>
       </c>
       <c r="J27" t="n">
         <v>0.00100755287929768</v>
@@ -3802,13 +3802,13 @@
         <v>0.00201510575859536</v>
       </c>
       <c r="O27" t="n">
-        <v>0.02099595537334041</v>
+        <v>0.0104979776866702</v>
       </c>
       <c r="P27" t="n">
-        <v>0.01615073490256954</v>
+        <v>0.00807536745128477</v>
       </c>
       <c r="Q27" t="n">
-        <v>0.01453566141231259</v>
+        <v>0.007267830706156294</v>
       </c>
       <c r="R27" t="n">
         <v>0.00100755287929768</v>
@@ -3868,7 +3868,7 @@
         <v>0.003694360557424826</v>
       </c>
       <c r="AK27" t="n">
-        <v>0.03633915353078147</v>
+        <v>0.01816957676539074</v>
       </c>
       <c r="AL27" t="n">
         <v>0.005709466316020186</v>
@@ -3880,7 +3880,7 @@
         <v>0.006045317275786079</v>
       </c>
       <c r="AO27" t="n">
-        <v>0.04199191074668081</v>
+        <v>0.0209959553733404</v>
       </c>
       <c r="AP27" t="n">
         <v>0.003022658637893039</v>
@@ -3891,7 +3891,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02388991057719835</v>
+        <v>0.01194495528859918</v>
       </c>
       <c r="C28" t="n">
         <v>0.0009839779963935849</v>
@@ -3912,7 +3912,7 @@
         <v>0.001311970661858113</v>
       </c>
       <c r="I28" t="n">
-        <v>0.01877064402494156</v>
+        <v>0.009385322012470779</v>
       </c>
       <c r="J28" t="n">
         <v>0.0009839779963935849</v>
@@ -3930,13 +3930,13 @@
         <v>0.00196795599278717</v>
       </c>
       <c r="O28" t="n">
-        <v>0.02218348839311276</v>
+        <v>0.01109174419655638</v>
       </c>
       <c r="P28" t="n">
-        <v>0.01706422184085596</v>
+        <v>0.008532110920427981</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.01535779965677037</v>
+        <v>0.007678899828385184</v>
       </c>
       <c r="R28" t="n">
         <v>0.0009839779963935849</v>
@@ -3996,7 +3996,7 @@
         <v>0.003607919320109811</v>
       </c>
       <c r="AK28" t="n">
-        <v>0.03839449914192592</v>
+        <v>0.01919724957096296</v>
       </c>
       <c r="AL28" t="n">
         <v>0.005575875312896981</v>
@@ -4008,7 +4008,7 @@
         <v>0.005903867978361508</v>
       </c>
       <c r="AO28" t="n">
-        <v>0.0443669767862255</v>
+        <v>0.02218348839311275</v>
       </c>
       <c r="AP28" t="n">
         <v>0.002951933989180754</v>
@@ -4019,7 +4019,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02306627965939551</v>
+        <v>0.01153313982969775</v>
       </c>
       <c r="C29" t="n">
         <v>0.001014013679971124</v>
@@ -4040,7 +4040,7 @@
         <v>0.001352018239961499</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0181235054466679</v>
+        <v>0.009061752723333949</v>
       </c>
       <c r="J29" t="n">
         <v>0.001014013679971124</v>
@@ -4058,13 +4058,13 @@
         <v>0.002028027359942248</v>
       </c>
       <c r="O29" t="n">
-        <v>0.02141868825515297</v>
+        <v>0.01070934412757649</v>
       </c>
       <c r="P29" t="n">
-        <v>0.01647591404242536</v>
+        <v>0.00823795702121268</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.01482832263818283</v>
+        <v>0.007414161319091413</v>
       </c>
       <c r="R29" t="n">
         <v>0.001014013679971124</v>
@@ -4124,7 +4124,7 @@
         <v>0.003718050159894121</v>
       </c>
       <c r="AK29" t="n">
-        <v>0.03707080659545706</v>
+        <v>0.01853540329772853</v>
       </c>
       <c r="AL29" t="n">
         <v>0.00574607751983637</v>
@@ -4136,7 +4136,7 @@
         <v>0.006084082079826744</v>
       </c>
       <c r="AO29" t="n">
-        <v>0.04283737651030595</v>
+        <v>0.02141868825515297</v>
       </c>
       <c r="AP29" t="n">
         <v>0.003042041039913372</v>
@@ -4147,7 +4147,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02327855607220978</v>
+        <v>0.01163927803610489</v>
       </c>
       <c r="C30" t="n">
         <v>0.001083616877732637</v>
@@ -4168,7 +4168,7 @@
         <v>0.001444822503643517</v>
       </c>
       <c r="I30" t="n">
-        <v>0.01829029405673625</v>
+        <v>0.009145147028368125</v>
       </c>
       <c r="J30" t="n">
         <v>0.001083616877732637</v>
@@ -4186,13 +4186,13 @@
         <v>0.002167233755465275</v>
       </c>
       <c r="O30" t="n">
-        <v>0.02161580206705194</v>
+        <v>0.01080790103352597</v>
       </c>
       <c r="P30" t="n">
-        <v>0.01662754005157841</v>
+        <v>0.008313770025789204</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.01496478604642057</v>
+        <v>0.007482393023210285</v>
       </c>
       <c r="R30" t="n">
         <v>0.001083616877732637</v>
@@ -4252,7 +4252,7 @@
         <v>0.00397326188501967</v>
       </c>
       <c r="AK30" t="n">
-        <v>0.03741196511605142</v>
+        <v>0.01870598255802571</v>
       </c>
       <c r="AL30" t="n">
         <v>0.006140495640484946</v>
@@ -4264,7 +4264,7 @@
         <v>0.006501701266395824</v>
       </c>
       <c r="AO30" t="n">
-        <v>0.04323160413410387</v>
+        <v>0.02161580206705193</v>
       </c>
       <c r="AP30" t="n">
         <v>0.003250850633197912</v>
@@ -4275,7 +4275,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02335553986144154</v>
+        <v>0.01167776993072077</v>
       </c>
       <c r="C31" t="n">
         <v>0.001217262957031971</v>
@@ -4296,7 +4296,7 @@
         <v>0.001623017276042628</v>
       </c>
       <c r="I31" t="n">
-        <v>0.01835078131970407</v>
+        <v>0.009175390659852033</v>
       </c>
       <c r="J31" t="n">
         <v>0.001217262957031971</v>
@@ -4314,13 +4314,13 @@
         <v>0.002434525914063942</v>
       </c>
       <c r="O31" t="n">
-        <v>0.02168728701419572</v>
+        <v>0.01084364350709786</v>
       </c>
       <c r="P31" t="n">
-        <v>0.01668252847245824</v>
+        <v>0.008341264236229121</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.01501427562521242</v>
+        <v>0.007507137812606209</v>
       </c>
       <c r="R31" t="n">
         <v>0.001217262957031971</v>
@@ -4380,7 +4380,7 @@
         <v>0.004463297509117226</v>
       </c>
       <c r="AK31" t="n">
-        <v>0.03753568906303104</v>
+        <v>0.01876784453151552</v>
       </c>
       <c r="AL31" t="n">
         <v>0.00689782342318117</v>
@@ -4392,7 +4392,7 @@
         <v>0.007303577742191826</v>
       </c>
       <c r="AO31" t="n">
-        <v>0.04337457402839143</v>
+        <v>0.02168728701419571</v>
       </c>
       <c r="AP31" t="n">
         <v>0.003651788871095913</v>
@@ -4403,7 +4403,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.02427058414171807</v>
+        <v>0.01213529207085903</v>
       </c>
       <c r="C32" t="n">
         <v>0.001353857584888189</v>
@@ -4424,7 +4424,7 @@
         <v>0.001805143446517585</v>
       </c>
       <c r="I32" t="n">
-        <v>0.01906974468277848</v>
+        <v>0.00953487234138924</v>
       </c>
       <c r="J32" t="n">
         <v>0.001353857584888189</v>
@@ -4442,13 +4442,13 @@
         <v>0.002707715169776378</v>
       </c>
       <c r="O32" t="n">
-        <v>0.02253697098873821</v>
+        <v>0.0112684854943691</v>
       </c>
       <c r="P32" t="n">
-        <v>0.01733613152979862</v>
+        <v>0.008668065764899308</v>
       </c>
       <c r="Q32" t="n">
-        <v>0.01560251837681876</v>
+        <v>0.007801259188409378</v>
       </c>
       <c r="R32" t="n">
         <v>0.001353857584888189</v>
@@ -4508,7 +4508,7 @@
         <v>0.004964144477923359</v>
       </c>
       <c r="AK32" t="n">
-        <v>0.0390062959420469</v>
+        <v>0.01950314797102345</v>
       </c>
       <c r="AL32" t="n">
         <v>0.007671859647699737</v>
@@ -4520,7 +4520,7 @@
         <v>0.008123145509329133</v>
       </c>
       <c r="AO32" t="n">
-        <v>0.04507394197747641</v>
+        <v>0.02253697098873821</v>
       </c>
       <c r="AP32" t="n">
         <v>0.004061572754664566</v>
@@ -4531,7 +4531,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.02568029520785559</v>
+        <v>0.01284014760392779</v>
       </c>
       <c r="C33" t="n">
         <v>0.001517102635602145</v>
@@ -4552,7 +4552,7 @@
         <v>0.002022803514136194</v>
       </c>
       <c r="I33" t="n">
-        <v>0.02017737480617224</v>
+        <v>0.01008868740308612</v>
       </c>
       <c r="J33" t="n">
         <v>0.001517102635602145</v>
@@ -4570,13 +4570,13 @@
         <v>0.003034205271204291</v>
       </c>
       <c r="O33" t="n">
-        <v>0.02384598840729448</v>
+        <v>0.01192299420364724</v>
       </c>
       <c r="P33" t="n">
-        <v>0.01834306800561113</v>
+        <v>0.009171534002805565</v>
       </c>
       <c r="Q33" t="n">
-        <v>0.01650876120505002</v>
+        <v>0.008254380602525009</v>
       </c>
       <c r="R33" t="n">
         <v>0.001517102635602145</v>
@@ -4636,7 +4636,7 @@
         <v>0.005562709663874532</v>
       </c>
       <c r="AK33" t="n">
-        <v>0.04127190301262505</v>
+        <v>0.02063595150631253</v>
       </c>
       <c r="AL33" t="n">
         <v>0.008596914935078824</v>
@@ -4648,7 +4648,7 @@
         <v>0.009102615813612871</v>
       </c>
       <c r="AO33" t="n">
-        <v>0.04769197681458895</v>
+        <v>0.02384598840729447</v>
       </c>
       <c r="AP33" t="n">
         <v>0.004551307906806436</v>
@@ -4659,7 +4659,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02710489850586339</v>
+        <v>0.0135524492529317</v>
       </c>
       <c r="C34" t="n">
         <v>0.001666485770174021</v>
@@ -4680,7 +4680,7 @@
         <v>0.002221981026898694</v>
       </c>
       <c r="I34" t="n">
-        <v>0.02129670596889266</v>
+        <v>0.01064835298444633</v>
       </c>
       <c r="J34" t="n">
         <v>0.001666485770174021</v>
@@ -4698,13 +4698,13 @@
         <v>0.003332971540348042</v>
       </c>
       <c r="O34" t="n">
-        <v>0.02516883432687315</v>
+        <v>0.01258441716343658</v>
       </c>
       <c r="P34" t="n">
-        <v>0.01936064178990242</v>
+        <v>0.00968032089495121</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.01742457761091218</v>
+        <v>0.008712288805456089</v>
       </c>
       <c r="R34" t="n">
         <v>0.001666485770174021</v>
@@ -4764,7 +4764,7 @@
         <v>0.006110447823971409</v>
       </c>
       <c r="AK34" t="n">
-        <v>0.04356144402728045</v>
+        <v>0.02178072201364022</v>
       </c>
       <c r="AL34" t="n">
         <v>0.009443419364319451</v>
@@ -4776,7 +4776,7 @@
         <v>0.009998914621044123</v>
       </c>
       <c r="AO34" t="n">
-        <v>0.0503376686537463</v>
+        <v>0.02516883432687315</v>
       </c>
       <c r="AP34" t="n">
         <v>0.004999457310522062</v>
@@ -4787,7 +4787,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.02624054874152577</v>
+        <v>0.01312027437076289</v>
       </c>
       <c r="C35" t="n">
         <v>0.001769591019071684</v>
@@ -4808,7 +4808,7 @@
         <v>0.002359454692095579</v>
       </c>
       <c r="I35" t="n">
-        <v>0.02061757401119882</v>
+        <v>0.01030878700559941</v>
       </c>
       <c r="J35" t="n">
         <v>0.001769591019071684</v>
@@ -4826,13 +4826,13 @@
         <v>0.003539182038143369</v>
       </c>
       <c r="O35" t="n">
-        <v>0.02436622383141679</v>
+        <v>0.01218311191570839</v>
       </c>
       <c r="P35" t="n">
-        <v>0.01874324910108983</v>
+        <v>0.009371624550544917</v>
       </c>
       <c r="Q35" t="n">
-        <v>0.01686892419098085</v>
+        <v>0.008434462095490425</v>
       </c>
       <c r="R35" t="n">
         <v>0.001769591019071684</v>
@@ -4892,7 +4892,7 @@
         <v>0.006488500403262842</v>
       </c>
       <c r="AK35" t="n">
-        <v>0.04217231047745213</v>
+        <v>0.02108615523872607</v>
       </c>
       <c r="AL35" t="n">
         <v>0.01002768244140621</v>
@@ -4904,7 +4904,7 @@
         <v>0.0106175461144301</v>
       </c>
       <c r="AO35" t="n">
-        <v>0.04873244766283357</v>
+        <v>0.02436622383141679</v>
       </c>
       <c r="AP35" t="n">
         <v>0.005308773057215052</v>
@@ -4915,7 +4915,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.02503190194732331</v>
+        <v>0.01251595097366165</v>
       </c>
       <c r="C36" t="n">
         <v>0.001895850615958522</v>
@@ -4936,7 +4936,7 @@
         <v>0.002527800821278029</v>
       </c>
       <c r="I36" t="n">
-        <v>0.01966792295861117</v>
+        <v>0.009833961479305584</v>
       </c>
       <c r="J36" t="n">
         <v>0.001895850615958522</v>
@@ -4954,13 +4954,13 @@
         <v>0.003791701231917043</v>
       </c>
       <c r="O36" t="n">
-        <v>0.02324390895108593</v>
+        <v>0.01162195447554296</v>
       </c>
       <c r="P36" t="n">
-        <v>0.01787992996237378</v>
+        <v>0.008939964981186892</v>
       </c>
       <c r="Q36" t="n">
-        <v>0.01609193696613641</v>
+        <v>0.008045968483068204</v>
       </c>
       <c r="R36" t="n">
         <v>0.001895850615958522</v>
@@ -5020,7 +5020,7 @@
         <v>0.006951452258514579</v>
       </c>
       <c r="AK36" t="n">
-        <v>0.04022984241534102</v>
+        <v>0.02011492120767051</v>
       </c>
       <c r="AL36" t="n">
         <v>0.01074315349043162</v>
@@ -5032,7 +5032,7 @@
         <v>0.01137510369575113</v>
       </c>
       <c r="AO36" t="n">
-        <v>0.04648781790217184</v>
+        <v>0.02324390895108592</v>
       </c>
       <c r="AP36" t="n">
         <v>0.005687551847875564</v>
@@ -5043,7 +5043,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.02389716323992181</v>
+        <v>0.01194858161996091</v>
       </c>
       <c r="C37" t="n">
         <v>0.002053547949093436</v>
@@ -5064,7 +5064,7 @@
         <v>0.00273806393212458</v>
       </c>
       <c r="I37" t="n">
-        <v>0.01877634254565285</v>
+        <v>0.009388171272826425</v>
       </c>
       <c r="J37" t="n">
         <v>0.002053547949093436</v>
@@ -5082,13 +5082,13 @@
         <v>0.004107095898186871</v>
       </c>
       <c r="O37" t="n">
-        <v>0.02219022300849883</v>
+        <v>0.01109511150424941</v>
       </c>
       <c r="P37" t="n">
-        <v>0.01706940231422986</v>
+        <v>0.008534701157114931</v>
       </c>
       <c r="Q37" t="n">
-        <v>0.01536246208280688</v>
+        <v>0.007681231041403438</v>
       </c>
       <c r="R37" t="n">
         <v>0.002053547949093436</v>
@@ -5148,7 +5148,7 @@
         <v>0.007529675813342596</v>
       </c>
       <c r="AK37" t="n">
-        <v>0.03840615520701719</v>
+        <v>0.0192030776035086</v>
       </c>
       <c r="AL37" t="n">
         <v>0.01163677171152947</v>
@@ -5160,7 +5160,7 @@
         <v>0.01232128769456061</v>
       </c>
       <c r="AO37" t="n">
-        <v>0.04438044601699764</v>
+        <v>0.02219022300849882</v>
       </c>
       <c r="AP37" t="n">
         <v>0.006160643847280306</v>
@@ -5171,7 +5171,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.02383712025025457</v>
+        <v>0.01191856012512728</v>
       </c>
       <c r="C38" t="n">
         <v>0.002122435573251976</v>
@@ -5192,7 +5192,7 @@
         <v>0.002829914097669301</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0187291659109143</v>
+        <v>0.009364582955457151</v>
       </c>
       <c r="J38" t="n">
         <v>0.002122435573251976</v>
@@ -5210,13 +5210,13 @@
         <v>0.004244871146503951</v>
       </c>
       <c r="O38" t="n">
-        <v>0.02213446880380781</v>
+        <v>0.01106723440190391</v>
       </c>
       <c r="P38" t="n">
-        <v>0.01702651446446754</v>
+        <v>0.008513257232233772</v>
       </c>
       <c r="Q38" t="n">
-        <v>0.01532386301802079</v>
+        <v>0.007661931509010396</v>
       </c>
       <c r="R38" t="n">
         <v>0.002122435573251976</v>
@@ -5276,7 +5276,7 @@
         <v>0.007782263768590577</v>
       </c>
       <c r="AK38" t="n">
-        <v>0.03830965754505198</v>
+        <v>0.01915482877252599</v>
       </c>
       <c r="AL38" t="n">
         <v>0.01202713491509453</v>
@@ -5288,7 +5288,7 @@
         <v>0.01273461343951185</v>
       </c>
       <c r="AO38" t="n">
-        <v>0.04426893760761563</v>
+        <v>0.02213446880380781</v>
       </c>
       <c r="AP38" t="n">
         <v>0.006367306719755926</v>
@@ -5299,7 +5299,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.02362999987461904</v>
+        <v>0.01181499993730952</v>
       </c>
       <c r="C39" t="n">
         <v>0.002066785251886042</v>
@@ -5320,7 +5320,7 @@
         <v>0.002755713669181389</v>
       </c>
       <c r="I39" t="n">
-        <v>0.01856642847291496</v>
+        <v>0.00928321423645748</v>
       </c>
       <c r="J39" t="n">
         <v>0.002066785251886042</v>
@@ -5338,13 +5338,13 @@
         <v>0.004133570503772084</v>
       </c>
       <c r="O39" t="n">
-        <v>0.02194214274071768</v>
+        <v>0.01097107137035884</v>
       </c>
       <c r="P39" t="n">
-        <v>0.0168785713390136</v>
+        <v>0.0084392856695068</v>
       </c>
       <c r="Q39" t="n">
-        <v>0.01519071420511224</v>
+        <v>0.00759535710255612</v>
       </c>
       <c r="R39" t="n">
         <v>0.002066785251886042</v>
@@ -5404,7 +5404,7 @@
         <v>0.007578212590248819</v>
       </c>
       <c r="AK39" t="n">
-        <v>0.0379767855127806</v>
+        <v>0.0189883927563903</v>
       </c>
       <c r="AL39" t="n">
         <v>0.0117117830940209</v>
@@ -5416,7 +5416,7 @@
         <v>0.01240071151131625</v>
       </c>
       <c r="AO39" t="n">
-        <v>0.04388428548143536</v>
+        <v>0.02194214274071768</v>
       </c>
       <c r="AP39" t="n">
         <v>0.006200355755658125</v>
@@ -5427,7 +5427,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.02309414873270546</v>
+        <v>0.01154707436635273</v>
       </c>
       <c r="C40" t="n">
         <v>0.001971727007338702</v>
@@ -5448,7 +5448,7 @@
         <v>0.00262896934311827</v>
       </c>
       <c r="I40" t="n">
-        <v>0.01814540257569715</v>
+        <v>0.009072701287848576</v>
       </c>
       <c r="J40" t="n">
         <v>0.001971727007338702</v>
@@ -5466,13 +5466,13 @@
         <v>0.003943454014677404</v>
       </c>
       <c r="O40" t="n">
-        <v>0.02144456668036936</v>
+        <v>0.01072228334018468</v>
       </c>
       <c r="P40" t="n">
-        <v>0.01649582052336104</v>
+        <v>0.008247910261680522</v>
       </c>
       <c r="Q40" t="n">
-        <v>0.01484623847102494</v>
+        <v>0.00742311923551247</v>
       </c>
       <c r="R40" t="n">
         <v>0.001971727007338702</v>
@@ -5532,7 +5532,7 @@
         <v>0.00722966569357524</v>
       </c>
       <c r="AK40" t="n">
-        <v>0.03711559617756235</v>
+        <v>0.01855779808878118</v>
       </c>
       <c r="AL40" t="n">
         <v>0.01117311970825265</v>
@@ -5544,7 +5544,7 @@
         <v>0.01183036204403221</v>
       </c>
       <c r="AO40" t="n">
-        <v>0.04288913336073872</v>
+        <v>0.02144456668036936</v>
       </c>
       <c r="AP40" t="n">
         <v>0.005915181022016106</v>
@@ -5555,7 +5555,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02421907182778114</v>
+        <v>0.01210953591389057</v>
       </c>
       <c r="C41" t="n">
         <v>0.00204063585800749</v>
@@ -5576,7 +5576,7 @@
         <v>0.002720847810676654</v>
       </c>
       <c r="I41" t="n">
-        <v>0.01902927072182804</v>
+        <v>0.00951463536091402</v>
       </c>
       <c r="J41" t="n">
         <v>0.00204063585800749</v>
@@ -5594,13 +5594,13 @@
         <v>0.004081271716014981</v>
       </c>
       <c r="O41" t="n">
-        <v>0.02248913812579677</v>
+        <v>0.01124456906289839</v>
       </c>
       <c r="P41" t="n">
-        <v>0.01729933701984367</v>
+        <v>0.008649668509921835</v>
       </c>
       <c r="Q41" t="n">
-        <v>0.0155694033178593</v>
+        <v>0.007784701658929652</v>
       </c>
       <c r="R41" t="n">
         <v>0.00204063585800749</v>
@@ -5660,7 +5660,7 @@
         <v>0.007482331479360798</v>
       </c>
       <c r="AK41" t="n">
-        <v>0.03892350829464826</v>
+        <v>0.01946175414732413</v>
       </c>
       <c r="AL41" t="n">
         <v>0.01156360319537578</v>
@@ -5672,7 +5672,7 @@
         <v>0.01224381514804494</v>
       </c>
       <c r="AO41" t="n">
-        <v>0.04497827625159355</v>
+        <v>0.02248913812579677</v>
       </c>
       <c r="AP41" t="n">
         <v>0.00612190757402247</v>
@@ -5683,7 +5683,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02534880437333421</v>
+        <v>0.0126744021866671</v>
       </c>
       <c r="C42" t="n">
         <v>0.002364942079978059</v>
@@ -5704,7 +5704,7 @@
         <v>0.003153256106637412</v>
       </c>
       <c r="I42" t="n">
-        <v>0.01991691772190545</v>
+        <v>0.009958458860952724</v>
       </c>
       <c r="J42" t="n">
         <v>0.002364942079978059</v>
@@ -5722,13 +5722,13 @@
         <v>0.004729884159956118</v>
       </c>
       <c r="O42" t="n">
-        <v>0.02353817548952462</v>
+        <v>0.01176908774476231</v>
       </c>
       <c r="P42" t="n">
-        <v>0.01810628883809586</v>
+        <v>0.009053144419047931</v>
       </c>
       <c r="Q42" t="n">
-        <v>0.01629565995428628</v>
+        <v>0.008147829977143138</v>
       </c>
       <c r="R42" t="n">
         <v>0.002364942079978059</v>
@@ -5788,7 +5788,7 @@
         <v>0.008671454293252881</v>
       </c>
       <c r="AK42" t="n">
-        <v>0.04073914988571569</v>
+        <v>0.02036957494285785</v>
       </c>
       <c r="AL42" t="n">
         <v>0.013401338453209</v>
@@ -5800,7 +5800,7 @@
         <v>0.01418965247986835</v>
       </c>
       <c r="AO42" t="n">
-        <v>0.04707635097904924</v>
+        <v>0.02353817548952462</v>
       </c>
       <c r="AP42" t="n">
         <v>0.007094826239934175</v>
@@ -5811,7 +5811,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02519866268849289</v>
+        <v>0.01259933134424644</v>
       </c>
       <c r="C43" t="n">
         <v>0.002684423070069429</v>
@@ -5832,7 +5832,7 @@
         <v>0.003579230760092572</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01979894925524441</v>
+        <v>0.009899474627622204</v>
       </c>
       <c r="J43" t="n">
         <v>0.002684423070069429</v>
@@ -5850,13 +5850,13 @@
         <v>0.005368846140138859</v>
       </c>
       <c r="O43" t="n">
-        <v>0.0233987582107434</v>
+        <v>0.0116993791053717</v>
       </c>
       <c r="P43" t="n">
-        <v>0.01799904477749492</v>
+        <v>0.008999522388747459</v>
       </c>
       <c r="Q43" t="n">
-        <v>0.01619914029974543</v>
+        <v>0.008099570149872714</v>
       </c>
       <c r="R43" t="n">
         <v>0.002684423070069429</v>
@@ -5916,7 +5916,7 @@
         <v>0.009842884590254574</v>
       </c>
       <c r="AK43" t="n">
-        <v>0.04049785074936357</v>
+        <v>0.02024892537468178</v>
       </c>
       <c r="AL43" t="n">
         <v>0.01521173073039343</v>
@@ -5928,7 +5928,7 @@
         <v>0.01610653842041657</v>
       </c>
       <c r="AO43" t="n">
-        <v>0.04679751642148679</v>
+        <v>0.02339875821074339</v>
       </c>
       <c r="AP43" t="n">
         <v>0.008053269210208287</v>
@@ -5939,7 +5939,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.02449652120216655</v>
+        <v>0.01224826060108328</v>
       </c>
       <c r="C44" t="n">
         <v>0.002782436015430088</v>
@@ -5960,7 +5960,7 @@
         <v>0.003709914687240117</v>
       </c>
       <c r="I44" t="n">
-        <v>0.01924726665884514</v>
+        <v>0.009623633329422572</v>
       </c>
       <c r="J44" t="n">
         <v>0.002782436015430088</v>
@@ -5978,13 +5978,13 @@
         <v>0.005564872030860176</v>
       </c>
       <c r="O44" t="n">
-        <v>0.02274676968772608</v>
+        <v>0.01137338484386304</v>
       </c>
       <c r="P44" t="n">
-        <v>0.01749751514440468</v>
+        <v>0.008748757572202339</v>
       </c>
       <c r="Q44" t="n">
-        <v>0.01574776362996421</v>
+        <v>0.007873881814982105</v>
       </c>
       <c r="R44" t="n">
         <v>0.002782436015430088</v>
@@ -6044,7 +6044,7 @@
         <v>0.01020226538991032</v>
       </c>
       <c r="AK44" t="n">
-        <v>0.03936940907491052</v>
+        <v>0.01968470453745526</v>
       </c>
       <c r="AL44" t="n">
         <v>0.0157671374207705</v>
@@ -6056,7 +6056,7 @@
         <v>0.01669461609258053</v>
       </c>
       <c r="AO44" t="n">
-        <v>0.04549353937545216</v>
+        <v>0.02274676968772608</v>
       </c>
       <c r="AP44" t="n">
         <v>0.008347308046290263</v>
@@ -6067,7 +6067,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.02387829808998844</v>
+        <v>0.01193914904499422</v>
       </c>
       <c r="C45" t="n">
         <v>0.002721025123119069</v>
@@ -6088,7 +6088,7 @@
         <v>0.003628033497492093</v>
       </c>
       <c r="I45" t="n">
-        <v>0.01876151992784806</v>
+        <v>0.00938075996392403</v>
       </c>
       <c r="J45" t="n">
         <v>0.002721025123119069</v>
@@ -6106,13 +6106,13 @@
         <v>0.005442050246238139</v>
       </c>
       <c r="O45" t="n">
-        <v>0.02217270536927498</v>
+        <v>0.01108635268463749</v>
       </c>
       <c r="P45" t="n">
-        <v>0.0170559272071346</v>
+        <v>0.008527963603567298</v>
       </c>
       <c r="Q45" t="n">
-        <v>0.01535033448642114</v>
+        <v>0.00767516724321057</v>
       </c>
       <c r="R45" t="n">
         <v>0.002721025123119069</v>
@@ -6172,7 +6172,7 @@
         <v>0.009977092118103255</v>
       </c>
       <c r="AK45" t="n">
-        <v>0.03837583621605285</v>
+        <v>0.01918791810802642</v>
       </c>
       <c r="AL45" t="n">
         <v>0.0154191423643414</v>
@@ -6184,7 +6184,7 @@
         <v>0.01632615073871442</v>
       </c>
       <c r="AO45" t="n">
-        <v>0.04434541073854996</v>
+        <v>0.02217270536927498</v>
       </c>
       <c r="AP45" t="n">
         <v>0.008163075369357209</v>
@@ -6195,7 +6195,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.02289501777107747</v>
+        <v>0.01144750888553874</v>
       </c>
       <c r="C46" t="n">
         <v>0.00248294167208264</v>
@@ -6216,7 +6216,7 @@
         <v>0.003310588896110187</v>
       </c>
       <c r="I46" t="n">
-        <v>0.01798894253441801</v>
+        <v>0.008994471267209007</v>
       </c>
       <c r="J46" t="n">
         <v>0.00248294167208264</v>
@@ -6234,13 +6234,13 @@
         <v>0.00496588334416528</v>
       </c>
       <c r="O46" t="n">
-        <v>0.02125965935885766</v>
+        <v>0.01062982967942883</v>
       </c>
       <c r="P46" t="n">
-        <v>0.01635358412219819</v>
+        <v>0.008176792061099097</v>
       </c>
       <c r="Q46" t="n">
-        <v>0.01471822570997837</v>
+        <v>0.007359112854989187</v>
       </c>
       <c r="R46" t="n">
         <v>0.00248294167208264</v>
@@ -6300,7 +6300,7 @@
         <v>0.009104119464303013</v>
       </c>
       <c r="AK46" t="n">
-        <v>0.03679556427494594</v>
+        <v>0.01839778213747297</v>
       </c>
       <c r="AL46" t="n">
         <v>0.0140700028084683</v>
@@ -6312,7 +6312,7 @@
         <v>0.01489765003249584</v>
       </c>
       <c r="AO46" t="n">
-        <v>0.0425193187177153</v>
+        <v>0.02125965935885765</v>
       </c>
       <c r="AP46" t="n">
         <v>0.007448825016247921</v>
@@ -6323,7 +6323,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02307046802324592</v>
+        <v>0.01153523401162296</v>
       </c>
       <c r="C47" t="n">
         <v>0.002121472928952354</v>
@@ -6344,7 +6344,7 @@
         <v>0.002828630571936472</v>
       </c>
       <c r="I47" t="n">
-        <v>0.01812679630397893</v>
+        <v>0.009063398151989466</v>
       </c>
       <c r="J47" t="n">
         <v>0.002121472928952354</v>
@@ -6362,13 +6362,13 @@
         <v>0.004242945857904707</v>
       </c>
       <c r="O47" t="n">
-        <v>0.02142257745015692</v>
+        <v>0.01071128872507846</v>
       </c>
       <c r="P47" t="n">
-        <v>0.01647890573088994</v>
+        <v>0.008239452865444969</v>
       </c>
       <c r="Q47" t="n">
-        <v>0.01483101515780095</v>
+        <v>0.007415507578900473</v>
       </c>
       <c r="R47" t="n">
         <v>0.002121472928952354</v>
@@ -6428,7 +6428,7 @@
         <v>0.007778734072825296</v>
       </c>
       <c r="AK47" t="n">
-        <v>0.03707753789450237</v>
+        <v>0.01853876894725118</v>
       </c>
       <c r="AL47" t="n">
         <v>0.01202167993073</v>
@@ -6440,7 +6440,7 @@
         <v>0.01272883757371412</v>
       </c>
       <c r="AO47" t="n">
-        <v>0.04284515490031385</v>
+        <v>0.02142257745015692</v>
       </c>
       <c r="AP47" t="n">
         <v>0.006364418786857061</v>
@@ -6451,7 +6451,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.0229649745251211</v>
+        <v>0.01148248726256055</v>
       </c>
       <c r="C48" t="n">
         <v>0.001749724819292378</v>
@@ -6472,7 +6472,7 @@
         <v>0.00233296642572317</v>
       </c>
       <c r="I48" t="n">
-        <v>0.01804390855545229</v>
+        <v>0.009021954277726143</v>
       </c>
       <c r="J48" t="n">
         <v>0.001749724819292378</v>
@@ -6490,13 +6490,13 @@
         <v>0.003499449638584756</v>
       </c>
       <c r="O48" t="n">
-        <v>0.02132461920189816</v>
+        <v>0.01066230960094908</v>
       </c>
       <c r="P48" t="n">
-        <v>0.01640355323222935</v>
+        <v>0.008201776616114676</v>
       </c>
       <c r="Q48" t="n">
-        <v>0.01476319790900642</v>
+        <v>0.007381598954503209</v>
       </c>
       <c r="R48" t="n">
         <v>0.001749724819292378</v>
@@ -6556,7 +6556,7 @@
         <v>0.006415657670738718</v>
       </c>
       <c r="AK48" t="n">
-        <v>0.03690799477251604</v>
+        <v>0.01845399738625802</v>
       </c>
       <c r="AL48" t="n">
         <v>0.009915107309323474</v>
@@ -6568,7 +6568,7 @@
         <v>0.01049834891575427</v>
       </c>
       <c r="AO48" t="n">
-        <v>0.04264923840379631</v>
+        <v>0.02132461920189816</v>
       </c>
       <c r="AP48" t="n">
         <v>0.005249174457877133</v>
@@ -6579,7 +6579,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.02276350379780654</v>
+        <v>0.01138175189890327</v>
       </c>
       <c r="C49" t="n">
         <v>0.001414505082670721</v>
@@ -6600,7 +6600,7 @@
         <v>0.001886006776894295</v>
       </c>
       <c r="I49" t="n">
-        <v>0.01788561012684799</v>
+        <v>0.008942805063423997</v>
       </c>
       <c r="J49" t="n">
         <v>0.001414505082670721</v>
@@ -6618,13 +6618,13 @@
         <v>0.002829010165341442</v>
       </c>
       <c r="O49" t="n">
-        <v>0.02113753924082036</v>
+        <v>0.01056876962041018</v>
       </c>
       <c r="P49" t="n">
-        <v>0.01625964556986181</v>
+        <v>0.008129822784930905</v>
       </c>
       <c r="Q49" t="n">
-        <v>0.01463368101287563</v>
+        <v>0.007316840506437816</v>
       </c>
       <c r="R49" t="n">
         <v>0.001414505082670721</v>
@@ -6684,7 +6684,7 @@
         <v>0.00518651863645931</v>
       </c>
       <c r="AK49" t="n">
-        <v>0.03658420253218908</v>
+        <v>0.01829210126609454</v>
       </c>
       <c r="AL49" t="n">
         <v>0.008015528801800753</v>
@@ -6696,7 +6696,7 @@
         <v>0.008487030496024325</v>
       </c>
       <c r="AO49" t="n">
-        <v>0.04227507848164071</v>
+        <v>0.02113753924082036</v>
       </c>
       <c r="AP49" t="n">
         <v>0.004243515248012163</v>
@@ -6707,7 +6707,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.02262060785210005</v>
+        <v>0.01131030392605002</v>
       </c>
       <c r="C50" t="n">
         <v>0.001134937064540961</v>
@@ -6728,7 +6728,7 @@
         <v>0.001513249419387948</v>
       </c>
       <c r="I50" t="n">
-        <v>0.01777333474093575</v>
+        <v>0.008886667370467874</v>
       </c>
       <c r="J50" t="n">
         <v>0.001134937064540961</v>
@@ -6746,13 +6746,13 @@
         <v>0.002269874129081922</v>
       </c>
       <c r="O50" t="n">
-        <v>0.02100485014837862</v>
+        <v>0.01050242507418931</v>
       </c>
       <c r="P50" t="n">
-        <v>0.01615757703721432</v>
+        <v>0.008078788518607159</v>
       </c>
       <c r="Q50" t="n">
-        <v>0.01454181933349289</v>
+        <v>0.007270909666746443</v>
       </c>
       <c r="R50" t="n">
         <v>0.001134937064540961</v>
@@ -6812,7 +6812,7 @@
         <v>0.004161435903316857</v>
       </c>
       <c r="AK50" t="n">
-        <v>0.03635454833373222</v>
+        <v>0.01817727416686611</v>
       </c>
       <c r="AL50" t="n">
         <v>0.00643131003239878</v>
@@ -6824,7 +6824,7 @@
         <v>0.006809622387245765</v>
       </c>
       <c r="AO50" t="n">
-        <v>0.04200970029675723</v>
+        <v>0.02100485014837861</v>
       </c>
       <c r="AP50" t="n">
         <v>0.003404811193622883</v>
@@ -6835,7 +6835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.02275638919958574</v>
+        <v>0.01137819459979287</v>
       </c>
       <c r="C51" t="n">
         <v>0.0009967648608734611</v>
@@ -6856,7 +6856,7 @@
         <v>0.001329019814497948</v>
       </c>
       <c r="I51" t="n">
-        <v>0.01788002008538879</v>
+        <v>0.008940010042694397</v>
       </c>
       <c r="J51" t="n">
         <v>0.0009967648608734611</v>
@@ -6874,13 +6874,13 @@
         <v>0.001993529721746922</v>
       </c>
       <c r="O51" t="n">
-        <v>0.02113093282818676</v>
+        <v>0.01056546641409338</v>
       </c>
       <c r="P51" t="n">
-        <v>0.01625456371398981</v>
+        <v>0.008127281856994904</v>
       </c>
       <c r="Q51" t="n">
-        <v>0.01462910734259083</v>
+        <v>0.007314553671295415</v>
       </c>
       <c r="R51" t="n">
         <v>0.0009967648608734611</v>
@@ -6940,7 +6940,7 @@
         <v>0.003654804489869357</v>
       </c>
       <c r="AK51" t="n">
-        <v>0.03657276835647708</v>
+        <v>0.01828638417823854</v>
       </c>
       <c r="AL51" t="n">
         <v>0.00564833421161628</v>
@@ -6952,7 +6952,7 @@
         <v>0.005980589165240766</v>
       </c>
       <c r="AO51" t="n">
-        <v>0.04226186565637351</v>
+        <v>0.02113093282818675</v>
       </c>
       <c r="AP51" t="n">
         <v>0.002990294582620383</v>
@@ -6963,7 +6963,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.02266550773162669</v>
+        <v>0.01133275386581335</v>
       </c>
       <c r="C52" t="n">
         <v>0.0009838076450700026</v>
@@ -6984,7 +6984,7 @@
         <v>0.001311743526760003</v>
       </c>
       <c r="I52" t="n">
-        <v>0.01780861321770669</v>
+        <v>0.008904306608853343</v>
       </c>
       <c r="J52" t="n">
         <v>0.0009838076450700026</v>
@@ -7002,13 +7002,13 @@
         <v>0.001967615290140005</v>
       </c>
       <c r="O52" t="n">
-        <v>0.02104654289365336</v>
+        <v>0.01052327144682668</v>
       </c>
       <c r="P52" t="n">
-        <v>0.01618964837973335</v>
+        <v>0.008094824189866675</v>
       </c>
       <c r="Q52" t="n">
-        <v>0.01457068354176002</v>
+        <v>0.007285341770880008</v>
       </c>
       <c r="R52" t="n">
         <v>0.0009838076450700026</v>
@@ -7068,7 +7068,7 @@
         <v>0.003607294698590009</v>
       </c>
       <c r="AK52" t="n">
-        <v>0.03642670885440004</v>
+        <v>0.01821335442720002</v>
       </c>
       <c r="AL52" t="n">
         <v>0.005574909988730014</v>
@@ -7080,7 +7080,7 @@
         <v>0.005902845870420014</v>
       </c>
       <c r="AO52" t="n">
-        <v>0.04209308578730672</v>
+        <v>0.02104654289365336</v>
       </c>
       <c r="AP52" t="n">
         <v>0.002951422935210007</v>
@@ -7091,7 +7091,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.02248742488669969</v>
+        <v>0.01124371244334985</v>
       </c>
       <c r="C53" t="n">
         <v>0.001018202214586815</v>
@@ -7112,7 +7112,7 @@
         <v>0.00135760295278242</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0176686909824069</v>
+        <v>0.00883434549120345</v>
       </c>
       <c r="J53" t="n">
         <v>0.001018202214586815</v>
@@ -7130,13 +7130,13 @@
         <v>0.002036404429173631</v>
       </c>
       <c r="O53" t="n">
-        <v>0.02088118025193543</v>
+        <v>0.01044059012596772</v>
       </c>
       <c r="P53" t="n">
-        <v>0.01606244634764263</v>
+        <v>0.008031223173821317</v>
       </c>
       <c r="Q53" t="n">
-        <v>0.01445620171287837</v>
+        <v>0.007228100856439186</v>
       </c>
       <c r="R53" t="n">
         <v>0.001018202214586815</v>
@@ -7196,7 +7196,7 @@
         <v>0.003733408120151656</v>
       </c>
       <c r="AK53" t="n">
-        <v>0.03614050428219593</v>
+        <v>0.01807025214109797</v>
       </c>
       <c r="AL53" t="n">
         <v>0.005769812549325287</v>
@@ -7208,7 +7208,7 @@
         <v>0.00610921328752089</v>
       </c>
       <c r="AO53" t="n">
-        <v>0.04176236050387085</v>
+        <v>0.02088118025193543</v>
       </c>
       <c r="AP53" t="n">
         <v>0.003054606643760445</v>
@@ -7219,7 +7219,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.02187900639055957</v>
+        <v>0.01093950319527979</v>
       </c>
       <c r="C54" t="n">
         <v>0.001102492956401712</v>
@@ -7240,7 +7240,7 @@
         <v>0.001469990608535616</v>
       </c>
       <c r="I54" t="n">
-        <v>0.01719064787829681</v>
+        <v>0.008595323939148403</v>
       </c>
       <c r="J54" t="n">
         <v>0.001102492956401712</v>
@@ -7258,13 +7258,13 @@
         <v>0.002204985912803424</v>
       </c>
       <c r="O54" t="n">
-        <v>0.02031622021980532</v>
+        <v>0.01015811010990266</v>
       </c>
       <c r="P54" t="n">
-        <v>0.01562786170754255</v>
+        <v>0.007813930853771274</v>
       </c>
       <c r="Q54" t="n">
-        <v>0.0140650755367883</v>
+        <v>0.007032537768394148</v>
       </c>
       <c r="R54" t="n">
         <v>0.001102492956401712</v>
@@ -7324,7 +7324,7 @@
         <v>0.004042474173472944</v>
       </c>
       <c r="AK54" t="n">
-        <v>0.03516268884197074</v>
+        <v>0.01758134442098537</v>
       </c>
       <c r="AL54" t="n">
         <v>0.006247460086276369</v>
@@ -7336,7 +7336,7 @@
         <v>0.006614957738410272</v>
       </c>
       <c r="AO54" t="n">
-        <v>0.04063244043961063</v>
+        <v>0.02031622021980532</v>
       </c>
       <c r="AP54" t="n">
         <v>0.003307478869205136</v>
@@ -7347,7 +7347,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.02237699283353305</v>
+        <v>0.01118849641676652</v>
       </c>
       <c r="C55" t="n">
         <v>0.001230305642629003</v>
@@ -7368,7 +7368,7 @@
         <v>0.001640407523505337</v>
       </c>
       <c r="I55" t="n">
-        <v>0.01758192294063311</v>
+        <v>0.008790961470316553</v>
       </c>
       <c r="J55" t="n">
         <v>0.001230305642629003</v>
@@ -7386,13 +7386,13 @@
         <v>0.002460611285258005</v>
       </c>
       <c r="O55" t="n">
-        <v>0.0207786362025664</v>
+        <v>0.0103893181012832</v>
       </c>
       <c r="P55" t="n">
-        <v>0.01598356630966646</v>
+        <v>0.00799178315483323</v>
       </c>
       <c r="Q55" t="n">
-        <v>0.01438520967869981</v>
+        <v>0.007192604839349907</v>
       </c>
       <c r="R55" t="n">
         <v>0.001230305642629003</v>
@@ -7452,7 +7452,7 @@
         <v>0.004511120689639676</v>
       </c>
       <c r="AK55" t="n">
-        <v>0.03596302419674954</v>
+        <v>0.01798151209837477</v>
       </c>
       <c r="AL55" t="n">
         <v>0.006971731974897682</v>
@@ -7464,7 +7464,7 @@
         <v>0.007381833855774015</v>
       </c>
       <c r="AO55" t="n">
-        <v>0.04155727240513279</v>
+        <v>0.0207786362025664</v>
       </c>
       <c r="AP55" t="n">
         <v>0.003690916927887007</v>
@@ -7475,7 +7475,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.02427056011279282</v>
+        <v>0.01213528005639641</v>
       </c>
       <c r="C56" t="n">
         <v>0.001365549347722739</v>
@@ -7496,7 +7496,7 @@
         <v>0.001820732463630319</v>
       </c>
       <c r="I56" t="n">
-        <v>0.01906972580290864</v>
+        <v>0.009534862901454322</v>
       </c>
       <c r="J56" t="n">
         <v>0.001365549347722739</v>
@@ -7514,13 +7514,13 @@
         <v>0.002731098695445478</v>
       </c>
       <c r="O56" t="n">
-        <v>0.02253694867616477</v>
+        <v>0.01126847433808238</v>
       </c>
       <c r="P56" t="n">
-        <v>0.01733611436628059</v>
+        <v>0.008668057183140293</v>
       </c>
       <c r="Q56" t="n">
-        <v>0.01560250292965253</v>
+        <v>0.007801251464826264</v>
       </c>
       <c r="R56" t="n">
         <v>0.001365549347722739</v>
@@ -7580,7 +7580,7 @@
         <v>0.005007014274983377</v>
       </c>
       <c r="AK56" t="n">
-        <v>0.03900625732413132</v>
+        <v>0.01950312866206566</v>
       </c>
       <c r="AL56" t="n">
         <v>0.007738112970428856</v>
@@ -7592,7 +7592,7 @@
         <v>0.008193296086336435</v>
       </c>
       <c r="AO56" t="n">
-        <v>0.04507389735232953</v>
+        <v>0.02253694867616476</v>
       </c>
       <c r="AP56" t="n">
         <v>0.004096648043168218</v>
@@ -7603,7 +7603,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0263525646674087</v>
+        <v>0.01317628233370435</v>
       </c>
       <c r="C57" t="n">
         <v>0.001492212395370176</v>
@@ -7624,7 +7624,7 @@
         <v>0.001989616527160235</v>
       </c>
       <c r="I57" t="n">
-        <v>0.02070558652439254</v>
+        <v>0.01035279326219627</v>
       </c>
       <c r="J57" t="n">
         <v>0.001492212395370176</v>
@@ -7642,13 +7642,13 @@
         <v>0.002984424790740352</v>
       </c>
       <c r="O57" t="n">
-        <v>0.02447023861973665</v>
+        <v>0.01223511930986832</v>
       </c>
       <c r="P57" t="n">
-        <v>0.01882326047672049</v>
+        <v>0.009411630238360247</v>
       </c>
       <c r="Q57" t="n">
-        <v>0.01694093442904844</v>
+        <v>0.008470467214524222</v>
       </c>
       <c r="R57" t="n">
         <v>0.001492212395370176</v>
@@ -7708,7 +7708,7 @@
         <v>0.005471445449690645</v>
       </c>
       <c r="AK57" t="n">
-        <v>0.04235233607262111</v>
+        <v>0.02117616803631056</v>
       </c>
       <c r="AL57" t="n">
         <v>0.008455870240430997</v>
@@ -7720,7 +7720,7 @@
         <v>0.008953274372221055</v>
       </c>
       <c r="AO57" t="n">
-        <v>0.04894047723947328</v>
+        <v>0.02447023861973664</v>
       </c>
       <c r="AP57" t="n">
         <v>0.004476637186110527</v>
@@ -7731,7 +7731,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.028</v>
+        <v>0.014</v>
       </c>
       <c r="C58" t="n">
         <v>0.00161998816805886</v>
@@ -7752,7 +7752,7 @@
         <v>0.00215998422407848</v>
       </c>
       <c r="I58" t="n">
-        <v>0.022</v>
+        <v>0.011</v>
       </c>
       <c r="J58" t="n">
         <v>0.00161998816805886</v>
@@ -7770,13 +7770,13 @@
         <v>0.003239976336117721</v>
       </c>
       <c r="O58" t="n">
-        <v>0.026</v>
+        <v>0.013</v>
       </c>
       <c r="P58" t="n">
-        <v>0.02</v>
+        <v>0.009999999999999998</v>
       </c>
       <c r="Q58" t="n">
-        <v>0.018</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="R58" t="n">
         <v>0.00161998816805886</v>
@@ -7836,7 +7836,7 @@
         <v>0.00593995661621582</v>
       </c>
       <c r="AK58" t="n">
-        <v>0.045</v>
+        <v>0.0225</v>
       </c>
       <c r="AL58" t="n">
         <v>0.009179932952333542</v>
@@ -7848,7 +7848,7 @@
         <v>0.009719929008353161</v>
       </c>
       <c r="AO58" t="n">
-        <v>0.052</v>
+        <v>0.026</v>
       </c>
       <c r="AP58" t="n">
         <v>0.00485996450417658</v>
@@ -7859,7 +7859,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.0275135747282266</v>
+        <v>0.0137567873641133</v>
       </c>
       <c r="C59" t="n">
         <v>0.001742917727467916</v>
@@ -7880,7 +7880,7 @@
         <v>0.002323890303290555</v>
       </c>
       <c r="I59" t="n">
-        <v>0.02161780871503519</v>
+        <v>0.01080890435751759</v>
       </c>
       <c r="J59" t="n">
         <v>0.001742917727467916</v>
@@ -7898,13 +7898,13 @@
         <v>0.003485835454935833</v>
       </c>
       <c r="O59" t="n">
-        <v>0.02554831939049613</v>
+        <v>0.01277415969524807</v>
       </c>
       <c r="P59" t="n">
-        <v>0.01965255337730471</v>
+        <v>0.009826276688652356</v>
       </c>
       <c r="Q59" t="n">
-        <v>0.01768729803957424</v>
+        <v>0.008843649019787122</v>
       </c>
       <c r="R59" t="n">
         <v>0.001742917727467916</v>
@@ -7964,7 +7964,7 @@
         <v>0.006390698334049026</v>
       </c>
       <c r="AK59" t="n">
-        <v>0.04421824509893561</v>
+        <v>0.0221091225494678</v>
       </c>
       <c r="AL59" t="n">
         <v>0.009876533788984858</v>
@@ -7976,7 +7976,7 @@
         <v>0.0104575063648075</v>
       </c>
       <c r="AO59" t="n">
-        <v>0.05109663878099226</v>
+        <v>0.02554831939049613</v>
       </c>
       <c r="AP59" t="n">
         <v>0.005228753182403748</v>
@@ -7987,7 +7987,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02657819016636889</v>
+        <v>0.01328909508318445</v>
       </c>
       <c r="C60" t="n">
         <v>0.001886753316037622</v>
@@ -8008,7 +8008,7 @@
         <v>0.002515671088050162</v>
       </c>
       <c r="I60" t="n">
-        <v>0.02088286370214698</v>
+        <v>0.01044143185107349</v>
       </c>
       <c r="J60" t="n">
         <v>0.001886753316037622</v>
@@ -8026,13 +8026,13 @@
         <v>0.003773506632075244</v>
       </c>
       <c r="O60" t="n">
-        <v>0.02467974801162826</v>
+        <v>0.01233987400581413</v>
       </c>
       <c r="P60" t="n">
-        <v>0.01898442154740635</v>
+        <v>0.009492210773703174</v>
       </c>
       <c r="Q60" t="n">
-        <v>0.01708597939266571</v>
+        <v>0.008542989696332857</v>
       </c>
       <c r="R60" t="n">
         <v>0.001886753316037622</v>
@@ -8092,7 +8092,7 @@
         <v>0.006918095492137947</v>
       </c>
       <c r="AK60" t="n">
-        <v>0.04271494848166429</v>
+        <v>0.02135747424083214</v>
       </c>
       <c r="AL60" t="n">
         <v>0.01069160212421319</v>
@@ -8104,7 +8104,7 @@
         <v>0.01132051989622573</v>
       </c>
       <c r="AO60" t="n">
-        <v>0.04935949602325651</v>
+        <v>0.02467974801162826</v>
       </c>
       <c r="AP60" t="n">
         <v>0.005660259948112865</v>
@@ -8115,7 +8115,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.0254369542819443</v>
+        <v>0.01271847714097215</v>
       </c>
       <c r="C61" t="n">
         <v>0.002001146999564145</v>
@@ -8136,7 +8136,7 @@
         <v>0.00266819599941886</v>
       </c>
       <c r="I61" t="n">
-        <v>0.0199861783643848</v>
+        <v>0.009993089182192402</v>
       </c>
       <c r="J61" t="n">
         <v>0.002001146999564145</v>
@@ -8154,13 +8154,13 @@
         <v>0.00400229399912829</v>
       </c>
       <c r="O61" t="n">
-        <v>0.02362002897609113</v>
+        <v>0.01181001448804557</v>
       </c>
       <c r="P61" t="n">
-        <v>0.01816925305853164</v>
+        <v>0.009084626529265819</v>
       </c>
       <c r="Q61" t="n">
-        <v>0.01635232775267847</v>
+        <v>0.008176163876339237</v>
       </c>
       <c r="R61" t="n">
         <v>0.002001146999564145</v>
@@ -8220,7 +8220,7 @@
         <v>0.007337538998401865</v>
       </c>
       <c r="AK61" t="n">
-        <v>0.04088081938169619</v>
+        <v>0.02044040969084809</v>
       </c>
       <c r="AL61" t="n">
         <v>0.01133983299753016</v>
@@ -8232,7 +8232,7 @@
         <v>0.01200688199738487</v>
       </c>
       <c r="AO61" t="n">
-        <v>0.04724005795218227</v>
+        <v>0.02362002897609113</v>
       </c>
       <c r="AP61" t="n">
         <v>0.006003440998692435</v>
@@ -8243,7 +8243,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.02457859627265988</v>
+        <v>0.01228929813632994</v>
       </c>
       <c r="C62" t="n">
         <v>0.002079692980017226</v>
@@ -8264,7 +8264,7 @@
         <v>0.002772923973356301</v>
       </c>
       <c r="I62" t="n">
-        <v>0.01931175421423276</v>
+        <v>0.00965587710711638</v>
       </c>
       <c r="J62" t="n">
         <v>0.002079692980017226</v>
@@ -8282,13 +8282,13 @@
         <v>0.004159385960034451</v>
       </c>
       <c r="O62" t="n">
-        <v>0.02282298225318418</v>
+        <v>0.01141149112659209</v>
       </c>
       <c r="P62" t="n">
-        <v>0.01755614019475706</v>
+        <v>0.008778070097378528</v>
       </c>
       <c r="Q62" t="n">
-        <v>0.01580052617528135</v>
+        <v>0.007900263087640675</v>
       </c>
       <c r="R62" t="n">
         <v>0.002079692980017226</v>
@@ -8348,7 +8348,7 @@
         <v>0.007625540926729827</v>
       </c>
       <c r="AK62" t="n">
-        <v>0.03950131543820338</v>
+        <v>0.01975065771910169</v>
       </c>
       <c r="AL62" t="n">
         <v>0.01178492688676428</v>
@@ -8360,7 +8360,7 @@
         <v>0.01247815788010335</v>
       </c>
       <c r="AO62" t="n">
-        <v>0.04564596450636835</v>
+        <v>0.02282298225318417</v>
       </c>
       <c r="AP62" t="n">
         <v>0.006239078940051677</v>
@@ -8371,7 +8371,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.02381554553354788</v>
+        <v>0.01190777276677394</v>
       </c>
       <c r="C63" t="n">
         <v>0.002066617890902241</v>
@@ -8392,7 +8392,7 @@
         <v>0.002755490521202988</v>
       </c>
       <c r="I63" t="n">
-        <v>0.01871221434778762</v>
+        <v>0.00935610717389381</v>
       </c>
       <c r="J63" t="n">
         <v>0.002066617890902241</v>
@@ -8410,13 +8410,13 @@
         <v>0.004133235781804482</v>
       </c>
       <c r="O63" t="n">
-        <v>0.02211443513829446</v>
+        <v>0.01105721756914723</v>
       </c>
       <c r="P63" t="n">
-        <v>0.0170111039525342</v>
+        <v>0.008505551976267098</v>
       </c>
       <c r="Q63" t="n">
-        <v>0.01530999355728078</v>
+        <v>0.00765499677864039</v>
       </c>
       <c r="R63" t="n">
         <v>0.002066617890902241</v>
@@ -8476,7 +8476,7 @@
         <v>0.007577598933308216</v>
       </c>
       <c r="AK63" t="n">
-        <v>0.03827498389320195</v>
+        <v>0.01913749194660097</v>
       </c>
       <c r="AL63" t="n">
         <v>0.0117108347151127</v>
@@ -8488,7 +8488,7 @@
         <v>0.01239970734541344</v>
       </c>
       <c r="AO63" t="n">
-        <v>0.04422887027658892</v>
+        <v>0.02211443513829446</v>
       </c>
       <c r="AP63" t="n">
         <v>0.006199853672706722</v>
@@ -8499,7 +8499,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0239589896645658</v>
+        <v>0.0119794948322829</v>
       </c>
       <c r="C64" t="n">
         <v>0.001969767942606523</v>
@@ -8520,7 +8520,7 @@
         <v>0.002626357256808698</v>
       </c>
       <c r="I64" t="n">
-        <v>0.01882492045073027</v>
+        <v>0.009412460225365136</v>
       </c>
       <c r="J64" t="n">
         <v>0.001969767942606523</v>
@@ -8538,13 +8538,13 @@
         <v>0.003939535885213046</v>
       </c>
       <c r="O64" t="n">
-        <v>0.02224763325995396</v>
+        <v>0.01112381662997698</v>
       </c>
       <c r="P64" t="n">
-        <v>0.01711356404611843</v>
+        <v>0.008556782023059213</v>
       </c>
       <c r="Q64" t="n">
-        <v>0.01540220764150659</v>
+        <v>0.007701103820753293</v>
       </c>
       <c r="R64" t="n">
         <v>0.001969767942606523</v>
@@ -8604,7 +8604,7 @@
         <v>0.007222482456223918</v>
       </c>
       <c r="AK64" t="n">
-        <v>0.03850551910376647</v>
+        <v>0.01925275955188323</v>
       </c>
       <c r="AL64" t="n">
         <v>0.01116201834143696</v>
@@ -8616,7 +8616,7 @@
         <v>0.01181860765563914</v>
       </c>
       <c r="AO64" t="n">
-        <v>0.04449526651990791</v>
+        <v>0.02224763325995396</v>
       </c>
       <c r="AP64" t="n">
         <v>0.005909303827819569</v>
@@ -8627,7 +8627,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.02544245405493495</v>
+        <v>0.01272122702746748</v>
       </c>
       <c r="C65" t="n">
         <v>0.002077561701126847</v>
@@ -8648,7 +8648,7 @@
         <v>0.002770082268169128</v>
       </c>
       <c r="I65" t="n">
-        <v>0.01999049961459175</v>
+        <v>0.009995249807295874</v>
       </c>
       <c r="J65" t="n">
         <v>0.002077561701126847</v>
@@ -8666,13 +8666,13 @@
         <v>0.004155123402253693</v>
       </c>
       <c r="O65" t="n">
-        <v>0.02362513590815388</v>
+        <v>0.01181256795407694</v>
       </c>
       <c r="P65" t="n">
-        <v>0.01817318146781068</v>
+        <v>0.009086590733905338</v>
       </c>
       <c r="Q65" t="n">
-        <v>0.01635586332102961</v>
+        <v>0.008177931660514805</v>
       </c>
       <c r="R65" t="n">
         <v>0.002077561701126847</v>
@@ -8732,7 +8732,7 @@
         <v>0.007617726237465103</v>
       </c>
       <c r="AK65" t="n">
-        <v>0.04088965830257403</v>
+        <v>0.02044482915128702</v>
       </c>
       <c r="AL65" t="n">
         <v>0.0117728496397188</v>
@@ -8744,7 +8744,7 @@
         <v>0.01246537020676108</v>
       </c>
       <c r="AO65" t="n">
-        <v>0.04725027181630777</v>
+        <v>0.02362513590815388</v>
       </c>
       <c r="AP65" t="n">
         <v>0.006232685103380539</v>
@@ -8755,7 +8755,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.02555351452558712</v>
+        <v>0.01277675726279356</v>
       </c>
       <c r="C66" t="n">
         <v>0.002389961713683005</v>
@@ -8776,7 +8776,7 @@
         <v>0.003186615618244007</v>
       </c>
       <c r="I66" t="n">
-        <v>0.02007776141296131</v>
+        <v>0.01003888070648066</v>
       </c>
       <c r="J66" t="n">
         <v>0.002389961713683005</v>
@@ -8794,13 +8794,13 @@
         <v>0.004779923427366011</v>
       </c>
       <c r="O66" t="n">
-        <v>0.02372826348804519</v>
+        <v>0.01186413174402259</v>
       </c>
       <c r="P66" t="n">
-        <v>0.01825251037541937</v>
+        <v>0.009126255187709684</v>
       </c>
       <c r="Q66" t="n">
-        <v>0.01642725933787743</v>
+        <v>0.008213629668938717</v>
       </c>
       <c r="R66" t="n">
         <v>0.002389961713683005</v>
@@ -8860,7 +8860,7 @@
         <v>0.008763192950171018</v>
       </c>
       <c r="AK66" t="n">
-        <v>0.04106814834469358</v>
+        <v>0.02053407417234679</v>
       </c>
       <c r="AL66" t="n">
         <v>0.01354311637753703</v>
@@ -8872,7 +8872,7 @@
         <v>0.01433977028209803</v>
       </c>
       <c r="AO66" t="n">
-        <v>0.04745652697609037</v>
+        <v>0.02372826348804518</v>
       </c>
       <c r="AP66" t="n">
         <v>0.007169885141049014</v>
@@ -8883,7 +8883,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.02570936328380805</v>
+        <v>0.01285468164190402</v>
       </c>
       <c r="C67" t="n">
         <v>0.002644308593326356</v>
@@ -8904,7 +8904,7 @@
         <v>0.003525744791101808</v>
       </c>
       <c r="I67" t="n">
-        <v>0.02020021400870632</v>
+        <v>0.01010010700435316</v>
       </c>
       <c r="J67" t="n">
         <v>0.002644308593326356</v>
@@ -8922,13 +8922,13 @@
         <v>0.005288617186652711</v>
       </c>
       <c r="O67" t="n">
-        <v>0.02387298019210748</v>
+        <v>0.01193649009605374</v>
       </c>
       <c r="P67" t="n">
-        <v>0.01836383091700575</v>
+        <v>0.009181915458502873</v>
       </c>
       <c r="Q67" t="n">
-        <v>0.01652744782530518</v>
+        <v>0.008263723912652588</v>
       </c>
       <c r="R67" t="n">
         <v>0.002644308593326356</v>
@@ -8988,7 +8988,7 @@
         <v>0.009695798175529971</v>
       </c>
       <c r="AK67" t="n">
-        <v>0.04131861956326294</v>
+        <v>0.02065930978163147</v>
       </c>
       <c r="AL67" t="n">
         <v>0.01498441536218268</v>
@@ -9000,7 +9000,7 @@
         <v>0.01586585155995813</v>
       </c>
       <c r="AO67" t="n">
-        <v>0.04774596038421495</v>
+        <v>0.02387298019210747</v>
       </c>
       <c r="AP67" t="n">
         <v>0.007932925779979066</v>
@@ -9011,7 +9011,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02479648282861293</v>
+        <v>0.01239824141430646</v>
       </c>
       <c r="C68" t="n">
         <v>0.002765473435578007</v>
@@ -9032,7 +9032,7 @@
         <v>0.003687297914104009</v>
       </c>
       <c r="I68" t="n">
-        <v>0.01948295079391016</v>
+        <v>0.009741475396955079</v>
       </c>
       <c r="J68" t="n">
         <v>0.002765473435578007</v>
@@ -9050,13 +9050,13 @@
         <v>0.005530946871156015</v>
       </c>
       <c r="O68" t="n">
-        <v>0.02302530548371201</v>
+        <v>0.011512652741856</v>
       </c>
       <c r="P68" t="n">
-        <v>0.01771177344900923</v>
+        <v>0.008855886724504616</v>
       </c>
       <c r="Q68" t="n">
-        <v>0.01594059610410831</v>
+        <v>0.007970298052054155</v>
       </c>
       <c r="R68" t="n">
         <v>0.002765473435578007</v>
@@ -9116,7 +9116,7 @@
         <v>0.01014006926378603</v>
       </c>
       <c r="AK68" t="n">
-        <v>0.03985149026027078</v>
+        <v>0.01992574513013539</v>
       </c>
       <c r="AL68" t="n">
         <v>0.01567101613494204</v>
@@ -9128,7 +9128,7 @@
         <v>0.01659284061346804</v>
       </c>
       <c r="AO68" t="n">
-        <v>0.04605061096742401</v>
+        <v>0.02302530548371201</v>
       </c>
       <c r="AP68" t="n">
         <v>0.008296420306734021</v>
@@ -9139,7 +9139,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.02392871036787325</v>
+        <v>0.01196435518393662</v>
       </c>
       <c r="C69" t="n">
         <v>0.002727853784607525</v>
@@ -9160,7 +9160,7 @@
         <v>0.0036371383794767</v>
       </c>
       <c r="I69" t="n">
-        <v>0.01880112957475755</v>
+        <v>0.009400564787378775</v>
       </c>
       <c r="J69" t="n">
         <v>0.002727853784607525</v>
@@ -9178,13 +9178,13 @@
         <v>0.00545570756921505</v>
       </c>
       <c r="O69" t="n">
-        <v>0.02221951677016802</v>
+        <v>0.01110975838508401</v>
       </c>
       <c r="P69" t="n">
-        <v>0.01709193597705232</v>
+        <v>0.008545967988526158</v>
       </c>
       <c r="Q69" t="n">
-        <v>0.01538274237934709</v>
+        <v>0.007691371189673543</v>
       </c>
       <c r="R69" t="n">
         <v>0.002727853784607525</v>
@@ -9244,7 +9244,7 @@
         <v>0.01000213054356093</v>
       </c>
       <c r="AK69" t="n">
-        <v>0.03845685594836772</v>
+        <v>0.01922842797418386</v>
       </c>
       <c r="AL69" t="n">
         <v>0.01545783811277598</v>
@@ -9256,7 +9256,7 @@
         <v>0.01636712270764515</v>
       </c>
       <c r="AO69" t="n">
-        <v>0.04443903354033603</v>
+        <v>0.02221951677016801</v>
       </c>
       <c r="AP69" t="n">
         <v>0.008183561353822574</v>
@@ -9267,7 +9267,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.02272255321468766</v>
+        <v>0.01136127660734383</v>
       </c>
       <c r="C70" t="n">
         <v>0.002502197793524685</v>
@@ -9288,7 +9288,7 @@
         <v>0.003336263724699581</v>
       </c>
       <c r="I70" t="n">
-        <v>0.01785343466868316</v>
+        <v>0.008926717334341578</v>
       </c>
       <c r="J70" t="n">
         <v>0.002502197793524685</v>
@@ -9306,13 +9306,13 @@
         <v>0.005004395587049371</v>
       </c>
       <c r="O70" t="n">
-        <v>0.02109951369935282</v>
+        <v>0.01054975684967641</v>
       </c>
       <c r="P70" t="n">
-        <v>0.01623039515334832</v>
+        <v>0.008115197576674161</v>
       </c>
       <c r="Q70" t="n">
-        <v>0.01460735563801349</v>
+        <v>0.007303677819006746</v>
       </c>
       <c r="R70" t="n">
         <v>0.002502197793524685</v>
@@ -9372,7 +9372,7 @@
         <v>0.009174725242923846</v>
       </c>
       <c r="AK70" t="n">
-        <v>0.03651838909503373</v>
+        <v>0.01825919454751686</v>
       </c>
       <c r="AL70" t="n">
         <v>0.01417912082997322</v>
@@ -9384,7 +9384,7 @@
         <v>0.01501318676114811</v>
       </c>
       <c r="AO70" t="n">
-        <v>0.04219902739870564</v>
+        <v>0.02109951369935282</v>
       </c>
       <c r="AP70" t="n">
         <v>0.007506593380574056</v>
@@ -9395,7 +9395,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.02166343801498736</v>
+        <v>0.01083171900749368</v>
       </c>
       <c r="C71" t="n">
         <v>0.002117341504924281</v>
@@ -9416,7 +9416,7 @@
         <v>0.002823122006565708</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0170212727260615</v>
+        <v>0.008510636363030748</v>
       </c>
       <c r="J71" t="n">
         <v>0.002117341504924281</v>
@@ -9434,13 +9434,13 @@
         <v>0.004234683009848562</v>
       </c>
       <c r="O71" t="n">
-        <v>0.02011604958534541</v>
+        <v>0.0100580247926727</v>
       </c>
       <c r="P71" t="n">
-        <v>0.01547388429641954</v>
+        <v>0.00773694214820977</v>
       </c>
       <c r="Q71" t="n">
-        <v>0.01392649586677759</v>
+        <v>0.006963247933388794</v>
       </c>
       <c r="R71" t="n">
         <v>0.002117341504924281</v>
@@ -9500,7 +9500,7 @@
         <v>0.007763585518055695</v>
       </c>
       <c r="AK71" t="n">
-        <v>0.03481623966694397</v>
+        <v>0.01740811983347199</v>
       </c>
       <c r="AL71" t="n">
         <v>0.01199826852790426</v>
@@ -9512,7 +9512,7 @@
         <v>0.01270404902954568</v>
       </c>
       <c r="AO71" t="n">
-        <v>0.04023209917069081</v>
+        <v>0.0201160495853454</v>
       </c>
       <c r="AP71" t="n">
         <v>0.006352024514772842</v>
@@ -9523,7 +9523,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.02161906066276721</v>
+        <v>0.0108095303313836</v>
       </c>
       <c r="C72" t="n">
         <v>0.001732282412460377</v>
@@ -9544,7 +9544,7 @@
         <v>0.002309709883280502</v>
       </c>
       <c r="I72" t="n">
-        <v>0.01698640480645995</v>
+        <v>0.008493202403229974</v>
       </c>
       <c r="J72" t="n">
         <v>0.001732282412460377</v>
@@ -9562,13 +9562,13 @@
         <v>0.003464564824920753</v>
       </c>
       <c r="O72" t="n">
-        <v>0.02007484204399812</v>
+        <v>0.01003742102199906</v>
       </c>
       <c r="P72" t="n">
-        <v>0.01544218618769086</v>
+        <v>0.007721093093845431</v>
       </c>
       <c r="Q72" t="n">
-        <v>0.01389796756892177</v>
+        <v>0.006948983784460887</v>
       </c>
       <c r="R72" t="n">
         <v>0.001732282412460377</v>
@@ -9628,7 +9628,7 @@
         <v>0.00635170217902138</v>
       </c>
       <c r="AK72" t="n">
-        <v>0.03474491892230444</v>
+        <v>0.01737245946115222</v>
       </c>
       <c r="AL72" t="n">
         <v>0.009816267003942133</v>
@@ -9640,7 +9640,7 @@
         <v>0.01039369447476226</v>
       </c>
       <c r="AO72" t="n">
-        <v>0.04014968408799624</v>
+        <v>0.02007484204399812</v>
       </c>
       <c r="AP72" t="n">
         <v>0.005196847237381129</v>
@@ -9651,7 +9651,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.02191347934561149</v>
+        <v>0.01095673967280575</v>
       </c>
       <c r="C73" t="n">
         <v>0.001389796174682185</v>
@@ -9672,7 +9672,7 @@
         <v>0.001853061566242914</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01721773377155188</v>
+        <v>0.008608866885775942</v>
       </c>
       <c r="J73" t="n">
         <v>0.001389796174682185</v>
@@ -9690,13 +9690,13 @@
         <v>0.002779592349364371</v>
       </c>
       <c r="O73" t="n">
-        <v>0.02034823082092496</v>
+        <v>0.01017411541046248</v>
       </c>
       <c r="P73" t="n">
-        <v>0.01565248524686535</v>
+        <v>0.007826242623432674</v>
       </c>
       <c r="Q73" t="n">
-        <v>0.01408723672217881</v>
+        <v>0.007043618361089407</v>
       </c>
       <c r="R73" t="n">
         <v>0.001389796174682185</v>
@@ -9756,7 +9756,7 @@
         <v>0.005095919307168012</v>
       </c>
       <c r="AK73" t="n">
-        <v>0.03521809180544704</v>
+        <v>0.01760904590272352</v>
       </c>
       <c r="AL73" t="n">
         <v>0.007875511656532384</v>
@@ -9768,7 +9768,7 @@
         <v>0.008338777048093111</v>
       </c>
       <c r="AO73" t="n">
-        <v>0.04069646164184991</v>
+        <v>0.02034823082092495</v>
       </c>
       <c r="AP73" t="n">
         <v>0.004169388524046556</v>
@@ -9779,7 +9779,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.02157229426520027</v>
+        <v>0.01078614713260013</v>
       </c>
       <c r="C74" t="n">
         <v>0.00113332009958191</v>
@@ -9800,7 +9800,7 @@
         <v>0.001511093466109213</v>
       </c>
       <c r="I74" t="n">
-        <v>0.01694965977980021</v>
+        <v>0.008474829889900103</v>
       </c>
       <c r="J74" t="n">
         <v>0.00113332009958191</v>
@@ -9818,13 +9818,13 @@
         <v>0.002266640199163819</v>
       </c>
       <c r="O74" t="n">
-        <v>0.02003141610340025</v>
+        <v>0.01001570805170012</v>
       </c>
       <c r="P74" t="n">
-        <v>0.01540878161800019</v>
+        <v>0.007704390809000094</v>
       </c>
       <c r="Q74" t="n">
-        <v>0.01386790345620017</v>
+        <v>0.006933951728100084</v>
       </c>
       <c r="R74" t="n">
         <v>0.00113332009958191</v>
@@ -9884,7 +9884,7 @@
         <v>0.004155507031800334</v>
       </c>
       <c r="AK74" t="n">
-        <v>0.03466975864050043</v>
+        <v>0.01733487932025021</v>
       </c>
       <c r="AL74" t="n">
         <v>0.006422147230964154</v>
@@ -9896,7 +9896,7 @@
         <v>0.006799920597491456</v>
       </c>
       <c r="AO74" t="n">
-        <v>0.04006283220680049</v>
+        <v>0.02003141610340025</v>
       </c>
       <c r="AP74" t="n">
         <v>0.003399960298745728</v>
@@ -9907,7 +9907,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.02133389800337959</v>
+        <v>0.01066694900168979</v>
       </c>
       <c r="C75" t="n">
         <v>0.001000518717737727</v>
@@ -9928,7 +9928,7 @@
         <v>0.001334024956983635</v>
       </c>
       <c r="I75" t="n">
-        <v>0.01676234843122681</v>
+        <v>0.008381174215613407</v>
       </c>
       <c r="J75" t="n">
         <v>0.001000518717737727</v>
@@ -9946,13 +9946,13 @@
         <v>0.002001037435475453</v>
       </c>
       <c r="O75" t="n">
-        <v>0.01981004814599533</v>
+        <v>0.009905024072997665</v>
       </c>
       <c r="P75" t="n">
-        <v>0.01523849857384256</v>
+        <v>0.007619249286921279</v>
       </c>
       <c r="Q75" t="n">
-        <v>0.0137146487164583</v>
+        <v>0.006857324358229152</v>
       </c>
       <c r="R75" t="n">
         <v>0.001000518717737727</v>
@@ -10012,7 +10012,7 @@
         <v>0.003668568631704997</v>
       </c>
       <c r="AK75" t="n">
-        <v>0.03428662179114576</v>
+        <v>0.01714331089557288</v>
       </c>
       <c r="AL75" t="n">
         <v>0.00566960606718045</v>
@@ -10024,7 +10024,7 @@
         <v>0.006003112306426359</v>
       </c>
       <c r="AO75" t="n">
-        <v>0.03962009629199065</v>
+        <v>0.01981004814599533</v>
       </c>
       <c r="AP75" t="n">
         <v>0.003001556153213179</v>
@@ -10035,7 +10035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.02139133405829319</v>
+        <v>0.01069566702914659</v>
       </c>
       <c r="C76" t="n">
         <v>0.0009621129260476388</v>
@@ -10056,7 +10056,7 @@
         <v>0.001282817234730185</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0168074767600875</v>
+        <v>0.008403738380043751</v>
       </c>
       <c r="J76" t="n">
         <v>0.0009621129260476388</v>
@@ -10074,13 +10074,13 @@
         <v>0.001924225852095278</v>
       </c>
       <c r="O76" t="n">
-        <v>0.01986338162555796</v>
+        <v>0.009931690812778981</v>
       </c>
       <c r="P76" t="n">
-        <v>0.01527952432735227</v>
+        <v>0.007639762163676137</v>
       </c>
       <c r="Q76" t="n">
-        <v>0.01375157189461705</v>
+        <v>0.006875785947308524</v>
       </c>
       <c r="R76" t="n">
         <v>0.0009621129260476388</v>
@@ -10140,7 +10140,7 @@
         <v>0.003527747395508009</v>
       </c>
       <c r="AK76" t="n">
-        <v>0.03437892973654262</v>
+        <v>0.01718946486827131</v>
       </c>
       <c r="AL76" t="n">
         <v>0.005451973247603287</v>
@@ -10152,7 +10152,7 @@
         <v>0.005772677556285833</v>
       </c>
       <c r="AO76" t="n">
-        <v>0.03972676325111592</v>
+        <v>0.01986338162555796</v>
       </c>
       <c r="AP76" t="n">
         <v>0.002886338778142916</v>
@@ -10163,7 +10163,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.02170199955275945</v>
+        <v>0.01085099977637973</v>
       </c>
       <c r="C77" t="n">
         <v>0.000993843985215041</v>
@@ -10184,7 +10184,7 @@
         <v>0.001325125313620055</v>
       </c>
       <c r="I77" t="n">
-        <v>0.01705157107716814</v>
+        <v>0.008525785538584069</v>
       </c>
       <c r="J77" t="n">
         <v>0.000993843985215041</v>
@@ -10202,13 +10202,13 @@
         <v>0.001987687970430082</v>
       </c>
       <c r="O77" t="n">
-        <v>0.02015185672756235</v>
+        <v>0.01007592836378117</v>
       </c>
       <c r="P77" t="n">
-        <v>0.01550142825197103</v>
+        <v>0.007750714125985517</v>
       </c>
       <c r="Q77" t="n">
-        <v>0.01395128542677393</v>
+        <v>0.006975642713386966</v>
       </c>
       <c r="R77" t="n">
         <v>0.000993843985215041</v>
@@ -10268,7 +10268,7 @@
         <v>0.00364409461245515</v>
       </c>
       <c r="AK77" t="n">
-        <v>0.03487821356693483</v>
+        <v>0.01743910678346742</v>
       </c>
       <c r="AL77" t="n">
         <v>0.005631782582885233</v>
@@ -10280,7 +10280,7 @@
         <v>0.005963063911290246</v>
       </c>
       <c r="AO77" t="n">
-        <v>0.04030371345512469</v>
+        <v>0.02015185672756235</v>
       </c>
       <c r="AP77" t="n">
         <v>0.002981531955645123</v>
@@ -10291,7 +10291,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.02170116505669474</v>
+        <v>0.01085058252834737</v>
       </c>
       <c r="C78" t="n">
         <v>0.001068835481129902</v>
@@ -10312,7 +10312,7 @@
         <v>0.001425113974839869</v>
       </c>
       <c r="I78" t="n">
-        <v>0.01705091540168872</v>
+        <v>0.00852545770084436</v>
       </c>
       <c r="J78" t="n">
         <v>0.001068835481129902</v>
@@ -10330,13 +10330,13 @@
         <v>0.002137670962259804</v>
       </c>
       <c r="O78" t="n">
-        <v>0.0201510818383594</v>
+        <v>0.0100755409191797</v>
       </c>
       <c r="P78" t="n">
-        <v>0.01550083218335338</v>
+        <v>0.007750416091676691</v>
       </c>
       <c r="Q78" t="n">
-        <v>0.01395074896501804</v>
+        <v>0.006975374482509022</v>
       </c>
       <c r="R78" t="n">
         <v>0.001068835481129902</v>
@@ -10396,7 +10396,7 @@
         <v>0.00391906343080964</v>
       </c>
       <c r="AK78" t="n">
-        <v>0.03487687241254511</v>
+        <v>0.01743843620627256</v>
       </c>
       <c r="AL78" t="n">
         <v>0.006056734393069444</v>
@@ -10408,7 +10408,7 @@
         <v>0.00641301288677941</v>
       </c>
       <c r="AO78" t="n">
-        <v>0.04030216367671879</v>
+        <v>0.0201510818383594</v>
       </c>
       <c r="AP78" t="n">
         <v>0.003206506443389705</v>
@@ -10419,7 +10419,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.02196163982811231</v>
+        <v>0.01098081991405615</v>
       </c>
       <c r="C79" t="n">
         <v>0.001210988954550904</v>
@@ -10440,7 +10440,7 @@
         <v>0.001614651939401206</v>
       </c>
       <c r="I79" t="n">
-        <v>0.01725557415065967</v>
+        <v>0.008627787075329836</v>
       </c>
       <c r="J79" t="n">
         <v>0.001210988954550904</v>
@@ -10458,13 +10458,13 @@
         <v>0.002421977909101808</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02039295126896143</v>
+        <v>0.01019647563448072</v>
       </c>
       <c r="P79" t="n">
-        <v>0.01568688559150879</v>
+        <v>0.007843442795754395</v>
       </c>
       <c r="Q79" t="n">
-        <v>0.01411819703235791</v>
+        <v>0.007059098516178956</v>
       </c>
       <c r="R79" t="n">
         <v>0.001210988954550904</v>
@@ -10524,7 +10524,7 @@
         <v>0.004440292833353315</v>
       </c>
       <c r="AK79" t="n">
-        <v>0.03529549258089478</v>
+        <v>0.01764774629044739</v>
       </c>
       <c r="AL79" t="n">
         <v>0.006862270742455124</v>
@@ -10536,7 +10536,7 @@
         <v>0.007265933727305425</v>
       </c>
       <c r="AO79" t="n">
-        <v>0.04078590253792286</v>
+        <v>0.02039295126896143</v>
       </c>
       <c r="AP79" t="n">
         <v>0.003632966863652712</v>
@@ -10547,7 +10547,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.02335325670627376</v>
+        <v>0.01167662835313688</v>
       </c>
       <c r="C80" t="n">
         <v>0.001356001388890273</v>
@@ -10568,7 +10568,7 @@
         <v>0.001808001851853698</v>
       </c>
       <c r="I80" t="n">
-        <v>0.01834898741207224</v>
+        <v>0.009174493706036119</v>
       </c>
       <c r="J80" t="n">
         <v>0.001356001388890273</v>
@@ -10586,13 +10586,13 @@
         <v>0.002712002777780546</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02168516694153992</v>
+        <v>0.01084258347076996</v>
       </c>
       <c r="P80" t="n">
-        <v>0.0166808976473384</v>
+        <v>0.008340448823669199</v>
       </c>
       <c r="Q80" t="n">
-        <v>0.01501280788260456</v>
+        <v>0.007506403941302279</v>
       </c>
       <c r="R80" t="n">
         <v>0.001356001388890273</v>
@@ -10652,7 +10652,7 @@
         <v>0.004972005092597668</v>
       </c>
       <c r="AK80" t="n">
-        <v>0.0375320197065114</v>
+        <v>0.0187660098532557</v>
       </c>
       <c r="AL80" t="n">
         <v>0.007684007870378215</v>
@@ -10664,7 +10664,7 @@
         <v>0.008136008333341639</v>
       </c>
       <c r="AO80" t="n">
-        <v>0.04337033388307984</v>
+        <v>0.02168516694153992</v>
       </c>
       <c r="AP80" t="n">
         <v>0.00406800416667082</v>
@@ -10675,7 +10675,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.02484448488311513</v>
+        <v>0.01242224244155757</v>
       </c>
       <c r="C81" t="n">
         <v>0.001492724331736268</v>
@@ -10696,7 +10696,7 @@
         <v>0.001990299108981691</v>
       </c>
       <c r="I81" t="n">
-        <v>0.01952066669387617</v>
+        <v>0.009760333346938087</v>
       </c>
       <c r="J81" t="n">
         <v>0.001492724331736268</v>
@@ -10714,13 +10714,13 @@
         <v>0.002985448663472537</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02306987882003548</v>
+        <v>0.01153493941001774</v>
       </c>
       <c r="P81" t="n">
-        <v>0.01774606063079652</v>
+        <v>0.00887303031539826</v>
       </c>
       <c r="Q81" t="n">
-        <v>0.01597145456771687</v>
+        <v>0.007985727283858435</v>
       </c>
       <c r="R81" t="n">
         <v>0.001492724331736268</v>
@@ -10780,7 +10780,7 @@
         <v>0.00547332254969965</v>
       </c>
       <c r="AK81" t="n">
-        <v>0.03992863641929217</v>
+        <v>0.01996431820964609</v>
       </c>
       <c r="AL81" t="n">
         <v>0.008458771213172189</v>
@@ -10792,7 +10792,7 @@
         <v>0.00895634599041761</v>
       </c>
       <c r="AO81" t="n">
-        <v>0.04613975764007096</v>
+        <v>0.02306987882003548</v>
       </c>
       <c r="AP81" t="n">
         <v>0.004478172995208805</v>
@@ -10803,7 +10803,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.02511549369099622</v>
+        <v>0.01255774684549811</v>
       </c>
       <c r="C82" t="n">
         <v>0.001637217697013838</v>
@@ -10824,7 +10824,7 @@
         <v>0.002182956929351785</v>
       </c>
       <c r="I82" t="n">
-        <v>0.01973360218578275</v>
+        <v>0.009866801092891373</v>
       </c>
       <c r="J82" t="n">
         <v>0.001637217697013838</v>
@@ -10842,13 +10842,13 @@
         <v>0.003274435394027676</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02332152985592507</v>
+        <v>0.01166076492796253</v>
       </c>
       <c r="P82" t="n">
-        <v>0.01793963835071159</v>
+        <v>0.008969819175355793</v>
       </c>
       <c r="Q82" t="n">
-        <v>0.01614567451564043</v>
+        <v>0.008072837257820214</v>
       </c>
       <c r="R82" t="n">
         <v>0.001637217697013838</v>
@@ -10908,7 +10908,7 @@
         <v>0.006003131555717406</v>
       </c>
       <c r="AK82" t="n">
-        <v>0.04036418628910107</v>
+        <v>0.02018209314455054</v>
       </c>
       <c r="AL82" t="n">
         <v>0.009277566949745084</v>
@@ -10920,7 +10920,7 @@
         <v>0.009823306182083028</v>
       </c>
       <c r="AO82" t="n">
-        <v>0.04664305971185013</v>
+        <v>0.02332152985592506</v>
       </c>
       <c r="AP82" t="n">
         <v>0.004911653091041514</v>
@@ -10931,7 +10931,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.02432490865444797</v>
+        <v>0.01216245432722398</v>
       </c>
       <c r="C83" t="n">
         <v>0.001754841437723339</v>
@@ -10952,7 +10952,7 @@
         <v>0.002339788583631118</v>
       </c>
       <c r="I83" t="n">
-        <v>0.01911242822849483</v>
+        <v>0.009556214114247416</v>
       </c>
       <c r="J83" t="n">
         <v>0.001754841437723339</v>
@@ -10970,13 +10970,13 @@
         <v>0.003509682875446678</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02258741517913026</v>
+        <v>0.01129370758956513</v>
       </c>
       <c r="P83" t="n">
-        <v>0.01737493475317712</v>
+        <v>0.008687467376588558</v>
       </c>
       <c r="Q83" t="n">
-        <v>0.01563744127785941</v>
+        <v>0.007818720638929704</v>
       </c>
       <c r="R83" t="n">
         <v>0.001754841437723339</v>
@@ -11036,7 +11036,7 @@
         <v>0.006434418604985575</v>
       </c>
       <c r="AK83" t="n">
-        <v>0.03909360319464852</v>
+        <v>0.01954680159732426</v>
       </c>
       <c r="AL83" t="n">
         <v>0.009944101480432255</v>
@@ -11048,7 +11048,7 @@
         <v>0.01052904862634003</v>
       </c>
       <c r="AO83" t="n">
-        <v>0.04517483035826051</v>
+        <v>0.02258741517913026</v>
       </c>
       <c r="AP83" t="n">
         <v>0.005264524313170016</v>
@@ -11059,7 +11059,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.02352873709641624</v>
+        <v>0.01176436854820812</v>
       </c>
       <c r="C84" t="n">
         <v>0.001911085808878495</v>
@@ -11080,7 +11080,7 @@
         <v>0.002548114411837993</v>
       </c>
       <c r="I84" t="n">
-        <v>0.0184868648614699</v>
+        <v>0.009243432430734951</v>
       </c>
       <c r="J84" t="n">
         <v>0.001911085808878495</v>
@@ -11098,13 +11098,13 @@
         <v>0.00382217161775699</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0218481130181008</v>
+        <v>0.0109240565090504</v>
       </c>
       <c r="P84" t="n">
-        <v>0.01680624078315445</v>
+        <v>0.008403120391577227</v>
       </c>
       <c r="Q84" t="n">
-        <v>0.01512561670483901</v>
+        <v>0.007562808352419506</v>
       </c>
       <c r="R84" t="n">
         <v>0.001911085808878495</v>
@@ -11164,7 +11164,7 @@
         <v>0.007007314632554481</v>
       </c>
       <c r="AK84" t="n">
-        <v>0.03781404176209753</v>
+        <v>0.01890702088104877</v>
       </c>
       <c r="AL84" t="n">
         <v>0.01082948625031147</v>
@@ -11176,7 +11176,7 @@
         <v>0.01146651485327097</v>
       </c>
       <c r="AO84" t="n">
-        <v>0.04369622603620159</v>
+        <v>0.02184811301810079</v>
       </c>
       <c r="AP84" t="n">
         <v>0.005733257426635484</v>
@@ -11187,7 +11187,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.02287227785513159</v>
+        <v>0.01143613892756579</v>
       </c>
       <c r="C85" t="n">
         <v>0.002052818453252794</v>
@@ -11208,7 +11208,7 @@
         <v>0.002737091271003726</v>
       </c>
       <c r="I85" t="n">
-        <v>0.01797107545760339</v>
+        <v>0.008985537728801694</v>
       </c>
       <c r="J85" t="n">
         <v>0.002052818453252794</v>
@@ -11226,13 +11226,13 @@
         <v>0.004105636906505589</v>
       </c>
       <c r="O85" t="n">
-        <v>0.02123854372262219</v>
+        <v>0.01061927186131109</v>
       </c>
       <c r="P85" t="n">
-        <v>0.01633734132509399</v>
+        <v>0.008168670662546994</v>
       </c>
       <c r="Q85" t="n">
-        <v>0.01470360719258459</v>
+        <v>0.007351803596292295</v>
       </c>
       <c r="R85" t="n">
         <v>0.002052818453252794</v>
@@ -11292,7 +11292,7 @@
         <v>0.007527000995260245</v>
       </c>
       <c r="AK85" t="n">
-        <v>0.03675901798146148</v>
+        <v>0.01837950899073074</v>
       </c>
       <c r="AL85" t="n">
         <v>0.01163263790176584</v>
@@ -11304,7 +11304,7 @@
         <v>0.01231691071951676</v>
       </c>
       <c r="AO85" t="n">
-        <v>0.04247708744524437</v>
+        <v>0.02123854372262219</v>
       </c>
       <c r="AP85" t="n">
         <v>0.006158455359758382</v>
@@ -11315,7 +11315,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.02213262395834537</v>
+        <v>0.01106631197917268</v>
       </c>
       <c r="C86" t="n">
         <v>0.002117585683325076</v>
@@ -11336,7 +11336,7 @@
         <v>0.002823447577766768</v>
       </c>
       <c r="I86" t="n">
-        <v>0.01738991882441421</v>
+        <v>0.008694959412207107</v>
       </c>
       <c r="J86" t="n">
         <v>0.002117585683325076</v>
@@ -11354,13 +11354,13 @@
         <v>0.004235171366650152</v>
       </c>
       <c r="O86" t="n">
-        <v>0.02055172224703498</v>
+        <v>0.01027586112351749</v>
       </c>
       <c r="P86" t="n">
-        <v>0.01580901711310383</v>
+        <v>0.007904508556551915</v>
       </c>
       <c r="Q86" t="n">
-        <v>0.01422811540179345</v>
+        <v>0.007114057700896724</v>
       </c>
       <c r="R86" t="n">
         <v>0.002117585683325076</v>
@@ -11420,7 +11420,7 @@
         <v>0.007764480838858612</v>
       </c>
       <c r="AK86" t="n">
-        <v>0.03557028850448363</v>
+        <v>0.01778514425224181</v>
       </c>
       <c r="AL86" t="n">
         <v>0.01199965220550877</v>
@@ -11432,7 +11432,7 @@
         <v>0.01270551409995046</v>
       </c>
       <c r="AO86" t="n">
-        <v>0.04110344449406997</v>
+        <v>0.02055172224703498</v>
       </c>
       <c r="AP86" t="n">
         <v>0.006352757049975228</v>
@@ -11443,7 +11443,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.02131182519556156</v>
+        <v>0.01065591259778078</v>
       </c>
       <c r="C87" t="n">
         <v>0.002072988000942987</v>
@@ -11464,7 +11464,7 @@
         <v>0.002763984001257316</v>
       </c>
       <c r="I87" t="n">
-        <v>0.01674500551079837</v>
+        <v>0.008372502755399185</v>
       </c>
       <c r="J87" t="n">
         <v>0.002072988000942987</v>
@@ -11482,13 +11482,13 @@
         <v>0.004145976001885973</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01978955196730717</v>
+        <v>0.009894775983653584</v>
       </c>
       <c r="P87" t="n">
-        <v>0.01522273228254397</v>
+        <v>0.007611366141271986</v>
       </c>
       <c r="Q87" t="n">
-        <v>0.01370045905428957</v>
+        <v>0.006850229527144787</v>
       </c>
       <c r="R87" t="n">
         <v>0.002072988000942987</v>
@@ -11548,7 +11548,7 @@
         <v>0.007600956003457617</v>
       </c>
       <c r="AK87" t="n">
-        <v>0.03425114763572394</v>
+        <v>0.01712557381786197</v>
       </c>
       <c r="AL87" t="n">
         <v>0.01174693200534359</v>
@@ -11560,7 +11560,7 @@
         <v>0.01243792800565792</v>
       </c>
       <c r="AO87" t="n">
-        <v>0.03957910393461433</v>
+        <v>0.01978955196730716</v>
       </c>
       <c r="AP87" t="n">
         <v>0.006218964002828959</v>
@@ -11571,7 +11571,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0213005992075051</v>
+        <v>0.01065029960375255</v>
       </c>
       <c r="C88" t="n">
         <v>0.00198043394536329</v>
@@ -11592,7 +11592,7 @@
         <v>0.00264057859381772</v>
       </c>
       <c r="I88" t="n">
-        <v>0.01673618509161115</v>
+        <v>0.008368092545805575</v>
       </c>
       <c r="J88" t="n">
         <v>0.00198043394536329</v>
@@ -11610,13 +11610,13 @@
         <v>0.003960867890726579</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01977912783554045</v>
+        <v>0.009889563917770227</v>
       </c>
       <c r="P88" t="n">
-        <v>0.0152147137196465</v>
+        <v>0.00760735685982325</v>
       </c>
       <c r="Q88" t="n">
-        <v>0.01369324234768185</v>
+        <v>0.006846621173840926</v>
       </c>
       <c r="R88" t="n">
         <v>0.00198043394536329</v>
@@ -11676,7 +11676,7 @@
         <v>0.007261591132998728</v>
       </c>
       <c r="AK88" t="n">
-        <v>0.03423310586920463</v>
+        <v>0.01711655293460232</v>
       </c>
       <c r="AL88" t="n">
         <v>0.01122245902372531</v>
@@ -11688,7 +11688,7 @@
         <v>0.01188260367217974</v>
       </c>
       <c r="AO88" t="n">
-        <v>0.03955825567108091</v>
+        <v>0.01977912783554045</v>
       </c>
       <c r="AP88" t="n">
         <v>0.005941301836089869</v>
@@ -11699,7 +11699,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.02287654970931546</v>
+        <v>0.01143827485465773</v>
       </c>
       <c r="C89" t="n">
         <v>0.002037182162626475</v>
@@ -11720,7 +11720,7 @@
         <v>0.002716242883501967</v>
       </c>
       <c r="I89" t="n">
-        <v>0.01797443191446215</v>
+        <v>0.008987215957231074</v>
       </c>
       <c r="J89" t="n">
         <v>0.002037182162626475</v>
@@ -11738,13 +11738,13 @@
         <v>0.004074364325252951</v>
       </c>
       <c r="O89" t="n">
-        <v>0.02124251044436436</v>
+        <v>0.01062125522218218</v>
       </c>
       <c r="P89" t="n">
-        <v>0.01634039264951104</v>
+        <v>0.00817019632475552</v>
       </c>
       <c r="Q89" t="n">
-        <v>0.01470635338455994</v>
+        <v>0.007353176692279969</v>
       </c>
       <c r="R89" t="n">
         <v>0.002037182162626475</v>
@@ -11804,7 +11804,7 @@
         <v>0.007469667929630408</v>
       </c>
       <c r="AK89" t="n">
-        <v>0.03676588346139985</v>
+        <v>0.01838294173069992</v>
       </c>
       <c r="AL89" t="n">
         <v>0.01154403225488336</v>
@@ -11816,7 +11816,7 @@
         <v>0.01222309297575885</v>
       </c>
       <c r="AO89" t="n">
-        <v>0.04248502088872871</v>
+        <v>0.02124251044436436</v>
       </c>
       <c r="AP89" t="n">
         <v>0.006111546487879425</v>
@@ -11827,7 +11827,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.02325942253139957</v>
+        <v>0.01162971126569978</v>
       </c>
       <c r="C90" t="n">
         <v>0.002358188471115907</v>
@@ -11848,7 +11848,7 @@
         <v>0.003144251294821209</v>
       </c>
       <c r="I90" t="n">
-        <v>0.01827526056038537</v>
+        <v>0.009137630280192686</v>
       </c>
       <c r="J90" t="n">
         <v>0.002358188471115907</v>
@@ -11866,13 +11866,13 @@
         <v>0.004716376942231814</v>
       </c>
       <c r="O90" t="n">
-        <v>0.02159803520772817</v>
+        <v>0.01079901760386408</v>
       </c>
       <c r="P90" t="n">
-        <v>0.01661387323671397</v>
+        <v>0.008306936618356986</v>
       </c>
       <c r="Q90" t="n">
-        <v>0.01495248591304258</v>
+        <v>0.007476242956521289</v>
       </c>
       <c r="R90" t="n">
         <v>0.002358188471115907</v>
@@ -11932,7 +11932,7 @@
         <v>0.008646691060758325</v>
       </c>
       <c r="AK90" t="n">
-        <v>0.03738121478260645</v>
+        <v>0.01869060739130322</v>
       </c>
       <c r="AL90" t="n">
         <v>0.01336306800299014</v>
@@ -11944,7 +11944,7 @@
         <v>0.01414913082669544</v>
       </c>
       <c r="AO90" t="n">
-        <v>0.04319607041545634</v>
+        <v>0.02159803520772817</v>
       </c>
       <c r="AP90" t="n">
         <v>0.00707456541334772</v>
@@ -11955,7 +11955,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.02401043762985547</v>
+        <v>0.01200521881492773</v>
       </c>
       <c r="C91" t="n">
         <v>0.002637903383559658</v>
@@ -11976,7 +11976,7 @@
         <v>0.003517204511412877</v>
       </c>
       <c r="I91" t="n">
-        <v>0.0188653438520293</v>
+        <v>0.009432671926014649</v>
       </c>
       <c r="J91" t="n">
         <v>0.002637903383559658</v>
@@ -11994,13 +11994,13 @@
         <v>0.005275806767119315</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02229540637058008</v>
+        <v>0.01114770318529004</v>
       </c>
       <c r="P91" t="n">
-        <v>0.01715031259275391</v>
+        <v>0.008575156296376953</v>
       </c>
       <c r="Q91" t="n">
-        <v>0.01543528133347851</v>
+        <v>0.007717640666739257</v>
       </c>
       <c r="R91" t="n">
         <v>0.002637903383559658</v>
@@ -12060,7 +12060,7 @@
         <v>0.00967231240638541</v>
       </c>
       <c r="AK91" t="n">
-        <v>0.03858820333369629</v>
+        <v>0.01929410166684814</v>
       </c>
       <c r="AL91" t="n">
         <v>0.01494811917350473</v>
@@ -12072,7 +12072,7 @@
         <v>0.01582742030135794</v>
       </c>
       <c r="AO91" t="n">
-        <v>0.04459081274116015</v>
+        <v>0.02229540637058008</v>
       </c>
       <c r="AP91" t="n">
         <v>0.007913710150678972</v>
@@ -12083,7 +12083,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.02358461941658759</v>
+        <v>0.01179230970829379</v>
       </c>
       <c r="C92" t="n">
         <v>0.002764463828237236</v>
@@ -12104,7 +12104,7 @@
         <v>0.003685951770982981</v>
       </c>
       <c r="I92" t="n">
-        <v>0.01853077239874739</v>
+        <v>0.009265386199373695</v>
       </c>
       <c r="J92" t="n">
         <v>0.002764463828237236</v>
@@ -12122,13 +12122,13 @@
         <v>0.005528927656474471</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02190000374397419</v>
+        <v>0.0109500018719871</v>
       </c>
       <c r="P92" t="n">
-        <v>0.01684615672613399</v>
+        <v>0.008423078363066995</v>
       </c>
       <c r="Q92" t="n">
-        <v>0.01516154105352059</v>
+        <v>0.007580770526760296</v>
       </c>
       <c r="R92" t="n">
         <v>0.002764463828237236</v>
@@ -12188,7 +12188,7 @@
         <v>0.0101363673702032</v>
       </c>
       <c r="AK92" t="n">
-        <v>0.03790385263380148</v>
+        <v>0.01895192631690074</v>
       </c>
       <c r="AL92" t="n">
         <v>0.01566529502667767</v>
@@ -12200,7 +12200,7 @@
         <v>0.01658678296942341</v>
       </c>
       <c r="AO92" t="n">
-        <v>0.04380000748794838</v>
+        <v>0.02190000374397419</v>
       </c>
       <c r="AP92" t="n">
         <v>0.008293391484711705</v>
@@ -12211,7 +12211,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.023288995622052</v>
+        <v>0.011644497811026</v>
       </c>
       <c r="C93" t="n">
         <v>0.002702970039785736</v>
@@ -12232,7 +12232,7 @@
         <v>0.003603960053047648</v>
       </c>
       <c r="I93" t="n">
-        <v>0.01829849656018372</v>
+        <v>0.009149248280091858</v>
       </c>
       <c r="J93" t="n">
         <v>0.002702970039785736</v>
@@ -12250,13 +12250,13 @@
         <v>0.005405940079571472</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02162549593476257</v>
+        <v>0.01081274796738129</v>
       </c>
       <c r="P93" t="n">
-        <v>0.01663499687289428</v>
+        <v>0.008317498436447142</v>
       </c>
       <c r="Q93" t="n">
-        <v>0.01497149718560486</v>
+        <v>0.007485748592802429</v>
       </c>
       <c r="R93" t="n">
         <v>0.002702970039785736</v>
@@ -12316,7 +12316,7 @@
         <v>0.00991089014588103</v>
       </c>
       <c r="AK93" t="n">
-        <v>0.03742874296401215</v>
+        <v>0.01871437148200607</v>
       </c>
       <c r="AL93" t="n">
         <v>0.0153168302254525</v>
@@ -12328,7 +12328,7 @@
         <v>0.01621782023871441</v>
       </c>
       <c r="AO93" t="n">
-        <v>0.04325099186952515</v>
+        <v>0.02162549593476257</v>
       </c>
       <c r="AP93" t="n">
         <v>0.008108910119357207</v>
@@ -12339,7 +12339,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.02272289857957925</v>
+        <v>0.01136144928978962</v>
       </c>
       <c r="C94" t="n">
         <v>0.002446096617159331</v>
@@ -12360,7 +12360,7 @@
         <v>0.003261462156212441</v>
       </c>
       <c r="I94" t="n">
-        <v>0.01785370602681226</v>
+        <v>0.008926853013406132</v>
       </c>
       <c r="J94" t="n">
         <v>0.002446096617159331</v>
@@ -12378,13 +12378,13 @@
         <v>0.004892193234318661</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02109983439532359</v>
+        <v>0.01054991719766179</v>
       </c>
       <c r="P94" t="n">
-        <v>0.0162306418425566</v>
+        <v>0.008115320921278302</v>
       </c>
       <c r="Q94" t="n">
-        <v>0.01460757765830094</v>
+        <v>0.007303788829150472</v>
       </c>
       <c r="R94" t="n">
         <v>0.002446096617159331</v>
@@ -12444,7 +12444,7 @@
         <v>0.008969020929584211</v>
       </c>
       <c r="AK94" t="n">
-        <v>0.03651894414575236</v>
+        <v>0.01825947207287618</v>
       </c>
       <c r="AL94" t="n">
         <v>0.01386121416390287</v>
@@ -12456,7 +12456,7 @@
         <v>0.01467657970295598</v>
       </c>
       <c r="AO94" t="n">
-        <v>0.04219966879064718</v>
+        <v>0.02109983439532359</v>
       </c>
       <c r="AP94" t="n">
         <v>0.007338289851477991</v>
@@ -12467,7 +12467,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.02233294577721748</v>
+        <v>0.01116647288860874</v>
       </c>
       <c r="C95" t="n">
         <v>0.002073304584784049</v>
@@ -12488,7 +12488,7 @@
         <v>0.002764406113045399</v>
       </c>
       <c r="I95" t="n">
-        <v>0.0175473145392423</v>
+        <v>0.008773657269621151</v>
       </c>
       <c r="J95" t="n">
         <v>0.002073304584784049</v>
@@ -12506,13 +12506,13 @@
         <v>0.004146609169568098</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02073773536455909</v>
+        <v>0.01036886768227954</v>
       </c>
       <c r="P95" t="n">
-        <v>0.01595210412658391</v>
+        <v>0.007976052063291956</v>
       </c>
       <c r="Q95" t="n">
-        <v>0.01435689371392552</v>
+        <v>0.00717844685696276</v>
       </c>
       <c r="R95" t="n">
         <v>0.002073304584784049</v>
@@ -12572,7 +12572,7 @@
         <v>0.007602116810874846</v>
       </c>
       <c r="AK95" t="n">
-        <v>0.0358922342848138</v>
+        <v>0.0179461171424069</v>
       </c>
       <c r="AL95" t="n">
         <v>0.01174872598044295</v>
@@ -12584,7 +12584,7 @@
         <v>0.01243982750870429</v>
       </c>
       <c r="AO95" t="n">
-        <v>0.04147547072911817</v>
+        <v>0.02073773536455908</v>
       </c>
       <c r="AP95" t="n">
         <v>0.006219913754352147</v>
@@ -12595,7 +12595,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.02176231541327264</v>
+        <v>0.01088115770663632</v>
       </c>
       <c r="C96" t="n">
         <v>0.001726800776488295</v>
@@ -12616,7 +12616,7 @@
         <v>0.002302401035317726</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0170989621104285</v>
+        <v>0.008549481055214249</v>
       </c>
       <c r="J96" t="n">
         <v>0.001726800776488295</v>
@@ -12634,13 +12634,13 @@
         <v>0.00345360155297659</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02020786431232459</v>
+        <v>0.0101039321561623</v>
       </c>
       <c r="P96" t="n">
-        <v>0.01554451100948045</v>
+        <v>0.007772255504740227</v>
       </c>
       <c r="Q96" t="n">
-        <v>0.01399005990853241</v>
+        <v>0.006995029954266204</v>
       </c>
       <c r="R96" t="n">
         <v>0.001726800776488295</v>
@@ -12700,7 +12700,7 @@
         <v>0.006331602847123747</v>
       </c>
       <c r="AK96" t="n">
-        <v>0.03497514977133102</v>
+        <v>0.01748757488566551</v>
       </c>
       <c r="AL96" t="n">
         <v>0.009785204400100337</v>
@@ -12712,7 +12712,7 @@
         <v>0.01036080465892977</v>
       </c>
       <c r="AO96" t="n">
-        <v>0.04041572862464918</v>
+        <v>0.02020786431232459</v>
       </c>
       <c r="AP96" t="n">
         <v>0.005180402329464884</v>
@@ -12723,7 +12723,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.02182184605738137</v>
+        <v>0.01091092302869068</v>
       </c>
       <c r="C97" t="n">
         <v>0.001396247955314323</v>
@@ -12744,7 +12744,7 @@
         <v>0.001861663940419097</v>
       </c>
       <c r="I97" t="n">
-        <v>0.0171457361879425</v>
+        <v>0.008572868093971252</v>
       </c>
       <c r="J97" t="n">
         <v>0.001396247955314323</v>
@@ -12762,13 +12762,13 @@
         <v>0.002792495910628646</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02026314276756842</v>
+        <v>0.01013157138378421</v>
       </c>
       <c r="P97" t="n">
-        <v>0.01558703289812955</v>
+        <v>0.007793516449064774</v>
       </c>
       <c r="Q97" t="n">
-        <v>0.01402832960831659</v>
+        <v>0.007014164804158296</v>
       </c>
       <c r="R97" t="n">
         <v>0.001396247955314323</v>
@@ -12828,7 +12828,7 @@
         <v>0.005119575836152517</v>
       </c>
       <c r="AK97" t="n">
-        <v>0.03507082402079149</v>
+        <v>0.01753541201039574</v>
       </c>
       <c r="AL97" t="n">
         <v>0.007912071746781164</v>
@@ -12840,7 +12840,7 @@
         <v>0.008377487731885937</v>
       </c>
       <c r="AO97" t="n">
-        <v>0.04052628553513683</v>
+        <v>0.02026314276756841</v>
       </c>
       <c r="AP97" t="n">
         <v>0.004188743865942968</v>
@@ -12851,7 +12851,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.02075135703064389</v>
+        <v>0.01037567851532195</v>
       </c>
       <c r="C98" t="n">
         <v>0.001139554418783425</v>
@@ -12872,7 +12872,7 @@
         <v>0.001519405891711234</v>
       </c>
       <c r="I98" t="n">
-        <v>0.01630463766693448</v>
+        <v>0.008152318833467242</v>
       </c>
       <c r="J98" t="n">
         <v>0.001139554418783425</v>
@@ -12890,13 +12890,13 @@
         <v>0.002279108837566851</v>
       </c>
       <c r="O98" t="n">
-        <v>0.01926911724274076</v>
+        <v>0.009634558621370378</v>
       </c>
       <c r="P98" t="n">
-        <v>0.01482239787903135</v>
+        <v>0.007411198939515674</v>
       </c>
       <c r="Q98" t="n">
-        <v>0.01334015809112821</v>
+        <v>0.006670079045564107</v>
       </c>
       <c r="R98" t="n">
         <v>0.001139554418783425</v>
@@ -12956,7 +12956,7 @@
         <v>0.004178366202205893</v>
       </c>
       <c r="AK98" t="n">
-        <v>0.03335039522782054</v>
+        <v>0.01667519761391027</v>
       </c>
       <c r="AL98" t="n">
         <v>0.006457475039772744</v>
@@ -12968,7 +12968,7 @@
         <v>0.006837326512700552</v>
       </c>
       <c r="AO98" t="n">
-        <v>0.03853823448548151</v>
+        <v>0.01926911724274075</v>
       </c>
       <c r="AP98" t="n">
         <v>0.003418663256350276</v>
@@ -12979,7 +12979,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.02054248580162517</v>
+        <v>0.01027124290081258</v>
       </c>
       <c r="C99" t="n">
         <v>0.0009846578084740966</v>
@@ -13000,7 +13000,7 @@
         <v>0.001312877077965462</v>
       </c>
       <c r="I99" t="n">
-        <v>0.01614052455841978</v>
+        <v>0.008070262279209888</v>
       </c>
       <c r="J99" t="n">
         <v>0.0009846578084740966</v>
@@ -13018,13 +13018,13 @@
         <v>0.001969315616948193</v>
       </c>
       <c r="O99" t="n">
-        <v>0.01907516538722337</v>
+        <v>0.009537582693611686</v>
       </c>
       <c r="P99" t="n">
-        <v>0.01467320414401798</v>
+        <v>0.007336602072008988</v>
       </c>
       <c r="Q99" t="n">
-        <v>0.01320588372961618</v>
+        <v>0.006602941864808089</v>
       </c>
       <c r="R99" t="n">
         <v>0.0009846578084740966</v>
@@ -13084,7 +13084,7 @@
         <v>0.003610411964405021</v>
       </c>
       <c r="AK99" t="n">
-        <v>0.03301470932404045</v>
+        <v>0.01650735466202023</v>
       </c>
       <c r="AL99" t="n">
         <v>0.005579727581353214</v>
@@ -13096,7 +13096,7 @@
         <v>0.00590794685084458</v>
       </c>
       <c r="AO99" t="n">
-        <v>0.03815033077444674</v>
+        <v>0.01907516538722337</v>
       </c>
       <c r="AP99" t="n">
         <v>0.00295397342542229</v>
@@ -13107,7 +13107,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.02051533800334234</v>
+        <v>0.01025766900167117</v>
       </c>
       <c r="C100" t="n">
         <v>0.0009126614319815598</v>
@@ -13128,7 +13128,7 @@
         <v>0.001216881909308747</v>
       </c>
       <c r="I100" t="n">
-        <v>0.01611919414548327</v>
+        <v>0.008059597072741636</v>
       </c>
       <c r="J100" t="n">
         <v>0.0009126614319815598</v>
@@ -13146,13 +13146,13 @@
         <v>0.00182532286396312</v>
       </c>
       <c r="O100" t="n">
-        <v>0.01904995671738932</v>
+        <v>0.009524978358694661</v>
       </c>
       <c r="P100" t="n">
-        <v>0.01465381285953024</v>
+        <v>0.007326906429765122</v>
       </c>
       <c r="Q100" t="n">
-        <v>0.01318843157357722</v>
+        <v>0.00659421578678861</v>
       </c>
       <c r="R100" t="n">
         <v>0.0009126614319815598</v>
@@ -13212,7 +13212,7 @@
         <v>0.003346425250599052</v>
       </c>
       <c r="AK100" t="n">
-        <v>0.03297107893394306</v>
+        <v>0.01648553946697153</v>
       </c>
       <c r="AL100" t="n">
         <v>0.005171748114562173</v>
@@ -13224,7 +13224,7 @@
         <v>0.005475968591889358</v>
       </c>
       <c r="AO100" t="n">
-        <v>0.03809991343477864</v>
+        <v>0.01904995671738932</v>
       </c>
       <c r="AP100" t="n">
         <v>0.002737984295944679</v>
@@ -13235,7 +13235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.02068980062595641</v>
+        <v>0.0103449003129782</v>
       </c>
       <c r="C101" t="n">
         <v>0.0009195374486868725</v>
@@ -13256,7 +13256,7 @@
         <v>0.001226049931582497</v>
       </c>
       <c r="I101" t="n">
-        <v>0.01625627192039432</v>
+        <v>0.008128135960197161</v>
       </c>
       <c r="J101" t="n">
         <v>0.0009195374486868725</v>
@@ -13274,13 +13274,13 @@
         <v>0.001839074897373745</v>
       </c>
       <c r="O101" t="n">
-        <v>0.01921195772410238</v>
+        <v>0.009605978862051192</v>
       </c>
       <c r="P101" t="n">
-        <v>0.01477842901854029</v>
+        <v>0.007389214509270146</v>
       </c>
       <c r="Q101" t="n">
-        <v>0.01330058611668626</v>
+        <v>0.006650293058343131</v>
       </c>
       <c r="R101" t="n">
         <v>0.0009195374486868725</v>
@@ -13340,7 +13340,7 @@
         <v>0.003371637311851866</v>
       </c>
       <c r="AK101" t="n">
-        <v>0.03325146529171566</v>
+        <v>0.01662573264585783</v>
       </c>
       <c r="AL101" t="n">
         <v>0.005210712209225611</v>
@@ -13352,7 +13352,7 @@
         <v>0.005517224692121235</v>
       </c>
       <c r="AO101" t="n">
-        <v>0.03842391544820476</v>
+        <v>0.01921195772410238</v>
       </c>
       <c r="AP101" t="n">
         <v>0.002758612346060617</v>
@@ -13363,7 +13363,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>0.02106464493612074</v>
+        <v>0.01053232246806037</v>
       </c>
       <c r="C102" t="n">
         <v>0.0009830811395691418</v>
@@ -13384,7 +13384,7 @@
         <v>0.001310774852758856</v>
       </c>
       <c r="I102" t="n">
-        <v>0.01655079244980915</v>
+        <v>0.008275396224904573</v>
       </c>
       <c r="J102" t="n">
         <v>0.0009830811395691418</v>
@@ -13402,13 +13402,13 @@
         <v>0.001966162279138284</v>
       </c>
       <c r="O102" t="n">
-        <v>0.01956002744068354</v>
+        <v>0.009780013720341771</v>
       </c>
       <c r="P102" t="n">
-        <v>0.01504617495437195</v>
+        <v>0.007523087477185976</v>
       </c>
       <c r="Q102" t="n">
-        <v>0.01354155745893476</v>
+        <v>0.006770778729467379</v>
       </c>
       <c r="R102" t="n">
         <v>0.0009830811395691418</v>
@@ -13468,7 +13468,7 @@
         <v>0.003604630845086853</v>
       </c>
       <c r="AK102" t="n">
-        <v>0.0338538936473369</v>
+        <v>0.01692694682366845</v>
       </c>
       <c r="AL102" t="n">
         <v>0.005570793124225137</v>
@@ -13480,7 +13480,7 @@
         <v>0.00589848683741485</v>
       </c>
       <c r="AO102" t="n">
-        <v>0.03912005488136708</v>
+        <v>0.01956002744068354</v>
       </c>
       <c r="AP102" t="n">
         <v>0.002949243418707425</v>
@@ -13491,7 +13491,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>0.02150417674211235</v>
+        <v>0.01075208837105618</v>
       </c>
       <c r="C103" t="n">
         <v>0.001092228222928164</v>
@@ -13512,7 +13512,7 @@
         <v>0.001456304297237552</v>
       </c>
       <c r="I103" t="n">
-        <v>0.01689613886880256</v>
+        <v>0.008448069434401281</v>
       </c>
       <c r="J103" t="n">
         <v>0.001092228222928164</v>
@@ -13530,13 +13530,13 @@
         <v>0.002184456445856328</v>
       </c>
       <c r="O103" t="n">
-        <v>0.01996816411767576</v>
+        <v>0.009984082058837879</v>
       </c>
       <c r="P103" t="n">
-        <v>0.01536012624436596</v>
+        <v>0.007680063122182982</v>
       </c>
       <c r="Q103" t="n">
-        <v>0.01382411361992937</v>
+        <v>0.006912056809964684</v>
       </c>
       <c r="R103" t="n">
         <v>0.001092228222928164</v>
@@ -13596,7 +13596,7 @@
         <v>0.004004836817403267</v>
       </c>
       <c r="AK103" t="n">
-        <v>0.03456028404982342</v>
+        <v>0.01728014202491171</v>
       </c>
       <c r="AL103" t="n">
         <v>0.006189293263259595</v>
@@ -13608,7 +13608,7 @@
         <v>0.006553369337568982</v>
       </c>
       <c r="AO103" t="n">
-        <v>0.03993632823535151</v>
+        <v>0.01996816411767575</v>
       </c>
       <c r="AP103" t="n">
         <v>0.003276684668784491</v>
@@ -13619,7 +13619,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>0.0221245180651409</v>
+        <v>0.01106225903257045</v>
       </c>
       <c r="C104" t="n">
         <v>0.001257883683593357</v>
@@ -13640,7 +13640,7 @@
         <v>0.001677178244791143</v>
       </c>
       <c r="I104" t="n">
-        <v>0.01738354990832499</v>
+        <v>0.008691774954162497</v>
       </c>
       <c r="J104" t="n">
         <v>0.001257883683593357</v>
@@ -13658,13 +13658,13 @@
         <v>0.002515767367186714</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02054419534620227</v>
+        <v>0.01027209767310113</v>
       </c>
       <c r="P104" t="n">
-        <v>0.01580322718938636</v>
+        <v>0.007901613594693178</v>
       </c>
       <c r="Q104" t="n">
-        <v>0.01422290447044772</v>
+        <v>0.007111452235223861</v>
       </c>
       <c r="R104" t="n">
         <v>0.001257883683593357</v>
@@ -13724,7 +13724,7 @@
         <v>0.004612240173175641</v>
       </c>
       <c r="AK104" t="n">
-        <v>0.03555726117611931</v>
+        <v>0.01777863058805965</v>
       </c>
       <c r="AL104" t="n">
         <v>0.007128007540362356</v>
@@ -13736,7 +13736,7 @@
         <v>0.007547302101560141</v>
       </c>
       <c r="AO104" t="n">
-        <v>0.04108839069240453</v>
+        <v>0.02054419534620227</v>
       </c>
       <c r="AP104" t="n">
         <v>0.003773651050780071</v>
@@ -13747,7 +13747,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>0.02294389952860543</v>
+        <v>0.01147194976430272</v>
       </c>
       <c r="C105" t="n">
         <v>0.001442797545221903</v>
@@ -13768,7 +13768,7 @@
         <v>0.001923730060295871</v>
       </c>
       <c r="I105" t="n">
-        <v>0.01802734962961855</v>
+        <v>0.009013674814809277</v>
       </c>
       <c r="J105" t="n">
         <v>0.001442797545221903</v>
@@ -13786,13 +13786,13 @@
         <v>0.002885595090443807</v>
       </c>
       <c r="O105" t="n">
-        <v>0.02130504956227647</v>
+        <v>0.01065252478113824</v>
       </c>
       <c r="P105" t="n">
-        <v>0.01638849966328959</v>
+        <v>0.008194249831644797</v>
       </c>
       <c r="Q105" t="n">
-        <v>0.01474964969696064</v>
+        <v>0.007374824848480318</v>
       </c>
       <c r="R105" t="n">
         <v>0.001442797545221903</v>
@@ -13852,7 +13852,7 @@
         <v>0.005290257665813646</v>
       </c>
       <c r="AK105" t="n">
-        <v>0.03687412424240159</v>
+        <v>0.01843706212120079</v>
       </c>
       <c r="AL105" t="n">
         <v>0.008175852756257453</v>
@@ -13864,7 +13864,7 @@
         <v>0.008656785271331421</v>
       </c>
       <c r="AO105" t="n">
-        <v>0.04261009912455294</v>
+        <v>0.02130504956227647</v>
       </c>
       <c r="AP105" t="n">
         <v>0.004328392635665711</v>
@@ -13875,7 +13875,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>0.02356346948240677</v>
+        <v>0.01178173474120338</v>
       </c>
       <c r="C106" t="n">
         <v>0.001642046581029327</v>
@@ -13896,7 +13896,7 @@
         <v>0.002189395441372435</v>
       </c>
       <c r="I106" t="n">
-        <v>0.0185141545933196</v>
+        <v>0.009257077296659802</v>
       </c>
       <c r="J106" t="n">
         <v>0.001642046581029327</v>
@@ -13914,13 +13914,13 @@
         <v>0.003284093162058653</v>
       </c>
       <c r="O106" t="n">
-        <v>0.02188036451937771</v>
+        <v>0.01094018225968886</v>
       </c>
       <c r="P106" t="n">
-        <v>0.01683104963029055</v>
+        <v>0.008415524815145273</v>
       </c>
       <c r="Q106" t="n">
-        <v>0.01514794466726149</v>
+        <v>0.007573972333630746</v>
       </c>
       <c r="R106" t="n">
         <v>0.001642046581029327</v>
@@ -13980,7 +13980,7 @@
         <v>0.006020837463774196</v>
       </c>
       <c r="AK106" t="n">
-        <v>0.03786986166815373</v>
+        <v>0.01893493083407687</v>
       </c>
       <c r="AL106" t="n">
         <v>0.00930493062583285</v>
@@ -13992,7 +13992,7 @@
         <v>0.009852279486175957</v>
       </c>
       <c r="AO106" t="n">
-        <v>0.04376072903875543</v>
+        <v>0.02188036451937771</v>
       </c>
       <c r="AP106" t="n">
         <v>0.004926139743087979</v>
@@ -14003,7 +14003,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>0.02305903962203955</v>
+        <v>0.01152951981101978</v>
       </c>
       <c r="C107" t="n">
         <v>0.00182459773107724</v>
@@ -14024,7 +14024,7 @@
         <v>0.002432796974769653</v>
       </c>
       <c r="I107" t="n">
-        <v>0.01811781684588822</v>
+        <v>0.009058908422944109</v>
       </c>
       <c r="J107" t="n">
         <v>0.00182459773107724</v>
@@ -14042,13 +14042,13 @@
         <v>0.003649195462154479</v>
       </c>
       <c r="O107" t="n">
-        <v>0.02141196536332244</v>
+        <v>0.01070598268166122</v>
       </c>
       <c r="P107" t="n">
-        <v>0.01647074258717111</v>
+        <v>0.008235371293585553</v>
       </c>
       <c r="Q107" t="n">
-        <v>0.014823668328454</v>
+        <v>0.007411834164226998</v>
       </c>
       <c r="R107" t="n">
         <v>0.00182459773107724</v>
@@ -14108,7 +14108,7 @@
         <v>0.006690191680616545</v>
       </c>
       <c r="AK107" t="n">
-        <v>0.03705917082113499</v>
+        <v>0.01852958541056749</v>
       </c>
       <c r="AL107" t="n">
         <v>0.01033938714277102</v>
@@ -14120,7 +14120,7 @@
         <v>0.01094758638646344</v>
       </c>
       <c r="AO107" t="n">
-        <v>0.04282393072664488</v>
+        <v>0.02141196536332244</v>
       </c>
       <c r="AP107" t="n">
         <v>0.005473793193231718</v>
@@ -14131,7 +14131,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>0.02239517621362145</v>
+        <v>0.01119758810681073</v>
       </c>
       <c r="C108" t="n">
         <v>0.002048608496039</v>
@@ -14152,7 +14152,7 @@
         <v>0.002731477994718667</v>
       </c>
       <c r="I108" t="n">
-        <v>0.01759620988213114</v>
+        <v>0.00879810494106557</v>
       </c>
       <c r="J108" t="n">
         <v>0.002048608496039</v>
@@ -14170,13 +14170,13 @@
         <v>0.004097216992078</v>
       </c>
       <c r="O108" t="n">
-        <v>0.02079552076979135</v>
+        <v>0.01039776038489568</v>
       </c>
       <c r="P108" t="n">
-        <v>0.01599655443830104</v>
+        <v>0.007998277219150519</v>
       </c>
       <c r="Q108" t="n">
-        <v>0.01439689899447093</v>
+        <v>0.007198449497235466</v>
       </c>
       <c r="R108" t="n">
         <v>0.002048608496039</v>
@@ -14236,7 +14236,7 @@
         <v>0.007511564485476334</v>
       </c>
       <c r="AK108" t="n">
-        <v>0.03599224748617733</v>
+        <v>0.01799612374308867</v>
       </c>
       <c r="AL108" t="n">
         <v>0.01160878147755433</v>
@@ -14248,7 +14248,7 @@
         <v>0.012291650976234</v>
       </c>
       <c r="AO108" t="n">
-        <v>0.0415910415395827</v>
+        <v>0.02079552076979135</v>
       </c>
       <c r="AP108" t="n">
         <v>0.006145825488117001</v>
@@ -14259,7 +14259,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>0.02157492156344988</v>
+        <v>0.01078746078172494</v>
       </c>
       <c r="C109" t="n">
         <v>0.002208318916110004</v>
@@ -14280,7 +14280,7 @@
         <v>0.002944425221480005</v>
       </c>
       <c r="I109" t="n">
-        <v>0.01695172408556776</v>
+        <v>0.00847586204278388</v>
       </c>
       <c r="J109" t="n">
         <v>0.002208318916110004</v>
@@ -14298,13 +14298,13 @@
         <v>0.004416637832220008</v>
       </c>
       <c r="O109" t="n">
-        <v>0.02003385573748917</v>
+        <v>0.01001692786874459</v>
       </c>
       <c r="P109" t="n">
-        <v>0.01541065825960705</v>
+        <v>0.007705329129803527</v>
       </c>
       <c r="Q109" t="n">
-        <v>0.01386959243364635</v>
+        <v>0.006934796216823174</v>
       </c>
       <c r="R109" t="n">
         <v>0.002208318916110004</v>
@@ -14364,7 +14364,7 @@
         <v>0.008097169359070015</v>
       </c>
       <c r="AK109" t="n">
-        <v>0.03467398108411587</v>
+        <v>0.01733699054205794</v>
       </c>
       <c r="AL109" t="n">
         <v>0.01251380719129002</v>
@@ -14376,7 +14376,7 @@
         <v>0.01324991349666002</v>
       </c>
       <c r="AO109" t="n">
-        <v>0.04006771147497834</v>
+        <v>0.02003385573748917</v>
       </c>
       <c r="AP109" t="n">
         <v>0.006624956748330011</v>
@@ -14387,7 +14387,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>0.02148981518294696</v>
+        <v>0.01074490759147348</v>
       </c>
       <c r="C110" t="n">
         <v>0.002256040964321504</v>
@@ -14408,7 +14408,7 @@
         <v>0.003008054619095339</v>
       </c>
       <c r="I110" t="n">
-        <v>0.01688485478660118</v>
+        <v>0.008442427393300591</v>
       </c>
       <c r="J110" t="n">
         <v>0.002256040964321504</v>
@@ -14426,13 +14426,13 @@
         <v>0.004512081928643008</v>
       </c>
       <c r="O110" t="n">
-        <v>0.01995482838416503</v>
+        <v>0.009977414192082517</v>
       </c>
       <c r="P110" t="n">
-        <v>0.01534986798781925</v>
+        <v>0.007674933993909627</v>
       </c>
       <c r="Q110" t="n">
-        <v>0.01381488118903733</v>
+        <v>0.006907440594518665</v>
       </c>
       <c r="R110" t="n">
         <v>0.002256040964321504</v>
@@ -14492,7 +14492,7 @@
         <v>0.008272150202512181</v>
       </c>
       <c r="AK110" t="n">
-        <v>0.03453720297259333</v>
+        <v>0.01726860148629666</v>
       </c>
       <c r="AL110" t="n">
         <v>0.01278423213115519</v>
@@ -14504,7 +14504,7 @@
         <v>0.01353624578592902</v>
       </c>
       <c r="AO110" t="n">
-        <v>0.03990965676833007</v>
+        <v>0.01995482838416503</v>
       </c>
       <c r="AP110" t="n">
         <v>0.006768122892964512</v>
@@ -14515,7 +14515,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>0.02161139584288539</v>
+        <v>0.01080569792144269</v>
       </c>
       <c r="C111" t="n">
         <v>0.002214792168362208</v>
@@ -14536,7 +14536,7 @@
         <v>0.002953056224482943</v>
       </c>
       <c r="I111" t="n">
-        <v>0.01698038244798137</v>
+        <v>0.008490191223990686</v>
       </c>
       <c r="J111" t="n">
         <v>0.002214792168362208</v>
@@ -14554,13 +14554,13 @@
         <v>0.004429584336724415</v>
       </c>
       <c r="O111" t="n">
-        <v>0.02006772471125072</v>
+        <v>0.01003386235562536</v>
       </c>
       <c r="P111" t="n">
-        <v>0.0154367113163467</v>
+        <v>0.007718355658173351</v>
       </c>
       <c r="Q111" t="n">
-        <v>0.01389304018471203</v>
+        <v>0.006946520092356016</v>
       </c>
       <c r="R111" t="n">
         <v>0.002214792168362208</v>
@@ -14620,7 +14620,7 @@
         <v>0.008120904617328095</v>
       </c>
       <c r="AK111" t="n">
-        <v>0.03473260046178008</v>
+        <v>0.01736630023089004</v>
       </c>
       <c r="AL111" t="n">
         <v>0.01255048895405251</v>
@@ -14632,7 +14632,7 @@
         <v>0.01328875301017324</v>
       </c>
       <c r="AO111" t="n">
-        <v>0.04013544942250143</v>
+        <v>0.02006772471125072</v>
       </c>
       <c r="AP111" t="n">
         <v>0.006644376505086622</v>
@@ -14643,7 +14643,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>0.02205672635798846</v>
+        <v>0.01102836317899423</v>
       </c>
       <c r="C112" t="n">
         <v>0.002097603154426097</v>
@@ -14664,7 +14664,7 @@
         <v>0.002796804205901463</v>
       </c>
       <c r="I112" t="n">
-        <v>0.01733028499556236</v>
+        <v>0.00866514249778118</v>
       </c>
       <c r="J112" t="n">
         <v>0.002097603154426097</v>
@@ -14682,13 +14682,13 @@
         <v>0.004195206308852195</v>
       </c>
       <c r="O112" t="n">
-        <v>0.02048124590384643</v>
+        <v>0.01024062295192321</v>
       </c>
       <c r="P112" t="n">
-        <v>0.01575480454142032</v>
+        <v>0.007877402270710161</v>
       </c>
       <c r="Q112" t="n">
-        <v>0.01417932408727829</v>
+        <v>0.007089662043639146</v>
       </c>
       <c r="R112" t="n">
         <v>0.002097603154426097</v>
@@ -14748,7 +14748,7 @@
         <v>0.007691211566229023</v>
       </c>
       <c r="AK112" t="n">
-        <v>0.03544831021819574</v>
+        <v>0.01772415510909787</v>
       </c>
       <c r="AL112" t="n">
         <v>0.01188641787508122</v>
@@ -14760,7 +14760,7 @@
         <v>0.01258561892655658</v>
       </c>
       <c r="AO112" t="n">
-        <v>0.04096249180769285</v>
+        <v>0.02048124590384642</v>
       </c>
       <c r="AP112" t="n">
         <v>0.006292809463278291</v>
@@ -14771,7 +14771,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>0.0223909511954783</v>
+        <v>0.01119547559773915</v>
       </c>
       <c r="C113" t="n">
         <v>0.002149010281686903</v>
@@ -14792,7 +14792,7 @@
         <v>0.002865347042249204</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01759289022501866</v>
+        <v>0.008796445112509332</v>
       </c>
       <c r="J113" t="n">
         <v>0.002149010281686903</v>
@@ -14810,13 +14810,13 @@
         <v>0.004298020563373806</v>
       </c>
       <c r="O113" t="n">
-        <v>0.02079159753865842</v>
+        <v>0.01039579876932921</v>
       </c>
       <c r="P113" t="n">
-        <v>0.01599353656819878</v>
+        <v>0.007996768284099391</v>
       </c>
       <c r="Q113" t="n">
-        <v>0.0143941829113789</v>
+        <v>0.007197091455689452</v>
       </c>
       <c r="R113" t="n">
         <v>0.002149010281686903</v>
@@ -14876,7 +14876,7 @@
         <v>0.007879704366185309</v>
       </c>
       <c r="AK113" t="n">
-        <v>0.03598545727844726</v>
+        <v>0.01799272863922363</v>
       </c>
       <c r="AL113" t="n">
         <v>0.01217772492955912</v>
@@ -14888,7 +14888,7 @@
         <v>0.01289406169012141</v>
       </c>
       <c r="AO113" t="n">
-        <v>0.04158319507731684</v>
+        <v>0.02079159753865842</v>
       </c>
       <c r="AP113" t="n">
         <v>0.006447030845060707</v>
@@ -14899,7 +14899,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0229392493206665</v>
+        <v>0.01146962466033325</v>
       </c>
       <c r="C114" t="n">
         <v>0.002479901133811022</v>
@@ -14920,7 +14920,7 @@
         <v>0.003306534845081362</v>
       </c>
       <c r="I114" t="n">
-        <v>0.0180236958948094</v>
+        <v>0.009011847947404698</v>
       </c>
       <c r="J114" t="n">
         <v>0.002479901133811022</v>
@@ -14938,13 +14938,13 @@
         <v>0.004959802267622044</v>
       </c>
       <c r="O114" t="n">
-        <v>0.02130073151204747</v>
+        <v>0.01065036575602374</v>
       </c>
       <c r="P114" t="n">
-        <v>0.01638517808619036</v>
+        <v>0.008192589043095179</v>
       </c>
       <c r="Q114" t="n">
-        <v>0.01474666027757132</v>
+        <v>0.007373330138785661</v>
       </c>
       <c r="R114" t="n">
         <v>0.002479901133811022</v>
@@ -15004,7 +15004,7 @@
         <v>0.009092970823973746</v>
       </c>
       <c r="AK114" t="n">
-        <v>0.0368666506939283</v>
+        <v>0.01843332534696415</v>
       </c>
       <c r="AL114" t="n">
         <v>0.01405277309159579</v>
@@ -15016,7 +15016,7 @@
         <v>0.01487940680286613</v>
       </c>
       <c r="AO114" t="n">
-        <v>0.04260146302409493</v>
+        <v>0.02130073151204747</v>
       </c>
       <c r="AP114" t="n">
         <v>0.007439703401433065</v>
@@ -15027,7 +15027,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>0.02261382762248301</v>
+        <v>0.01130691381124151</v>
       </c>
       <c r="C115" t="n">
         <v>0.002702105292347464</v>
@@ -15048,7 +15048,7 @@
         <v>0.003602807056463285</v>
       </c>
       <c r="I115" t="n">
-        <v>0.01776800741766522</v>
+        <v>0.00888400370883261</v>
       </c>
       <c r="J115" t="n">
         <v>0.002702105292347464</v>
@@ -15066,13 +15066,13 @@
         <v>0.005404210584694928</v>
       </c>
       <c r="O115" t="n">
-        <v>0.02099855422087708</v>
+        <v>0.01049927711043854</v>
       </c>
       <c r="P115" t="n">
-        <v>0.01615273401605929</v>
+        <v>0.008076367008029646</v>
       </c>
       <c r="Q115" t="n">
-        <v>0.01453746061445336</v>
+        <v>0.007268730307226682</v>
       </c>
       <c r="R115" t="n">
         <v>0.002702105292347464</v>
@@ -15132,7 +15132,7 @@
         <v>0.009907719405274034</v>
       </c>
       <c r="AK115" t="n">
-        <v>0.03634365153613341</v>
+        <v>0.0181718257680667</v>
       </c>
       <c r="AL115" t="n">
         <v>0.01531192998996896</v>
@@ -15144,7 +15144,7 @@
         <v>0.01621263175408478</v>
       </c>
       <c r="AO115" t="n">
-        <v>0.04199710844175416</v>
+        <v>0.02099855422087708</v>
       </c>
       <c r="AP115" t="n">
         <v>0.008106315877042391</v>
@@ -15155,7 +15155,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>0.02272218056271146</v>
+        <v>0.01136109028135573</v>
       </c>
       <c r="C116" t="n">
         <v>0.002796899553620705</v>
@@ -15176,7 +15176,7 @@
         <v>0.003729199404827607</v>
       </c>
       <c r="I116" t="n">
-        <v>0.01785314187070186</v>
+        <v>0.00892657093535093</v>
       </c>
       <c r="J116" t="n">
         <v>0.002796899553620705</v>
@@ -15194,13 +15194,13 @@
         <v>0.00559379910724141</v>
       </c>
       <c r="O116" t="n">
-        <v>0.02109916766537493</v>
+        <v>0.01054958383268747</v>
       </c>
       <c r="P116" t="n">
-        <v>0.01623012897336533</v>
+        <v>0.008115064486682663</v>
       </c>
       <c r="Q116" t="n">
-        <v>0.0146071160760288</v>
+        <v>0.007303558038014398</v>
       </c>
       <c r="R116" t="n">
         <v>0.002796899553620705</v>
@@ -15260,7 +15260,7 @@
         <v>0.01025529836327592</v>
       </c>
       <c r="AK116" t="n">
-        <v>0.03651779019007199</v>
+        <v>0.01825889509503599</v>
       </c>
       <c r="AL116" t="n">
         <v>0.01584909747051733</v>
@@ -15272,7 +15272,7 @@
         <v>0.01678139732172423</v>
       </c>
       <c r="AO116" t="n">
-        <v>0.04219833533074985</v>
+        <v>0.02109916766537493</v>
       </c>
       <c r="AP116" t="n">
         <v>0.008390698660862115</v>
@@ -15283,7 +15283,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>0.02131120329439474</v>
+        <v>0.01065560164719737</v>
       </c>
       <c r="C117" t="n">
         <v>0.002596014409777437</v>
@@ -15304,7 +15304,7 @@
         <v>0.003461352546369915</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0167445168741673</v>
+        <v>0.008372258437083649</v>
       </c>
       <c r="J117" t="n">
         <v>0.002596014409777437</v>
@@ -15322,13 +15322,13 @@
         <v>0.005192028819554873</v>
       </c>
       <c r="O117" t="n">
-        <v>0.01978897448765226</v>
+        <v>0.009894487243826132</v>
       </c>
       <c r="P117" t="n">
-        <v>0.01522228806742481</v>
+        <v>0.007611144033712407</v>
       </c>
       <c r="Q117" t="n">
-        <v>0.01370005926068233</v>
+        <v>0.006850029630341167</v>
       </c>
       <c r="R117" t="n">
         <v>0.002596014409777437</v>
@@ -15388,7 +15388,7 @@
         <v>0.009518719502517266</v>
       </c>
       <c r="AK117" t="n">
-        <v>0.03425014815170584</v>
+        <v>0.01712507407585292</v>
       </c>
       <c r="AL117" t="n">
         <v>0.01471074832207214</v>
@@ -15400,7 +15400,7 @@
         <v>0.01557608645866462</v>
       </c>
       <c r="AO117" t="n">
-        <v>0.03957794897530452</v>
+        <v>0.01978897448765226</v>
       </c>
       <c r="AP117" t="n">
         <v>0.007788043229332309</v>
@@ -15411,7 +15411,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>0.02123759618006416</v>
+        <v>0.01061879809003208</v>
       </c>
       <c r="C118" t="n">
         <v>0.002301390692647501</v>
@@ -15432,7 +15432,7 @@
         <v>0.003068520923530002</v>
       </c>
       <c r="I118" t="n">
-        <v>0.01668668271290755</v>
+        <v>0.008343341356453775</v>
       </c>
       <c r="J118" t="n">
         <v>0.002301390692647501</v>
@@ -15450,13 +15450,13 @@
         <v>0.004602781385295002</v>
       </c>
       <c r="O118" t="n">
-        <v>0.01972062502434529</v>
+        <v>0.009860312512172644</v>
       </c>
       <c r="P118" t="n">
-        <v>0.01516971155718868</v>
+        <v>0.007584855778594341</v>
       </c>
       <c r="Q118" t="n">
-        <v>0.01365274040146981</v>
+        <v>0.006826370200734907</v>
       </c>
       <c r="R118" t="n">
         <v>0.002301390692647501</v>
@@ -15516,7 +15516,7 @@
         <v>0.008438432539707504</v>
       </c>
       <c r="AK118" t="n">
-        <v>0.03413185100367454</v>
+        <v>0.01706592550183727</v>
       </c>
       <c r="AL118" t="n">
         <v>0.01304121392500251</v>
@@ -15528,7 +15528,7 @@
         <v>0.013808344155885</v>
       </c>
       <c r="AO118" t="n">
-        <v>0.03944125004869058</v>
+        <v>0.01972062502434529</v>
       </c>
       <c r="AP118" t="n">
         <v>0.006904172077942502</v>
@@ -15539,7 +15539,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>0.02107274716389591</v>
+        <v>0.01053637358194796</v>
       </c>
       <c r="C119" t="n">
         <v>0.001987204074627181</v>
@@ -15560,7 +15560,7 @@
         <v>0.002649605432836242</v>
       </c>
       <c r="I119" t="n">
-        <v>0.01655715848591822</v>
+        <v>0.008278579242959109</v>
       </c>
       <c r="J119" t="n">
         <v>0.001987204074627181</v>
@@ -15578,13 +15578,13 @@
         <v>0.003974408149254363</v>
       </c>
       <c r="O119" t="n">
-        <v>0.01956755093790335</v>
+        <v>0.009783775468951676</v>
       </c>
       <c r="P119" t="n">
-        <v>0.01505196225992565</v>
+        <v>0.007525981129962825</v>
       </c>
       <c r="Q119" t="n">
-        <v>0.01354676603393309</v>
+        <v>0.006773383016966544</v>
       </c>
       <c r="R119" t="n">
         <v>0.001987204074627181</v>
@@ -15644,7 +15644,7 @@
         <v>0.007286414940299664</v>
       </c>
       <c r="AK119" t="n">
-        <v>0.03386691508483271</v>
+        <v>0.01693345754241636</v>
       </c>
       <c r="AL119" t="n">
         <v>0.01126082308955403</v>
@@ -15656,7 +15656,7 @@
         <v>0.01192322444776309</v>
       </c>
       <c r="AO119" t="n">
-        <v>0.0391351018758067</v>
+        <v>0.01956755093790335</v>
       </c>
       <c r="AP119" t="n">
         <v>0.005961612223881543</v>
@@ -15667,7 +15667,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>0.0215620815647031</v>
+        <v>0.01078104078235155</v>
       </c>
       <c r="C120" t="n">
         <v>0.001699344064883902</v>
@@ -15688,7 +15688,7 @@
         <v>0.00226579208651187</v>
       </c>
       <c r="I120" t="n">
-        <v>0.01694163551512387</v>
+        <v>0.008470817757561934</v>
       </c>
       <c r="J120" t="n">
         <v>0.001699344064883902</v>
@@ -15706,13 +15706,13 @@
         <v>0.003398688129767804</v>
       </c>
       <c r="O120" t="n">
-        <v>0.02002193288151003</v>
+        <v>0.01001096644075501</v>
       </c>
       <c r="P120" t="n">
-        <v>0.01540148683193079</v>
+        <v>0.007700743415965393</v>
       </c>
       <c r="Q120" t="n">
-        <v>0.01386133814873771</v>
+        <v>0.006930669074368854</v>
       </c>
       <c r="R120" t="n">
         <v>0.001699344064883902</v>
@@ -15772,7 +15772,7 @@
         <v>0.006230928237907641</v>
       </c>
       <c r="AK120" t="n">
-        <v>0.03465334537184427</v>
+        <v>0.01732667268592214</v>
       </c>
       <c r="AL120" t="n">
         <v>0.009629616367675446</v>
@@ -15784,7 +15784,7 @@
         <v>0.01019606438930341</v>
       </c>
       <c r="AO120" t="n">
-        <v>0.04004386576302005</v>
+        <v>0.02002193288151002</v>
       </c>
       <c r="AP120" t="n">
         <v>0.005098032194651706</v>
@@ -15795,7 +15795,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>0.02129008675634731</v>
+        <v>0.01064504337817366</v>
       </c>
       <c r="C121" t="n">
         <v>0.001402485681542311</v>
@@ -15816,7 +15816,7 @@
         <v>0.001869980908723081</v>
       </c>
       <c r="I121" t="n">
-        <v>0.0167279253085586</v>
+        <v>0.0083639626542793</v>
       </c>
       <c r="J121" t="n">
         <v>0.001402485681542311</v>
@@ -15834,13 +15834,13 @@
         <v>0.002804971363084621</v>
       </c>
       <c r="O121" t="n">
-        <v>0.01976936627375108</v>
+        <v>0.009884683136875539</v>
       </c>
       <c r="P121" t="n">
-        <v>0.01520720482596236</v>
+        <v>0.007603602412981181</v>
       </c>
       <c r="Q121" t="n">
-        <v>0.01368648434336613</v>
+        <v>0.006843242171683064</v>
       </c>
       <c r="R121" t="n">
         <v>0.001402485681542311</v>
@@ -15900,7 +15900,7 @@
         <v>0.005142447498988472</v>
       </c>
       <c r="AK121" t="n">
-        <v>0.03421621085841532</v>
+        <v>0.01710810542920766</v>
       </c>
       <c r="AL121" t="n">
         <v>0.007947418862073093</v>
@@ -15912,7 +15912,7 @@
         <v>0.008414914089253862</v>
       </c>
       <c r="AO121" t="n">
-        <v>0.03953873254750215</v>
+        <v>0.01976936627375107</v>
       </c>
       <c r="AP121" t="n">
         <v>0.004207457044626931</v>
@@ -15923,7 +15923,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>0.022088838369318</v>
+        <v>0.011044419184659</v>
       </c>
       <c r="C122" t="n">
         <v>0.001190841687343178</v>
@@ -15944,7 +15944,7 @@
         <v>0.00158778891645757</v>
       </c>
       <c r="I122" t="n">
-        <v>0.017355515861607</v>
+        <v>0.008677757930803501</v>
       </c>
       <c r="J122" t="n">
         <v>0.001190841687343178</v>
@@ -15962,13 +15962,13 @@
         <v>0.002381683374686355</v>
       </c>
       <c r="O122" t="n">
-        <v>0.020511064200081</v>
+        <v>0.0102555321000405</v>
       </c>
       <c r="P122" t="n">
-        <v>0.01577774169237</v>
+        <v>0.007888870846185</v>
       </c>
       <c r="Q122" t="n">
-        <v>0.014199967523133</v>
+        <v>0.007099983761566501</v>
       </c>
       <c r="R122" t="n">
         <v>0.001190841687343178</v>
@@ -16028,7 +16028,7 @@
         <v>0.004366419520258317</v>
       </c>
       <c r="AK122" t="n">
-        <v>0.0354999188078325</v>
+        <v>0.01774995940391625</v>
       </c>
       <c r="AL122" t="n">
         <v>0.006748102894944673</v>
@@ -16040,7 +16040,7 @@
         <v>0.007145050124059064</v>
       </c>
       <c r="AO122" t="n">
-        <v>0.04102212840016201</v>
+        <v>0.020511064200081</v>
       </c>
       <c r="AP122" t="n">
         <v>0.003572525062029532</v>
@@ -16051,7 +16051,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>0.02160589688443457</v>
+        <v>0.01080294844221729</v>
       </c>
       <c r="C123" t="n">
         <v>0.0009891369943120958</v>
@@ -16072,7 +16072,7 @@
         <v>0.001318849325749461</v>
       </c>
       <c r="I123" t="n">
-        <v>0.01697606183777002</v>
+        <v>0.00848803091888501</v>
       </c>
       <c r="J123" t="n">
         <v>0.0009891369943120958</v>
@@ -16090,13 +16090,13 @@
         <v>0.001978273988624192</v>
       </c>
       <c r="O123" t="n">
-        <v>0.02006261853554639</v>
+        <v>0.0100313092677732</v>
       </c>
       <c r="P123" t="n">
-        <v>0.01543278348888184</v>
+        <v>0.007716391744440918</v>
       </c>
       <c r="Q123" t="n">
-        <v>0.01388950513999365</v>
+        <v>0.006944752569996827</v>
       </c>
       <c r="R123" t="n">
         <v>0.0009891369943120958</v>
@@ -16156,7 +16156,7 @@
         <v>0.003626835645811018</v>
       </c>
       <c r="AK123" t="n">
-        <v>0.03472376284998414</v>
+        <v>0.01736188142499207</v>
       </c>
       <c r="AL123" t="n">
         <v>0.005605109634435211</v>
@@ -16168,7 +16168,7 @@
         <v>0.005934821965872574</v>
       </c>
       <c r="AO123" t="n">
-        <v>0.04012523707109278</v>
+        <v>0.02006261853554639</v>
       </c>
       <c r="AP123" t="n">
         <v>0.002967410982936287</v>
@@ -16179,7 +16179,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>0.02154484508717714</v>
+        <v>0.01077242254358857</v>
       </c>
       <c r="C124" t="n">
         <v>0.0009346565330860099</v>
@@ -16200,7 +16200,7 @@
         <v>0.001246208710781346</v>
       </c>
       <c r="I124" t="n">
-        <v>0.01692809256849633</v>
+        <v>0.008464046284248164</v>
       </c>
       <c r="J124" t="n">
         <v>0.0009346565330860099</v>
@@ -16218,13 +16218,13 @@
         <v>0.00186931306617202</v>
       </c>
       <c r="O124" t="n">
-        <v>0.02000592758095021</v>
+        <v>0.0100029637904751</v>
       </c>
       <c r="P124" t="n">
-        <v>0.01538917506226939</v>
+        <v>0.007694587531134694</v>
       </c>
       <c r="Q124" t="n">
-        <v>0.01385025755604245</v>
+        <v>0.006925128778021225</v>
       </c>
       <c r="R124" t="n">
         <v>0.0009346565330860099</v>
@@ -16284,7 +16284,7 @@
         <v>0.003427073954648703</v>
       </c>
       <c r="AK124" t="n">
-        <v>0.03462564389010613</v>
+        <v>0.01731282194505306</v>
       </c>
       <c r="AL124" t="n">
         <v>0.005296387020820722</v>
@@ -16296,7 +16296,7 @@
         <v>0.005607939198516059</v>
       </c>
       <c r="AO124" t="n">
-        <v>0.04001185516190041</v>
+        <v>0.0200059275809502</v>
       </c>
       <c r="AP124" t="n">
         <v>0.002803969599258029</v>
@@ -16307,7 +16307,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>0.0217067935269799</v>
+        <v>0.01085339676348995</v>
       </c>
       <c r="C125" t="n">
         <v>0.0009322811003058169</v>
@@ -16328,7 +16328,7 @@
         <v>0.001243041467074423</v>
       </c>
       <c r="I125" t="n">
-        <v>0.01705533777119849</v>
+        <v>0.008527668885599245</v>
       </c>
       <c r="J125" t="n">
         <v>0.0009322811003058169</v>
@@ -16346,13 +16346,13 @@
         <v>0.001864562200611634</v>
       </c>
       <c r="O125" t="n">
-        <v>0.02015630827505277</v>
+        <v>0.01007815413752638</v>
       </c>
       <c r="P125" t="n">
-        <v>0.01550485251927135</v>
+        <v>0.007752426259635677</v>
       </c>
       <c r="Q125" t="n">
-        <v>0.01395436726734422</v>
+        <v>0.00697718363367211</v>
       </c>
       <c r="R125" t="n">
         <v>0.0009322811003058169</v>
@@ -16412,7 +16412,7 @@
         <v>0.003418364034454662</v>
       </c>
       <c r="AK125" t="n">
-        <v>0.03488591816836055</v>
+        <v>0.01744295908418027</v>
       </c>
       <c r="AL125" t="n">
         <v>0.005282926235066297</v>
@@ -16424,7 +16424,7 @@
         <v>0.005593686601834901</v>
       </c>
       <c r="AO125" t="n">
-        <v>0.04031261655010553</v>
+        <v>0.02015630827505276</v>
       </c>
       <c r="AP125" t="n">
         <v>0.00279684330091745</v>
@@ -16435,7 +16435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>0.02216827188711455</v>
+        <v>0.01108413594355728</v>
       </c>
       <c r="C126" t="n">
         <v>0.0009681815019901527</v>
@@ -16456,7 +16456,7 @@
         <v>0.001290908669320204</v>
       </c>
       <c r="I126" t="n">
-        <v>0.01741792791130429</v>
+        <v>0.008708963955652144</v>
       </c>
       <c r="J126" t="n">
         <v>0.0009681815019901527</v>
@@ -16474,13 +16474,13 @@
         <v>0.001936363003980305</v>
       </c>
       <c r="O126" t="n">
-        <v>0.0205848238951778</v>
+        <v>0.0102924119475889</v>
       </c>
       <c r="P126" t="n">
-        <v>0.01583447991936754</v>
+        <v>0.007917239959683768</v>
       </c>
       <c r="Q126" t="n">
-        <v>0.01425103192743078</v>
+        <v>0.007125515963715391</v>
       </c>
       <c r="R126" t="n">
         <v>0.0009681815019901527</v>
@@ -16540,7 +16540,7 @@
         <v>0.00354999884063056</v>
       </c>
       <c r="AK126" t="n">
-        <v>0.03562757981857696</v>
+        <v>0.01781378990928848</v>
       </c>
       <c r="AL126" t="n">
         <v>0.005486361844610866</v>
@@ -16552,7 +16552,7 @@
         <v>0.005809089011940916</v>
       </c>
       <c r="AO126" t="n">
-        <v>0.04116964779035559</v>
+        <v>0.0205848238951778</v>
       </c>
       <c r="AP126" t="n">
         <v>0.002904544505970458</v>
@@ -16563,7 +16563,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>0.02263813430580857</v>
+        <v>0.01131906715290428</v>
       </c>
       <c r="C127" t="n">
         <v>0.001044966588998991</v>
@@ -16584,7 +16584,7 @@
         <v>0.001393288785331988</v>
       </c>
       <c r="I127" t="n">
-        <v>0.01778710552599245</v>
+        <v>0.008893552762996223</v>
       </c>
       <c r="J127" t="n">
         <v>0.001044966588998991</v>
@@ -16602,13 +16602,13 @@
         <v>0.002089933177997982</v>
       </c>
       <c r="O127" t="n">
-        <v>0.02102112471253653</v>
+        <v>0.01051056235626826</v>
       </c>
       <c r="P127" t="n">
-        <v>0.0161700959327204</v>
+        <v>0.008085047966360202</v>
       </c>
       <c r="Q127" t="n">
-        <v>0.01455308633944836</v>
+        <v>0.007276543169724182</v>
       </c>
       <c r="R127" t="n">
         <v>0.001044966588998991</v>
@@ -16668,7 +16668,7 @@
         <v>0.003831544159662966</v>
       </c>
       <c r="AK127" t="n">
-        <v>0.03638271584862091</v>
+        <v>0.01819135792431046</v>
       </c>
       <c r="AL127" t="n">
         <v>0.005921477337660948</v>
@@ -16680,7 +16680,7 @@
         <v>0.006269799533993944</v>
       </c>
       <c r="AO127" t="n">
-        <v>0.04204224942507305</v>
+        <v>0.02102112471253652</v>
       </c>
       <c r="AP127" t="n">
         <v>0.003134899766996972</v>
@@ -16691,7 +16691,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>0.02413504959980349</v>
+        <v>0.01206752479990175</v>
       </c>
       <c r="C128" t="n">
         <v>0.001145110788739047</v>
@@ -16712,7 +16712,7 @@
         <v>0.001526814384985396</v>
       </c>
       <c r="I128" t="n">
-        <v>0.01896325325698846</v>
+        <v>0.009481626628494229</v>
       </c>
       <c r="J128" t="n">
         <v>0.001145110788739047</v>
@@ -16730,13 +16730,13 @@
         <v>0.002290221577478094</v>
       </c>
       <c r="O128" t="n">
-        <v>0.02241111748553181</v>
+        <v>0.01120555874276591</v>
       </c>
       <c r="P128" t="n">
-        <v>0.01723932114271678</v>
+        <v>0.008619660571358389</v>
       </c>
       <c r="Q128" t="n">
-        <v>0.0155153890284451</v>
+        <v>0.00775769451422255</v>
       </c>
       <c r="R128" t="n">
         <v>0.001145110788739047</v>
@@ -16796,7 +16796,7 @@
         <v>0.004198739558709839</v>
       </c>
       <c r="AK128" t="n">
-        <v>0.03878847257111275</v>
+        <v>0.01939423628555638</v>
       </c>
       <c r="AL128" t="n">
         <v>0.006488961136187933</v>
@@ -16808,7 +16808,7 @@
         <v>0.006870664732434281</v>
       </c>
       <c r="AO128" t="n">
-        <v>0.04482223497106362</v>
+        <v>0.02241111748553181</v>
       </c>
       <c r="AP128" t="n">
         <v>0.003435332366217141</v>
@@ -16819,7 +16819,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>0.02539988375934688</v>
+        <v>0.01269994187967344</v>
       </c>
       <c r="C129" t="n">
         <v>0.001420948970766716</v>
@@ -16840,7 +16840,7 @@
         <v>0.001894598627688955</v>
       </c>
       <c r="I129" t="n">
-        <v>0.01995705152520112</v>
+        <v>0.009978525762600559</v>
       </c>
       <c r="J129" t="n">
         <v>0.001420948970766716</v>
@@ -16858,13 +16858,13 @@
         <v>0.002841897941533432</v>
       </c>
       <c r="O129" t="n">
-        <v>0.02358560634796496</v>
+        <v>0.01179280317398248</v>
       </c>
       <c r="P129" t="n">
-        <v>0.0181427741138192</v>
+        <v>0.009071387056909599</v>
       </c>
       <c r="Q129" t="n">
-        <v>0.01632849670243728</v>
+        <v>0.00816424835121864</v>
       </c>
       <c r="R129" t="n">
         <v>0.001420948970766716</v>
@@ -16924,7 +16924,7 @@
         <v>0.005210146226144624</v>
       </c>
       <c r="AK129" t="n">
-        <v>0.0408212417560932</v>
+        <v>0.0204106208780466</v>
       </c>
       <c r="AL129" t="n">
         <v>0.008052044167678058</v>
@@ -16936,7 +16936,7 @@
         <v>0.008525693824600295</v>
       </c>
       <c r="AO129" t="n">
-        <v>0.04717121269592991</v>
+        <v>0.02358560634796496</v>
       </c>
       <c r="AP129" t="n">
         <v>0.004262846912300148</v>
@@ -16947,7 +16947,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>0.02583499220674464</v>
+        <v>0.01291749610337232</v>
       </c>
       <c r="C130" t="n">
         <v>0.001777864897069645</v>
@@ -16968,7 +16968,7 @@
         <v>0.002370486529426193</v>
       </c>
       <c r="I130" t="n">
-        <v>0.0202989224481565</v>
+        <v>0.01014946122407825</v>
       </c>
       <c r="J130" t="n">
         <v>0.001777864897069645</v>
@@ -16986,13 +16986,13 @@
         <v>0.00355572979413929</v>
       </c>
       <c r="O130" t="n">
-        <v>0.0239896356205486</v>
+        <v>0.0119948178102743</v>
       </c>
       <c r="P130" t="n">
-        <v>0.01845356586196045</v>
+        <v>0.009226782930980226</v>
       </c>
       <c r="Q130" t="n">
-        <v>0.01660820927576441</v>
+        <v>0.008304104637882205</v>
       </c>
       <c r="R130" t="n">
         <v>0.001777864897069645</v>
@@ -17052,7 +17052,7 @@
         <v>0.006518837955922031</v>
       </c>
       <c r="AK130" t="n">
-        <v>0.04152052318941103</v>
+        <v>0.02076026159470551</v>
       </c>
       <c r="AL130" t="n">
         <v>0.01007456775006132</v>
@@ -17064,7 +17064,7 @@
         <v>0.01066718938241787</v>
       </c>
       <c r="AO130" t="n">
-        <v>0.04797927124109719</v>
+        <v>0.02398963562054859</v>
       </c>
       <c r="AP130" t="n">
         <v>0.005333594691208934</v>
@@ -17075,7 +17075,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>0.02581664103144947</v>
+        <v>0.01290832051572474</v>
       </c>
       <c r="C131" t="n">
         <v>0.002176228844592025</v>
@@ -17096,7 +17096,7 @@
         <v>0.002901638459456034</v>
       </c>
       <c r="I131" t="n">
-        <v>0.02028450366756744</v>
+        <v>0.01014225183378372</v>
       </c>
       <c r="J131" t="n">
         <v>0.002176228844592025</v>
@@ -17114,13 +17114,13 @@
         <v>0.004352457689184051</v>
       </c>
       <c r="O131" t="n">
-        <v>0.0239725952434888</v>
+        <v>0.0119862976217444</v>
       </c>
       <c r="P131" t="n">
-        <v>0.01844045787960676</v>
+        <v>0.009220228939803381</v>
       </c>
       <c r="Q131" t="n">
-        <v>0.01659641209164609</v>
+        <v>0.008298206045823044</v>
       </c>
       <c r="R131" t="n">
         <v>0.002176228844592025</v>
@@ -17180,7 +17180,7 @@
         <v>0.007979505763504093</v>
       </c>
       <c r="AK131" t="n">
-        <v>0.04149103022911522</v>
+        <v>0.02074551511455761</v>
       </c>
       <c r="AL131" t="n">
         <v>0.01233196345268815</v>
@@ -17192,7 +17192,7 @@
         <v>0.01305737306755215</v>
       </c>
       <c r="AO131" t="n">
-        <v>0.04794519048697759</v>
+        <v>0.02397259524348879</v>
       </c>
       <c r="AP131" t="n">
         <v>0.006528686533776076</v>
@@ -17203,7 +17203,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>0.02531366919739346</v>
+        <v>0.01265683459869673</v>
       </c>
       <c r="C132" t="n">
         <v>0.00245758270834551</v>
@@ -17224,7 +17224,7 @@
         <v>0.00327677694446068</v>
       </c>
       <c r="I132" t="n">
-        <v>0.01988931151223772</v>
+        <v>0.00994465575611886</v>
       </c>
       <c r="J132" t="n">
         <v>0.00245758270834551</v>
@@ -17242,13 +17242,13 @@
         <v>0.00491516541669102</v>
       </c>
       <c r="O132" t="n">
-        <v>0.02350554996900822</v>
+        <v>0.01175277498450411</v>
       </c>
       <c r="P132" t="n">
-        <v>0.01808119228385247</v>
+        <v>0.009040596141926236</v>
       </c>
       <c r="Q132" t="n">
-        <v>0.01627307305546723</v>
+        <v>0.008136536527733614</v>
       </c>
       <c r="R132" t="n">
         <v>0.00245758270834551</v>
@@ -17308,7 +17308,7 @@
         <v>0.009011136597266871</v>
       </c>
       <c r="AK132" t="n">
-        <v>0.04068268263866807</v>
+        <v>0.02034134131933403</v>
       </c>
       <c r="AL132" t="n">
         <v>0.01392630201395789</v>
@@ -17320,7 +17320,7 @@
         <v>0.01474549625007306</v>
       </c>
       <c r="AO132" t="n">
-        <v>0.04701109993801643</v>
+        <v>0.02350554996900821</v>
       </c>
       <c r="AP132" t="n">
         <v>0.00737274812503653</v>
@@ -17331,7 +17331,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>0.02542098604294714</v>
+        <v>0.01271049302147357</v>
       </c>
       <c r="C133" t="n">
         <v>0.002640046966962906</v>
@@ -17352,7 +17352,7 @@
         <v>0.003520062622617207</v>
       </c>
       <c r="I133" t="n">
-        <v>0.01997363189088704</v>
+        <v>0.009986815945443518</v>
       </c>
       <c r="J133" t="n">
         <v>0.002640046966962906</v>
@@ -17370,13 +17370,13 @@
         <v>0.005280093933925811</v>
       </c>
       <c r="O133" t="n">
-        <v>0.02360520132559377</v>
+        <v>0.01180260066279689</v>
       </c>
       <c r="P133" t="n">
-        <v>0.01815784717353367</v>
+        <v>0.009078923586766834</v>
       </c>
       <c r="Q133" t="n">
-        <v>0.0163420624561803</v>
+        <v>0.008171031228090151</v>
       </c>
       <c r="R133" t="n">
         <v>0.002640046966962906</v>
@@ -17436,7 +17436,7 @@
         <v>0.00968017221219732</v>
       </c>
       <c r="AK133" t="n">
-        <v>0.04085515614045076</v>
+        <v>0.02042757807022538</v>
       </c>
       <c r="AL133" t="n">
         <v>0.01496026614612313</v>
@@ -17448,7 +17448,7 @@
         <v>0.01584028180177743</v>
       </c>
       <c r="AO133" t="n">
-        <v>0.04721040265118754</v>
+        <v>0.02360520132559377</v>
       </c>
       <c r="AP133" t="n">
         <v>0.007920140900888715</v>
@@ -17459,7 +17459,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>0.02487147791882861</v>
+        <v>0.0124357389594143</v>
       </c>
       <c r="C134" t="n">
         <v>0.00267648768873027</v>
@@ -17480,7 +17480,7 @@
         <v>0.00356865025164036</v>
       </c>
       <c r="I134" t="n">
-        <v>0.01954187550765105</v>
+        <v>0.009770937753825523</v>
       </c>
       <c r="J134" t="n">
         <v>0.00267648768873027</v>
@@ -17498,13 +17498,13 @@
         <v>0.00535297537746054</v>
       </c>
       <c r="O134" t="n">
-        <v>0.02309494378176942</v>
+        <v>0.01154747189088471</v>
       </c>
       <c r="P134" t="n">
-        <v>0.01776534137059186</v>
+        <v>0.008882670685295928</v>
       </c>
       <c r="Q134" t="n">
-        <v>0.01598880723353267</v>
+        <v>0.007994403616766337</v>
       </c>
       <c r="R134" t="n">
         <v>0.00267648768873027</v>
@@ -17564,7 +17564,7 @@
         <v>0.009813788192010989</v>
       </c>
       <c r="AK134" t="n">
-        <v>0.03997201808383168</v>
+        <v>0.01998600904191584</v>
       </c>
       <c r="AL134" t="n">
         <v>0.01516676356947153</v>
@@ -17576,7 +17576,7 @@
         <v>0.01605892613238162</v>
       </c>
       <c r="AO134" t="n">
-        <v>0.04618988756353883</v>
+        <v>0.02309494378176942</v>
       </c>
       <c r="AP134" t="n">
         <v>0.008029463066190809</v>
@@ -17587,7 +17587,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>0.02515969347353154</v>
+        <v>0.01257984673676577</v>
       </c>
       <c r="C135" t="n">
         <v>0.002602406334591994</v>
@@ -17608,7 +17608,7 @@
         <v>0.003469875112789325</v>
       </c>
       <c r="I135" t="n">
-        <v>0.01976833058634621</v>
+        <v>0.009884165293173106</v>
       </c>
       <c r="J135" t="n">
         <v>0.002602406334591994</v>
@@ -17626,13 +17626,13 @@
         <v>0.005204812669183987</v>
       </c>
       <c r="O135" t="n">
-        <v>0.02336257251113644</v>
+        <v>0.01168128625556822</v>
       </c>
       <c r="P135" t="n">
-        <v>0.0179712096239511</v>
+        <v>0.00898560481197555</v>
       </c>
       <c r="Q135" t="n">
-        <v>0.01617408866155599</v>
+        <v>0.008087044330777995</v>
       </c>
       <c r="R135" t="n">
         <v>0.002602406334591994</v>
@@ -17692,7 +17692,7 @@
         <v>0.009542156560170644</v>
       </c>
       <c r="AK135" t="n">
-        <v>0.04043522165388998</v>
+        <v>0.02021761082694499</v>
       </c>
       <c r="AL135" t="n">
         <v>0.01474696922935463</v>
@@ -17704,7 +17704,7 @@
         <v>0.01561443800755196</v>
       </c>
       <c r="AO135" t="n">
-        <v>0.04672514502227287</v>
+        <v>0.02336257251113643</v>
       </c>
       <c r="AP135" t="n">
         <v>0.007807219003775981</v>
@@ -17715,7 +17715,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>0.02515837839896202</v>
+        <v>0.01257918919948101</v>
       </c>
       <c r="C136" t="n">
         <v>0.002435061675104354</v>
@@ -17736,7 +17736,7 @@
         <v>0.003246748900139139</v>
       </c>
       <c r="I136" t="n">
-        <v>0.01976729731347016</v>
+        <v>0.009883648656735078</v>
       </c>
       <c r="J136" t="n">
         <v>0.002435061675104354</v>
@@ -17754,13 +17754,13 @@
         <v>0.004870123350208709</v>
       </c>
       <c r="O136" t="n">
-        <v>0.02336135137046473</v>
+        <v>0.01168067568523237</v>
       </c>
       <c r="P136" t="n">
-        <v>0.01797027028497287</v>
+        <v>0.008985135142486434</v>
       </c>
       <c r="Q136" t="n">
-        <v>0.01617324325647558</v>
+        <v>0.008086621628237792</v>
       </c>
       <c r="R136" t="n">
         <v>0.002435061675104354</v>
@@ -17820,7 +17820,7 @@
         <v>0.008928559475382632</v>
       </c>
       <c r="AK136" t="n">
-        <v>0.04043310814118896</v>
+        <v>0.02021655407059448</v>
       </c>
       <c r="AL136" t="n">
         <v>0.01379868282559134</v>
@@ -17832,7 +17832,7 @@
         <v>0.01461037005062612</v>
       </c>
       <c r="AO136" t="n">
-        <v>0.04672270274092946</v>
+        <v>0.02336135137046473</v>
       </c>
       <c r="AP136" t="n">
         <v>0.007305185025313062</v>
@@ -17843,7 +17843,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>0.0258182827364943</v>
+        <v>0.01290914136824715</v>
       </c>
       <c r="C137" t="n">
         <v>0.002397927439617645</v>
@@ -17864,7 +17864,7 @@
         <v>0.00319723658615686</v>
       </c>
       <c r="I137" t="n">
-        <v>0.02028579357867409</v>
+        <v>0.01014289678933704</v>
       </c>
       <c r="J137" t="n">
         <v>0.002397927439617645</v>
@@ -17882,13 +17882,13 @@
         <v>0.00479585487923529</v>
       </c>
       <c r="O137" t="n">
-        <v>0.02397411968388756</v>
+        <v>0.01198705984194378</v>
       </c>
       <c r="P137" t="n">
-        <v>0.01844163052606735</v>
+        <v>0.009220815263033675</v>
       </c>
       <c r="Q137" t="n">
-        <v>0.01659746747346062</v>
+        <v>0.00829873373673031</v>
       </c>
       <c r="R137" t="n">
         <v>0.002397927439617645</v>
@@ -17948,7 +17948,7 @@
         <v>0.008792400611931366</v>
       </c>
       <c r="AK137" t="n">
-        <v>0.04149366868365154</v>
+        <v>0.02074683434182577</v>
       </c>
       <c r="AL137" t="n">
         <v>0.01358825549116666</v>
@@ -17960,7 +17960,7 @@
         <v>0.01438756463770587</v>
       </c>
       <c r="AO137" t="n">
-        <v>0.04794823936777512</v>
+        <v>0.02397411968388756</v>
       </c>
       <c r="AP137" t="n">
         <v>0.007193782318852935</v>
@@ -17971,7 +17971,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>0.02550588593760096</v>
+        <v>0.01275294296880048</v>
       </c>
       <c r="C138" t="n">
         <v>0.002710453830796018</v>
@@ -17992,7 +17992,7 @@
         <v>0.003613938441061358</v>
       </c>
       <c r="I138" t="n">
-        <v>0.02004033895097218</v>
+        <v>0.01002016947548609</v>
       </c>
       <c r="J138" t="n">
         <v>0.002710453830796018</v>
@@ -18010,13 +18010,13 @@
         <v>0.005420907661592036</v>
       </c>
       <c r="O138" t="n">
-        <v>0.02368403694205803</v>
+        <v>0.01184201847102902</v>
       </c>
       <c r="P138" t="n">
-        <v>0.01821848995542925</v>
+        <v>0.009109244977714627</v>
       </c>
       <c r="Q138" t="n">
-        <v>0.01639664095988633</v>
+        <v>0.008198320479943164</v>
       </c>
       <c r="R138" t="n">
         <v>0.002710453830796018</v>
@@ -18076,7 +18076,7 @@
         <v>0.009938330712918733</v>
       </c>
       <c r="AK138" t="n">
-        <v>0.04099160239971582</v>
+        <v>0.02049580119985791</v>
       </c>
       <c r="AL138" t="n">
         <v>0.01535923837451077</v>
@@ -18088,7 +18088,7 @@
         <v>0.01626272298477611</v>
       </c>
       <c r="AO138" t="n">
-        <v>0.04736807388411606</v>
+        <v>0.02368403694205803</v>
       </c>
       <c r="AP138" t="n">
         <v>0.008131361492388054</v>
@@ -18099,7 +18099,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>0.02542565702165196</v>
+        <v>0.01271282851082598</v>
       </c>
       <c r="C139" t="n">
         <v>0.002921667363132598</v>
@@ -18120,7 +18120,7 @@
         <v>0.003895556484176796</v>
       </c>
       <c r="I139" t="n">
-        <v>0.01997730194558368</v>
+        <v>0.009988650972791838</v>
       </c>
       <c r="J139" t="n">
         <v>0.002921667363132598</v>
@@ -18138,13 +18138,13 @@
         <v>0.005843334726265195</v>
       </c>
       <c r="O139" t="n">
-        <v>0.02360953866296253</v>
+        <v>0.01180476933148127</v>
       </c>
       <c r="P139" t="n">
-        <v>0.01816118358689425</v>
+        <v>0.009080591793447126</v>
       </c>
       <c r="Q139" t="n">
-        <v>0.01634506522820483</v>
+        <v>0.008172532614102414</v>
       </c>
       <c r="R139" t="n">
         <v>0.002921667363132598</v>
@@ -18204,7 +18204,7 @@
         <v>0.01071278033148619</v>
       </c>
       <c r="AK139" t="n">
-        <v>0.04086266307051207</v>
+        <v>0.02043133153525603</v>
       </c>
       <c r="AL139" t="n">
         <v>0.01655611505775139</v>
@@ -18216,7 +18216,7 @@
         <v>0.01753000417879558</v>
       </c>
       <c r="AO139" t="n">
-        <v>0.04721907732592506</v>
+        <v>0.02360953866296253</v>
       </c>
       <c r="AP139" t="n">
         <v>0.008765002089397792</v>
@@ -18227,7 +18227,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>0.02606818192991659</v>
+        <v>0.01303409096495829</v>
       </c>
       <c r="C140" t="n">
         <v>0.002934484204543227</v>
@@ -18248,7 +18248,7 @@
         <v>0.003912645606057637</v>
       </c>
       <c r="I140" t="n">
-        <v>0.02048214294493446</v>
+        <v>0.01024107147246723</v>
       </c>
       <c r="J140" t="n">
         <v>0.002934484204543227</v>
@@ -18266,13 +18266,13 @@
         <v>0.005868968409086454</v>
       </c>
       <c r="O140" t="n">
-        <v>0.02420616893492255</v>
+        <v>0.01210308446746127</v>
       </c>
       <c r="P140" t="n">
-        <v>0.01862012994994042</v>
+        <v>0.009310064974970209</v>
       </c>
       <c r="Q140" t="n">
-        <v>0.01675811695494638</v>
+        <v>0.008379058477473188</v>
       </c>
       <c r="R140" t="n">
         <v>0.002934484204543227</v>
@@ -18332,7 +18332,7 @@
         <v>0.0107597754166585</v>
       </c>
       <c r="AK140" t="n">
-        <v>0.04189529238736594</v>
+        <v>0.02094764619368297</v>
       </c>
       <c r="AL140" t="n">
         <v>0.01662874382574496</v>
@@ -18344,7 +18344,7 @@
         <v>0.01760690522725936</v>
       </c>
       <c r="AO140" t="n">
-        <v>0.04841233786984508</v>
+        <v>0.02420616893492254</v>
       </c>
       <c r="AP140" t="n">
         <v>0.008803452613629682</v>
@@ -18355,7 +18355,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>0.02557211454280301</v>
+        <v>0.01278605727140151</v>
       </c>
       <c r="C141" t="n">
         <v>0.002753942342229223</v>
@@ -18376,7 +18376,7 @@
         <v>0.003671923122972298</v>
       </c>
       <c r="I141" t="n">
-        <v>0.02009237571220236</v>
+        <v>0.01004618785610118</v>
       </c>
       <c r="J141" t="n">
         <v>0.002753942342229223</v>
@@ -18394,13 +18394,13 @@
         <v>0.005507884684458447</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0237455349326028</v>
+        <v>0.0118727674663014</v>
       </c>
       <c r="P141" t="n">
-        <v>0.01826579610200215</v>
+        <v>0.009132898051001074</v>
       </c>
       <c r="Q141" t="n">
-        <v>0.01643921649180193</v>
+        <v>0.008219608245900966</v>
       </c>
       <c r="R141" t="n">
         <v>0.002753942342229223</v>
@@ -18460,7 +18460,7 @@
         <v>0.01009778858817382</v>
       </c>
       <c r="AK141" t="n">
-        <v>0.04109804122950483</v>
+        <v>0.02054902061475242</v>
       </c>
       <c r="AL141" t="n">
         <v>0.01560567327263227</v>
@@ -18472,7 +18472,7 @@
         <v>0.01652365405337534</v>
       </c>
       <c r="AO141" t="n">
-        <v>0.04749106986520558</v>
+        <v>0.02374553493260279</v>
       </c>
       <c r="AP141" t="n">
         <v>0.008261827026687669</v>
@@ -18483,7 +18483,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>0.02484231739260445</v>
+        <v>0.01242115869630222</v>
       </c>
       <c r="C142" t="n">
         <v>0.002437175943373357</v>
@@ -18504,7 +18504,7 @@
         <v>0.00324956792449781</v>
       </c>
       <c r="I142" t="n">
-        <v>0.01951896366561778</v>
+        <v>0.00975948183280889</v>
       </c>
       <c r="J142" t="n">
         <v>0.002437175943373357</v>
@@ -18522,13 +18522,13 @@
         <v>0.004874351886746714</v>
       </c>
       <c r="O142" t="n">
-        <v>0.02306786615027556</v>
+        <v>0.01153393307513778</v>
       </c>
       <c r="P142" t="n">
-        <v>0.01774451242328889</v>
+        <v>0.008872256211644445</v>
       </c>
       <c r="Q142" t="n">
-        <v>0.01597006118096</v>
+        <v>0.007985030590480001</v>
       </c>
       <c r="R142" t="n">
         <v>0.002437175943373357</v>
@@ -18588,7 +18588,7 @@
         <v>0.008936311792368975</v>
       </c>
       <c r="AK142" t="n">
-        <v>0.0399251529524</v>
+        <v>0.0199625764762</v>
       </c>
       <c r="AL142" t="n">
         <v>0.01381066367911569</v>
@@ -18600,7 +18600,7 @@
         <v>0.01462305566024014</v>
       </c>
       <c r="AO142" t="n">
-        <v>0.04613573230055112</v>
+        <v>0.02306786615027556</v>
       </c>
       <c r="AP142" t="n">
         <v>0.007311527830120071</v>
@@ -18611,7 +18611,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>0.02389871738193398</v>
+        <v>0.01194935869096699</v>
       </c>
       <c r="C143" t="n">
         <v>0.002131268399679141</v>
@@ -18632,7 +18632,7 @@
         <v>0.002841691199572188</v>
       </c>
       <c r="I143" t="n">
-        <v>0.01877756365723384</v>
+        <v>0.00938878182861692</v>
       </c>
       <c r="J143" t="n">
         <v>0.002131268399679141</v>
@@ -18650,13 +18650,13 @@
         <v>0.004262536799358283</v>
       </c>
       <c r="O143" t="n">
-        <v>0.02219166614036727</v>
+        <v>0.01109583307018363</v>
       </c>
       <c r="P143" t="n">
-        <v>0.01707051241566713</v>
+        <v>0.008535256207833563</v>
       </c>
       <c r="Q143" t="n">
-        <v>0.01536346117410041</v>
+        <v>0.007681730587050207</v>
       </c>
       <c r="R143" t="n">
         <v>0.002131268399679141</v>
@@ -18716,7 +18716,7 @@
         <v>0.007814650798823517</v>
       </c>
       <c r="AK143" t="n">
-        <v>0.03840865293525104</v>
+        <v>0.01920432646762552</v>
       </c>
       <c r="AL143" t="n">
         <v>0.0120771875981818</v>
@@ -18728,7 +18728,7 @@
         <v>0.01278761039807485</v>
       </c>
       <c r="AO143" t="n">
-        <v>0.04438333228073454</v>
+        <v>0.02219166614036727</v>
       </c>
       <c r="AP143" t="n">
         <v>0.006393805199037423</v>
@@ -18739,7 +18739,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>0.0228067078053891</v>
+        <v>0.01140335390269455</v>
       </c>
       <c r="C144" t="n">
         <v>0.001831290699770393</v>
@@ -18760,7 +18760,7 @@
         <v>0.00244172093302719</v>
       </c>
       <c r="I144" t="n">
-        <v>0.01791955613280572</v>
+        <v>0.008959778066402859</v>
       </c>
       <c r="J144" t="n">
         <v>0.001831290699770393</v>
@@ -18778,13 +18778,13 @@
         <v>0.003662581399540786</v>
       </c>
       <c r="O144" t="n">
-        <v>0.02117765724786131</v>
+        <v>0.01058882862393065</v>
       </c>
       <c r="P144" t="n">
-        <v>0.01629050557527793</v>
+        <v>0.008145252787638963</v>
       </c>
       <c r="Q144" t="n">
-        <v>0.01466145501775013</v>
+        <v>0.007330727508875067</v>
       </c>
       <c r="R144" t="n">
         <v>0.001831290699770393</v>
@@ -18844,7 +18844,7 @@
         <v>0.006714732565824773</v>
       </c>
       <c r="AK144" t="n">
-        <v>0.03665363754437533</v>
+        <v>0.01832681877218767</v>
       </c>
       <c r="AL144" t="n">
         <v>0.01037731396536556</v>
@@ -18856,7 +18856,7 @@
         <v>0.01098774419862236</v>
       </c>
       <c r="AO144" t="n">
-        <v>0.04235531449572261</v>
+        <v>0.0211776572478613</v>
       </c>
       <c r="AP144" t="n">
         <v>0.005493872099311178</v>
@@ -18867,7 +18867,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>0.02221265575565341</v>
+        <v>0.01110632787782671</v>
       </c>
       <c r="C145" t="n">
         <v>0.001500957570526387</v>
@@ -18888,7 +18888,7 @@
         <v>0.00200127676070185</v>
       </c>
       <c r="I145" t="n">
-        <v>0.01745280095087054</v>
+        <v>0.008726400475435268</v>
       </c>
       <c r="J145" t="n">
         <v>0.001500957570526387</v>
@@ -18906,13 +18906,13 @@
         <v>0.003001915141052775</v>
       </c>
       <c r="O145" t="n">
-        <v>0.02062603748739246</v>
+        <v>0.01031301874369623</v>
       </c>
       <c r="P145" t="n">
-        <v>0.01586618268260958</v>
+        <v>0.007933091341304788</v>
       </c>
       <c r="Q145" t="n">
-        <v>0.01427956441434862</v>
+        <v>0.007139782207174311</v>
       </c>
       <c r="R145" t="n">
         <v>0.001500957570526387</v>
@@ -18972,7 +18972,7 @@
         <v>0.005503511091930087</v>
       </c>
       <c r="AK145" t="n">
-        <v>0.03569891103587156</v>
+        <v>0.01784945551793578</v>
       </c>
       <c r="AL145" t="n">
         <v>0.008505426232982862</v>
@@ -18984,7 +18984,7 @@
         <v>0.009005745423158323</v>
       </c>
       <c r="AO145" t="n">
-        <v>0.04125207497478491</v>
+        <v>0.02062603748739245</v>
       </c>
       <c r="AP145" t="n">
         <v>0.004502872711579162</v>
@@ -18995,7 +18995,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>0.02201966398078943</v>
+        <v>0.01100983199039471</v>
       </c>
       <c r="C146" t="n">
         <v>0.001206370595358185</v>
@@ -19016,7 +19016,7 @@
         <v>0.001608494127144247</v>
       </c>
       <c r="I146" t="n">
-        <v>0.01730116455633455</v>
+        <v>0.008650582278167274</v>
       </c>
       <c r="J146" t="n">
         <v>0.001206370595358185</v>
@@ -19034,13 +19034,13 @@
         <v>0.002412741190716371</v>
       </c>
       <c r="O146" t="n">
-        <v>0.02044683083930447</v>
+        <v>0.01022341541965223</v>
       </c>
       <c r="P146" t="n">
-        <v>0.01572833141484959</v>
+        <v>0.007864165707424793</v>
       </c>
       <c r="Q146" t="n">
-        <v>0.01415549827336463</v>
+        <v>0.007077749136682315</v>
       </c>
       <c r="R146" t="n">
         <v>0.001206370595358185</v>
@@ -19100,7 +19100,7 @@
         <v>0.004423358849646679</v>
       </c>
       <c r="AK146" t="n">
-        <v>0.03538874568341158</v>
+        <v>0.01769437284170579</v>
       </c>
       <c r="AL146" t="n">
         <v>0.00683610004036305</v>
@@ -19112,7 +19112,7 @@
         <v>0.007238223572149111</v>
       </c>
       <c r="AO146" t="n">
-        <v>0.04089366167860893</v>
+        <v>0.02044683083930447</v>
       </c>
       <c r="AP146" t="n">
         <v>0.003619111786074556</v>
@@ -19123,7 +19123,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>0.02255413488494639</v>
+        <v>0.0112770674424732</v>
       </c>
       <c r="C147" t="n">
         <v>0.0009992925558726603</v>
@@ -19144,7 +19144,7 @@
         <v>0.00133239007449688</v>
       </c>
       <c r="I147" t="n">
-        <v>0.01772110598102931</v>
+        <v>0.008860552990514654</v>
       </c>
       <c r="J147" t="n">
         <v>0.0009992925558726603</v>
@@ -19162,13 +19162,13 @@
         <v>0.001998585111745321</v>
       </c>
       <c r="O147" t="n">
-        <v>0.02094312525030737</v>
+        <v>0.01047156262515368</v>
       </c>
       <c r="P147" t="n">
-        <v>0.01611009634639028</v>
+        <v>0.008055048173195139</v>
       </c>
       <c r="Q147" t="n">
-        <v>0.01449908671175125</v>
+        <v>0.007249543355875626</v>
       </c>
       <c r="R147" t="n">
         <v>0.0009992925558726603</v>
@@ -19228,7 +19228,7 @@
         <v>0.003664072704866421</v>
       </c>
       <c r="AK147" t="n">
-        <v>0.03624771677937813</v>
+        <v>0.01812385838968907</v>
       </c>
       <c r="AL147" t="n">
         <v>0.005662657816611742</v>
@@ -19240,7 +19240,7 @@
         <v>0.005995755335235962</v>
       </c>
       <c r="AO147" t="n">
-        <v>0.04188625050061473</v>
+        <v>0.02094312525030737</v>
       </c>
       <c r="AP147" t="n">
         <v>0.002997877667617981</v>
@@ -19251,7 +19251,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.02247121310029077</v>
+        <v>0.01123560655014538</v>
       </c>
       <c r="C148" t="n">
         <v>0.0009463208191099509</v>
@@ -19272,7 +19272,7 @@
         <v>0.001261761092146601</v>
       </c>
       <c r="I148" t="n">
-        <v>0.01765595315022846</v>
+        <v>0.00882797657511423</v>
       </c>
       <c r="J148" t="n">
         <v>0.0009463208191099509</v>
@@ -19290,13 +19290,13 @@
         <v>0.001892641638219902</v>
       </c>
       <c r="O148" t="n">
-        <v>0.02086612645027</v>
+        <v>0.010433063225135</v>
       </c>
       <c r="P148" t="n">
-        <v>0.01605086650020769</v>
+        <v>0.008025433250103844</v>
       </c>
       <c r="Q148" t="n">
-        <v>0.01444577985018692</v>
+        <v>0.007222889925093461</v>
       </c>
       <c r="R148" t="n">
         <v>0.0009463208191099509</v>
@@ -19356,7 +19356,7 @@
         <v>0.003469843003403153</v>
       </c>
       <c r="AK148" t="n">
-        <v>0.0361144496254673</v>
+        <v>0.01805722481273365</v>
       </c>
       <c r="AL148" t="n">
         <v>0.005362484641623055</v>
@@ -19368,7 +19368,7 @@
         <v>0.005677924914659705</v>
       </c>
       <c r="AO148" t="n">
-        <v>0.04173225290054</v>
+        <v>0.02086612645027</v>
       </c>
       <c r="AP148" t="n">
         <v>0.002838962457329852</v>
@@ -19379,7 +19379,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.02238421332193288</v>
+        <v>0.01119210666096644</v>
       </c>
       <c r="C149" t="n">
         <v>0.000935789994417869</v>
@@ -19400,7 +19400,7 @@
         <v>0.001247719992557159</v>
       </c>
       <c r="I149" t="n">
-        <v>0.01758759618151869</v>
+        <v>0.008793798090759343</v>
       </c>
       <c r="J149" t="n">
         <v>0.000935789994417869</v>
@@ -19418,13 +19418,13 @@
         <v>0.001871579988835738</v>
       </c>
       <c r="O149" t="n">
-        <v>0.02078534094179482</v>
+        <v>0.01039267047089741</v>
       </c>
       <c r="P149" t="n">
-        <v>0.01598872380138062</v>
+        <v>0.007994361900690311</v>
       </c>
       <c r="Q149" t="n">
-        <v>0.01438985142124256</v>
+        <v>0.00719492571062128</v>
       </c>
       <c r="R149" t="n">
         <v>0.000935789994417869</v>
@@ -19484,7 +19484,7 @@
         <v>0.003431229979532186</v>
       </c>
       <c r="AK149" t="n">
-        <v>0.0359746285531064</v>
+        <v>0.0179873142765532</v>
       </c>
       <c r="AL149" t="n">
         <v>0.005302809968367925</v>
@@ -19496,7 +19496,7 @@
         <v>0.005614739966507213</v>
       </c>
       <c r="AO149" t="n">
-        <v>0.04157068188358962</v>
+        <v>0.02078534094179481</v>
       </c>
       <c r="AP149" t="n">
         <v>0.002807369983253607</v>
@@ -19507,7 +19507,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>0.02260293274487097</v>
+        <v>0.01130146637243548</v>
       </c>
       <c r="C150" t="n">
         <v>0.0009793372586744732</v>
@@ -19528,7 +19528,7 @@
         <v>0.001305783011565964</v>
       </c>
       <c r="I150" t="n">
-        <v>0.01775944715668433</v>
+        <v>0.008879723578342165</v>
       </c>
       <c r="J150" t="n">
         <v>0.0009793372586744732</v>
@@ -19546,13 +19546,13 @@
         <v>0.001958674517348946</v>
       </c>
       <c r="O150" t="n">
-        <v>0.02098843754880876</v>
+        <v>0.01049421877440438</v>
       </c>
       <c r="P150" t="n">
-        <v>0.01614495196062212</v>
+        <v>0.008072475980311059</v>
       </c>
       <c r="Q150" t="n">
-        <v>0.01453045676455991</v>
+        <v>0.007265228382279954</v>
       </c>
       <c r="R150" t="n">
         <v>0.0009793372586744732</v>
@@ -19612,7 +19612,7 @@
         <v>0.003590903281806401</v>
       </c>
       <c r="AK150" t="n">
-        <v>0.03632614191139977</v>
+        <v>0.01816307095569988</v>
       </c>
       <c r="AL150" t="n">
         <v>0.005549577799155348</v>
@@ -19624,7 +19624,7 @@
         <v>0.005876023552046838</v>
       </c>
       <c r="AO150" t="n">
-        <v>0.04197687509761751</v>
+        <v>0.02098843754880875</v>
       </c>
       <c r="AP150" t="n">
         <v>0.002938011776023419</v>
@@ -19635,7 +19635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>0.02323688747222311</v>
+        <v>0.01161844373611155</v>
       </c>
       <c r="C151" t="n">
         <v>0.001044582869578749</v>
@@ -19656,7 +19656,7 @@
         <v>0.001392777159438332</v>
       </c>
       <c r="I151" t="n">
-        <v>0.01825755444246101</v>
+        <v>0.009128777221230506</v>
       </c>
       <c r="J151" t="n">
         <v>0.001044582869578749</v>
@@ -19674,13 +19674,13 @@
         <v>0.002089165739157497</v>
       </c>
       <c r="O151" t="n">
-        <v>0.02157710979563574</v>
+        <v>0.01078855489781787</v>
       </c>
       <c r="P151" t="n">
-        <v>0.01659777676587364</v>
+        <v>0.008298888382936822</v>
       </c>
       <c r="Q151" t="n">
-        <v>0.01493799908928628</v>
+        <v>0.00746899954464314</v>
       </c>
       <c r="R151" t="n">
         <v>0.001044582869578749</v>
@@ -19740,7 +19740,7 @@
         <v>0.003830137188455412</v>
       </c>
       <c r="AK151" t="n">
-        <v>0.0373449977232157</v>
+        <v>0.01867249886160785</v>
       </c>
       <c r="AL151" t="n">
         <v>0.00591930292761291</v>
@@ -19752,7 +19752,7 @@
         <v>0.006267497217472492</v>
       </c>
       <c r="AO151" t="n">
-        <v>0.04315421959127148</v>
+        <v>0.02157710979563574</v>
       </c>
       <c r="AP151" t="n">
         <v>0.003133748608736246</v>
@@ -19763,7 +19763,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>0.02469816827735617</v>
+        <v>0.01234908413867808</v>
       </c>
       <c r="C152" t="n">
         <v>0.001154569748196559</v>
@@ -19784,7 +19784,7 @@
         <v>0.001539426330928746</v>
       </c>
       <c r="I152" t="n">
-        <v>0.01940570364649413</v>
+        <v>0.009702851823247066</v>
       </c>
       <c r="J152" t="n">
         <v>0.001154569748196559</v>
@@ -19802,13 +19802,13 @@
         <v>0.002309139496393119</v>
       </c>
       <c r="O152" t="n">
-        <v>0.02293401340040216</v>
+        <v>0.01146700670020108</v>
       </c>
       <c r="P152" t="n">
-        <v>0.01764154876954012</v>
+        <v>0.00882077438477006</v>
       </c>
       <c r="Q152" t="n">
-        <v>0.01587739389258611</v>
+        <v>0.007938696946293053</v>
       </c>
       <c r="R152" t="n">
         <v>0.001154569748196559</v>
@@ -19868,7 +19868,7 @@
         <v>0.004233422410054051</v>
       </c>
       <c r="AK152" t="n">
-        <v>0.03969348473146527</v>
+        <v>0.01984674236573264</v>
       </c>
       <c r="AL152" t="n">
         <v>0.00654256190644717</v>
@@ -19880,7 +19880,7 @@
         <v>0.006927418489179356</v>
       </c>
       <c r="AO152" t="n">
-        <v>0.04586802680080431</v>
+        <v>0.02293401340040216</v>
       </c>
       <c r="AP152" t="n">
         <v>0.003463709244589678</v>
@@ -19891,7 +19891,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>0.02612660194895529</v>
+        <v>0.01306330097447764</v>
       </c>
       <c r="C153" t="n">
         <v>0.00142798869631954</v>
@@ -19912,7 +19912,7 @@
         <v>0.001903984928426054</v>
       </c>
       <c r="I153" t="n">
-        <v>0.02052804438846487</v>
+        <v>0.01026402219423243</v>
       </c>
       <c r="J153" t="n">
         <v>0.00142798869631954</v>
@@ -19930,13 +19930,13 @@
         <v>0.002855977392639081</v>
       </c>
       <c r="O153" t="n">
-        <v>0.02426041609545848</v>
+        <v>0.01213020804772924</v>
       </c>
       <c r="P153" t="n">
-        <v>0.01866185853496806</v>
+        <v>0.00933092926748403</v>
       </c>
       <c r="Q153" t="n">
-        <v>0.01679567268147126</v>
+        <v>0.008397836340735628</v>
       </c>
       <c r="R153" t="n">
         <v>0.00142798869631954</v>
@@ -19996,7 +19996,7 @@
         <v>0.005235958553171647</v>
       </c>
       <c r="AK153" t="n">
-        <v>0.04198918170367814</v>
+        <v>0.02099459085183907</v>
       </c>
       <c r="AL153" t="n">
         <v>0.008091935945810728</v>
@@ -20008,7 +20008,7 @@
         <v>0.00856793217791724</v>
       </c>
       <c r="AO153" t="n">
-        <v>0.04852083219091696</v>
+        <v>0.02426041609545848</v>
       </c>
       <c r="AP153" t="n">
         <v>0.00428396608895862</v>
@@ -20019,7 +20019,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>0.02654238136598157</v>
+        <v>0.01327119068299078</v>
       </c>
       <c r="C154" t="n">
         <v>0.00176953410457192</v>
@@ -20040,7 +20040,7 @@
         <v>0.002359378806095894</v>
       </c>
       <c r="I154" t="n">
-        <v>0.02085472821612837</v>
+        <v>0.01042736410806419</v>
       </c>
       <c r="J154" t="n">
         <v>0.00176953410457192</v>
@@ -20058,13 +20058,13 @@
         <v>0.003539068209143841</v>
       </c>
       <c r="O154" t="n">
-        <v>0.02464649698269717</v>
+        <v>0.01232324849134859</v>
       </c>
       <c r="P154" t="n">
-        <v>0.01895884383284397</v>
+        <v>0.009479421916421987</v>
       </c>
       <c r="Q154" t="n">
-        <v>0.01706295944955958</v>
+        <v>0.008531479724779788</v>
       </c>
       <c r="R154" t="n">
         <v>0.00176953410457192</v>
@@ -20124,7 +20124,7 @@
         <v>0.006488291716763708</v>
       </c>
       <c r="AK154" t="n">
-        <v>0.04265739862389895</v>
+        <v>0.02132869931194947</v>
       </c>
       <c r="AL154" t="n">
         <v>0.01002735992590755</v>
@@ -20136,7 +20136,7 @@
         <v>0.01061720462743152</v>
       </c>
       <c r="AO154" t="n">
-        <v>0.04929299396539433</v>
+        <v>0.02464649698269717</v>
       </c>
       <c r="AP154" t="n">
         <v>0.005308602313715761</v>
@@ -20147,7 +20147,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>0.02623365488360124</v>
+        <v>0.01311682744180062</v>
       </c>
       <c r="C155" t="n">
         <v>0.002162367247092708</v>
@@ -20168,7 +20168,7 @@
         <v>0.002883156329456943</v>
       </c>
       <c r="I155" t="n">
-        <v>0.02061215740854383</v>
+        <v>0.01030607870427191</v>
       </c>
       <c r="J155" t="n">
         <v>0.002162367247092708</v>
@@ -20186,13 +20186,13 @@
         <v>0.004324734494185415</v>
       </c>
       <c r="O155" t="n">
-        <v>0.02435982239191544</v>
+        <v>0.01217991119595772</v>
       </c>
       <c r="P155" t="n">
-        <v>0.01873832491685802</v>
+        <v>0.009369162458429012</v>
       </c>
       <c r="Q155" t="n">
-        <v>0.01686449242517222</v>
+        <v>0.008432246212586111</v>
       </c>
       <c r="R155" t="n">
         <v>0.002162367247092708</v>
@@ -20252,7 +20252,7 @@
         <v>0.007928679906006594</v>
       </c>
       <c r="AK155" t="n">
-        <v>0.04216123106293056</v>
+        <v>0.02108061553146528</v>
       </c>
       <c r="AL155" t="n">
         <v>0.01225341440019201</v>
@@ -20264,7 +20264,7 @@
         <v>0.01297420348255624</v>
       </c>
       <c r="AO155" t="n">
-        <v>0.04871964478383087</v>
+        <v>0.02435982239191543</v>
       </c>
       <c r="AP155" t="n">
         <v>0.006487101741278122</v>
@@ -20275,7 +20275,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>0.02651968054794793</v>
+        <v>0.01325984027397397</v>
       </c>
       <c r="C156" t="n">
         <v>0.002469495584746972</v>
@@ -20296,7 +20296,7 @@
         <v>0.00329266077966263</v>
       </c>
       <c r="I156" t="n">
-        <v>0.02083689185910195</v>
+        <v>0.01041844592955097</v>
       </c>
       <c r="J156" t="n">
         <v>0.002469495584746972</v>
@@ -20314,13 +20314,13 @@
         <v>0.004938991169493944</v>
       </c>
       <c r="O156" t="n">
-        <v>0.02462541765166594</v>
+        <v>0.01231270882583297</v>
       </c>
       <c r="P156" t="n">
-        <v>0.01894262896281995</v>
+        <v>0.009471314481409974</v>
       </c>
       <c r="Q156" t="n">
-        <v>0.01704836606653795</v>
+        <v>0.008524183033268977</v>
       </c>
       <c r="R156" t="n">
         <v>0.002469495584746972</v>
@@ -20380,7 +20380,7 @@
         <v>0.009054817144072231</v>
       </c>
       <c r="AK156" t="n">
-        <v>0.04262091516634489</v>
+        <v>0.02131045758317245</v>
       </c>
       <c r="AL156" t="n">
         <v>0.01399380831356618</v>
@@ -20392,7 +20392,7 @@
         <v>0.01481697350848183</v>
       </c>
       <c r="AO156" t="n">
-        <v>0.04925083530333187</v>
+        <v>0.02462541765166594</v>
       </c>
       <c r="AP156" t="n">
         <v>0.007408486754240916</v>
@@ -20403,7 +20403,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>0.02537464646425565</v>
+        <v>0.01268732323212782</v>
       </c>
       <c r="C157" t="n">
         <v>0.002662353578135185</v>
@@ -20424,7 +20424,7 @@
         <v>0.003549804770846913</v>
       </c>
       <c r="I157" t="n">
-        <v>0.01993722222191515</v>
+        <v>0.009968611110957575</v>
       </c>
       <c r="J157" t="n">
         <v>0.002662353578135185</v>
@@ -20442,13 +20442,13 @@
         <v>0.00532470715627037</v>
       </c>
       <c r="O157" t="n">
-        <v>0.02356217171680882</v>
+        <v>0.01178108585840441</v>
       </c>
       <c r="P157" t="n">
-        <v>0.01812474747446832</v>
+        <v>0.009062373737234158</v>
       </c>
       <c r="Q157" t="n">
-        <v>0.01631227272702149</v>
+        <v>0.008156136363510744</v>
       </c>
       <c r="R157" t="n">
         <v>0.002662353578135185</v>
@@ -20508,7 +20508,7 @@
         <v>0.00976196311982901</v>
       </c>
       <c r="AK157" t="n">
-        <v>0.04078068181755372</v>
+        <v>0.02039034090877686</v>
       </c>
       <c r="AL157" t="n">
         <v>0.01508667027609938</v>
@@ -20520,7 +20520,7 @@
         <v>0.01597412146881111</v>
       </c>
       <c r="AO157" t="n">
-        <v>0.04712434343361763</v>
+        <v>0.02356217171680881</v>
       </c>
       <c r="AP157" t="n">
         <v>0.007987060734405553</v>
@@ -20531,7 +20531,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>0.02501517252084691</v>
+        <v>0.01250758626042345</v>
       </c>
       <c r="C158" t="n">
         <v>0.002720705254806444</v>
@@ -20552,7 +20552,7 @@
         <v>0.003627607006408592</v>
       </c>
       <c r="I158" t="n">
-        <v>0.01965477840923686</v>
+        <v>0.009827389204618429</v>
       </c>
       <c r="J158" t="n">
         <v>0.002720705254806444</v>
@@ -20570,13 +20570,13 @@
         <v>0.005441410509612887</v>
       </c>
       <c r="O158" t="n">
-        <v>0.02322837448364356</v>
+        <v>0.01161418724182178</v>
       </c>
       <c r="P158" t="n">
-        <v>0.0178679803720335</v>
+        <v>0.008933990186016752</v>
       </c>
       <c r="Q158" t="n">
-        <v>0.01608118233483016</v>
+        <v>0.008040591167415078</v>
       </c>
       <c r="R158" t="n">
         <v>0.002720705254806444</v>
@@ -20636,7 +20636,7 @@
         <v>0.009975919267623626</v>
       </c>
       <c r="AK158" t="n">
-        <v>0.04020295583707539</v>
+        <v>0.02010147791853769</v>
       </c>
       <c r="AL158" t="n">
         <v>0.01541732977723652</v>
@@ -20648,7 +20648,7 @@
         <v>0.01632423152883866</v>
       </c>
       <c r="AO158" t="n">
-        <v>0.04645674896728712</v>
+        <v>0.02322837448364356</v>
       </c>
       <c r="AP158" t="n">
         <v>0.008162115764419331</v>
@@ -20659,7 +20659,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>0.02468256250858721</v>
+        <v>0.01234128125429361</v>
       </c>
       <c r="C159" t="n">
         <v>0.002645102749137013</v>
@@ -20680,7 +20680,7 @@
         <v>0.003526803665516018</v>
       </c>
       <c r="I159" t="n">
-        <v>0.01939344197103281</v>
+        <v>0.009696720985516405</v>
       </c>
       <c r="J159" t="n">
         <v>0.002645102749137013</v>
@@ -20698,13 +20698,13 @@
         <v>0.005290205498274026</v>
       </c>
       <c r="O159" t="n">
-        <v>0.02291952232940241</v>
+        <v>0.01145976116470121</v>
       </c>
       <c r="P159" t="n">
-        <v>0.01763040179184801</v>
+        <v>0.008815200895924004</v>
       </c>
       <c r="Q159" t="n">
-        <v>0.01586736161266321</v>
+        <v>0.007933680806331604</v>
       </c>
       <c r="R159" t="n">
         <v>0.002645102749137013</v>
@@ -20764,7 +20764,7 @@
         <v>0.009698710080169048</v>
       </c>
       <c r="AK159" t="n">
-        <v>0.03966840403165802</v>
+        <v>0.01983420201582901</v>
       </c>
       <c r="AL159" t="n">
         <v>0.01498891557844307</v>
@@ -20776,7 +20776,7 @@
         <v>0.01587061649482208</v>
       </c>
       <c r="AO159" t="n">
-        <v>0.04583904465880483</v>
+        <v>0.02291952232940241</v>
       </c>
       <c r="AP159" t="n">
         <v>0.007935308247411038</v>
@@ -20787,7 +20787,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>0.02421683387957442</v>
+        <v>0.01210841693978721</v>
       </c>
       <c r="C160" t="n">
         <v>0.002474179780436834</v>
@@ -20808,7 +20808,7 @@
         <v>0.003298906373915779</v>
       </c>
       <c r="I160" t="n">
-        <v>0.01902751233395132</v>
+        <v>0.009513756166975662</v>
       </c>
       <c r="J160" t="n">
         <v>0.002474179780436834</v>
@@ -20826,13 +20826,13 @@
         <v>0.004948359560873668</v>
       </c>
       <c r="O160" t="n">
-        <v>0.02248706003103339</v>
+        <v>0.01124353001551669</v>
       </c>
       <c r="P160" t="n">
-        <v>0.0172977384854103</v>
+        <v>0.008648869242705148</v>
       </c>
       <c r="Q160" t="n">
-        <v>0.01556796463686927</v>
+        <v>0.007783982318434633</v>
       </c>
       <c r="R160" t="n">
         <v>0.002474179780436834</v>
@@ -20892,7 +20892,7 @@
         <v>0.009071992528268392</v>
       </c>
       <c r="AK160" t="n">
-        <v>0.03891991159217317</v>
+        <v>0.01945995579608658</v>
       </c>
       <c r="AL160" t="n">
         <v>0.01402035208914206</v>
@@ -20904,7 +20904,7 @@
         <v>0.014845078682621</v>
       </c>
       <c r="AO160" t="n">
-        <v>0.04497412006206677</v>
+        <v>0.02248706003103338</v>
       </c>
       <c r="AP160" t="n">
         <v>0.007422539341310502</v>
@@ -20915,7 +20915,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>0.02438563585757969</v>
+        <v>0.01219281792878985</v>
       </c>
       <c r="C161" t="n">
         <v>0.002406430740405352</v>
@@ -20936,7 +20936,7 @@
         <v>0.003208574320540469</v>
       </c>
       <c r="I161" t="n">
-        <v>0.0191601424595269</v>
+        <v>0.009580071229763449</v>
       </c>
       <c r="J161" t="n">
         <v>0.002406430740405352</v>
@@ -20954,13 +20954,13 @@
         <v>0.004812861480810704</v>
       </c>
       <c r="O161" t="n">
-        <v>0.02264380472489543</v>
+        <v>0.01132190236244771</v>
       </c>
       <c r="P161" t="n">
-        <v>0.01741831132684263</v>
+        <v>0.008709155663421316</v>
       </c>
       <c r="Q161" t="n">
-        <v>0.01567648019415837</v>
+        <v>0.007838240097079185</v>
       </c>
       <c r="R161" t="n">
         <v>0.002406430740405352</v>
@@ -21020,7 +21020,7 @@
         <v>0.008823579381486289</v>
       </c>
       <c r="AK161" t="n">
-        <v>0.03919120048539593</v>
+        <v>0.01959560024269796</v>
       </c>
       <c r="AL161" t="n">
         <v>0.01363644086229699</v>
@@ -21032,7 +21032,7 @@
         <v>0.01443858444243211</v>
       </c>
       <c r="AO161" t="n">
-        <v>0.04528760944979085</v>
+        <v>0.02264380472489542</v>
       </c>
       <c r="AP161" t="n">
         <v>0.007219292221216055</v>
@@ -21043,7 +21043,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>0.02557549651221314</v>
+        <v>0.01278774825610657</v>
       </c>
       <c r="C162" t="n">
         <v>0.002769205575712389</v>
@@ -21064,7 +21064,7 @@
         <v>0.003692274100949852</v>
       </c>
       <c r="I162" t="n">
-        <v>0.02009503297388175</v>
+        <v>0.01004751648694088</v>
       </c>
       <c r="J162" t="n">
         <v>0.002769205575712389</v>
@@ -21082,13 +21082,13 @@
         <v>0.005538411151424777</v>
       </c>
       <c r="O162" t="n">
-        <v>0.02374867533276935</v>
+        <v>0.01187433766638467</v>
       </c>
       <c r="P162" t="n">
-        <v>0.01826821179443796</v>
+        <v>0.009134105897218978</v>
       </c>
       <c r="Q162" t="n">
-        <v>0.01644139061499416</v>
+        <v>0.00822069530749708</v>
       </c>
       <c r="R162" t="n">
         <v>0.002769205575712389</v>
@@ -21148,7 +21148,7 @@
         <v>0.01015375377761209</v>
       </c>
       <c r="AK162" t="n">
-        <v>0.0411034765374854</v>
+        <v>0.0205517382687427</v>
       </c>
       <c r="AL162" t="n">
         <v>0.01569216492903687</v>
@@ -21160,7 +21160,7 @@
         <v>0.01661523345427433</v>
       </c>
       <c r="AO162" t="n">
-        <v>0.04749735066553869</v>
+        <v>0.02374867533276934</v>
       </c>
       <c r="AP162" t="n">
         <v>0.008307616727137165</v>
@@ -21171,7 +21171,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>0.02586130062172372</v>
+        <v>0.01293065031086186</v>
       </c>
       <c r="C163" t="n">
         <v>0.003</v>
@@ -21192,7 +21192,7 @@
         <v>0.004</v>
       </c>
       <c r="I163" t="n">
-        <v>0.02031959334564006</v>
+        <v>0.01015979667282003</v>
       </c>
       <c r="J163" t="n">
         <v>0.003</v>
@@ -21210,13 +21210,13 @@
         <v>0.006</v>
       </c>
       <c r="O163" t="n">
-        <v>0.02401406486302917</v>
+        <v>0.01200703243151458</v>
       </c>
       <c r="P163" t="n">
-        <v>0.01847235758694551</v>
+        <v>0.009236178793472754</v>
       </c>
       <c r="Q163" t="n">
-        <v>0.01662512182825096</v>
+        <v>0.00831256091412548</v>
       </c>
       <c r="R163" t="n">
         <v>0.003</v>
@@ -21276,7 +21276,7 @@
         <v>0.011</v>
       </c>
       <c r="AK163" t="n">
-        <v>0.0415628045706274</v>
+        <v>0.0207814022853137</v>
       </c>
       <c r="AL163" t="n">
         <v>0.017</v>
@@ -21288,7 +21288,7 @@
         <v>0.018</v>
       </c>
       <c r="AO163" t="n">
-        <v>0.04802812972605833</v>
+        <v>0.02401406486302916</v>
       </c>
       <c r="AP163" t="n">
         <v>0.008999999999999999</v>
@@ -21299,7 +21299,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>0.02538925808715152</v>
+        <v>0.01269462904357576</v>
       </c>
       <c r="C164" t="n">
         <v>0.002999378254435397</v>
@@ -21320,7 +21320,7 @@
         <v>0.003999171005913862</v>
       </c>
       <c r="I164" t="n">
-        <v>0.0199487027827619</v>
+        <v>0.009974351391380951</v>
       </c>
       <c r="J164" t="n">
         <v>0.002999378254435397</v>
@@ -21338,13 +21338,13 @@
         <v>0.005998756508870794</v>
       </c>
       <c r="O164" t="n">
-        <v>0.02357573965235498</v>
+        <v>0.01178786982617749</v>
       </c>
       <c r="P164" t="n">
-        <v>0.01813518434796536</v>
+        <v>0.009067592173982682</v>
       </c>
       <c r="Q164" t="n">
-        <v>0.01632166591316883</v>
+        <v>0.008160832956584414</v>
       </c>
       <c r="R164" t="n">
         <v>0.002999378254435397</v>
@@ -21404,7 +21404,7 @@
         <v>0.01099772026626312</v>
       </c>
       <c r="AK164" t="n">
-        <v>0.04080416478292208</v>
+        <v>0.02040208239146104</v>
       </c>
       <c r="AL164" t="n">
         <v>0.01699647677513392</v>
@@ -21416,7 +21416,7 @@
         <v>0.01799626952661238</v>
       </c>
       <c r="AO164" t="n">
-        <v>0.04715147930470995</v>
+        <v>0.02357573965235498</v>
       </c>
       <c r="AP164" t="n">
         <v>0.008998134763306189</v>
@@ -21427,7 +21427,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>0.0244691640671452</v>
+        <v>0.0122345820335726</v>
       </c>
       <c r="C165" t="n">
         <v>0.002823797659949639</v>
@@ -21448,7 +21448,7 @@
         <v>0.003765063546599518</v>
       </c>
       <c r="I165" t="n">
-        <v>0.01922577176704265</v>
+        <v>0.009612885883521327</v>
       </c>
       <c r="J165" t="n">
         <v>0.002823797659949639</v>
@@ -21466,13 +21466,13 @@
         <v>0.005647595319899277</v>
       </c>
       <c r="O165" t="n">
-        <v>0.02272136663377769</v>
+        <v>0.01136068331688884</v>
       </c>
       <c r="P165" t="n">
-        <v>0.01747797433367514</v>
+        <v>0.00873898716683757</v>
       </c>
       <c r="Q165" t="n">
-        <v>0.01573017690030763</v>
+        <v>0.007865088450153813</v>
       </c>
       <c r="R165" t="n">
         <v>0.002823797659949639</v>
@@ -21532,7 +21532,7 @@
         <v>0.01035392475314867</v>
       </c>
       <c r="AK165" t="n">
-        <v>0.03932544225076907</v>
+        <v>0.01966272112538453</v>
       </c>
       <c r="AL165" t="n">
         <v>0.01600152007304795</v>
@@ -21544,7 +21544,7 @@
         <v>0.01694278595969783</v>
       </c>
       <c r="AO165" t="n">
-        <v>0.04544273326755537</v>
+        <v>0.02272136663377768</v>
       </c>
       <c r="AP165" t="n">
         <v>0.008471392979848915</v>
@@ -21555,7 +21555,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>0.02375483014124383</v>
+        <v>0.01187741507062191</v>
       </c>
       <c r="C166" t="n">
         <v>0.002534650480507568</v>
@@ -21576,7 +21576,7 @@
         <v>0.00337953397401009</v>
       </c>
       <c r="I166" t="n">
-        <v>0.01866450939669157</v>
+        <v>0.009332254698345787</v>
       </c>
       <c r="J166" t="n">
         <v>0.002534650480507568</v>
@@ -21594,13 +21594,13 @@
         <v>0.005069300961015135</v>
       </c>
       <c r="O166" t="n">
-        <v>0.02205805655972641</v>
+        <v>0.01102902827986321</v>
       </c>
       <c r="P166" t="n">
-        <v>0.01696773581517416</v>
+        <v>0.008483867907587079</v>
       </c>
       <c r="Q166" t="n">
-        <v>0.01527096223365674</v>
+        <v>0.007635481116828372</v>
       </c>
       <c r="R166" t="n">
         <v>0.002534650480507568</v>
@@ -21660,7 +21660,7 @@
         <v>0.009293718428527746</v>
       </c>
       <c r="AK166" t="n">
-        <v>0.03817740558414186</v>
+        <v>0.01908870279207093</v>
       </c>
       <c r="AL166" t="n">
         <v>0.01436301938954288</v>
@@ -21672,7 +21672,7 @@
         <v>0.0152079028830454</v>
       </c>
       <c r="AO166" t="n">
-        <v>0.04411611311945281</v>
+        <v>0.02205805655972641</v>
       </c>
       <c r="AP166" t="n">
         <v>0.007603951441522701</v>
@@ -21683,7 +21683,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>0.02297533669367865</v>
+        <v>0.01148766834683933</v>
       </c>
       <c r="C167" t="n">
         <v>0.002188912101151788</v>
@@ -21704,7 +21704,7 @@
         <v>0.002918549468202385</v>
       </c>
       <c r="I167" t="n">
-        <v>0.01805205025931894</v>
+        <v>0.009026025129659469</v>
       </c>
       <c r="J167" t="n">
         <v>0.002188912101151788</v>
@@ -21722,13 +21722,13 @@
         <v>0.004377824202303576</v>
       </c>
       <c r="O167" t="n">
-        <v>0.02133424121555875</v>
+        <v>0.01066712060777937</v>
       </c>
       <c r="P167" t="n">
-        <v>0.01641095478119903</v>
+        <v>0.008205477390599517</v>
       </c>
       <c r="Q167" t="n">
-        <v>0.01476985930307913</v>
+        <v>0.007384929651539566</v>
       </c>
       <c r="R167" t="n">
         <v>0.002188912101151788</v>
@@ -21788,7 +21788,7 @@
         <v>0.008026011037556556</v>
       </c>
       <c r="AK167" t="n">
-        <v>0.03692464825769783</v>
+        <v>0.01846232412884892</v>
       </c>
       <c r="AL167" t="n">
         <v>0.01240383523986014</v>
@@ -21800,7 +21800,7 @@
         <v>0.01313347260691073</v>
       </c>
       <c r="AO167" t="n">
-        <v>0.04266848243111749</v>
+        <v>0.02133424121555874</v>
       </c>
       <c r="AP167" t="n">
         <v>0.006566736303455364</v>
@@ -21811,7 +21811,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>0.02213308702424364</v>
+        <v>0.01106654351212182</v>
       </c>
       <c r="C168" t="n">
         <v>0.001822527288443714</v>
@@ -21832,7 +21832,7 @@
         <v>0.002430036384591619</v>
       </c>
       <c r="I168" t="n">
-        <v>0.01739028266190572</v>
+        <v>0.008695141330952859</v>
       </c>
       <c r="J168" t="n">
         <v>0.001822527288443714</v>
@@ -21850,13 +21850,13 @@
         <v>0.003645054576887428</v>
       </c>
       <c r="O168" t="n">
-        <v>0.02055215223679767</v>
+        <v>0.01027607611839883</v>
       </c>
       <c r="P168" t="n">
-        <v>0.01580934787445974</v>
+        <v>0.007904673937229871</v>
       </c>
       <c r="Q168" t="n">
-        <v>0.01422841308701377</v>
+        <v>0.007114206543506885</v>
       </c>
       <c r="R168" t="n">
         <v>0.001822527288443714</v>
@@ -21916,7 +21916,7 @@
         <v>0.006682600057626951</v>
       </c>
       <c r="AK168" t="n">
-        <v>0.03557103271753442</v>
+        <v>0.01778551635876721</v>
       </c>
       <c r="AL168" t="n">
         <v>0.01032765463451438</v>
@@ -21928,7 +21928,7 @@
         <v>0.01093516373066228</v>
       </c>
       <c r="AO168" t="n">
-        <v>0.04110430447359534</v>
+        <v>0.02055215223679767</v>
       </c>
       <c r="AP168" t="n">
         <v>0.005467581865331142</v>
@@ -21939,7 +21939,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>0.0221528009246889</v>
+        <v>0.01107640046234445</v>
       </c>
       <c r="C169" t="n">
         <v>0.00149991984908948</v>
@@ -21960,7 +21960,7 @@
         <v>0.001999893132119306</v>
       </c>
       <c r="I169" t="n">
-        <v>0.0174057721551127</v>
+        <v>0.00870288607755635</v>
       </c>
       <c r="J169" t="n">
         <v>0.00149991984908948</v>
@@ -21978,13 +21978,13 @@
         <v>0.002999839698178959</v>
       </c>
       <c r="O169" t="n">
-        <v>0.02057045800149683</v>
+        <v>0.01028522900074842</v>
       </c>
       <c r="P169" t="n">
-        <v>0.01582342923192064</v>
+        <v>0.007911714615960318</v>
       </c>
       <c r="Q169" t="n">
-        <v>0.01424108630872857</v>
+        <v>0.007120543154364287</v>
       </c>
       <c r="R169" t="n">
         <v>0.00149991984908948</v>
@@ -22044,7 +22044,7 @@
         <v>0.005499706113328092</v>
       </c>
       <c r="AK169" t="n">
-        <v>0.03560271577182143</v>
+        <v>0.01780135788591072</v>
       </c>
       <c r="AL169" t="n">
         <v>0.008499545811507053</v>
@@ -22056,7 +22056,7 @@
         <v>0.008999519094536878</v>
       </c>
       <c r="AO169" t="n">
-        <v>0.04114091600299366</v>
+        <v>0.02057045800149683</v>
       </c>
       <c r="AP169" t="n">
         <v>0.004499759547268439</v>
